--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/FantasyFootballApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_D1379DC8D28FE40486589E4A6093F37925D03DDC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D92C5605-7709-441D-B4AE-E6F051BD6BCB}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_D1379DC8D28FE40486589E4A6093F37925D03DDC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AD90E9E-2B14-4E70-83E0-50FD93940A92}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="60" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44880" yWindow="60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="35">
   <si>
     <t>Lockett inma pockett</t>
   </si>
@@ -498,11 +498,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/FantasyFootballApp/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_D1379DC8D28FE40486589E4A6093F37925D03DDC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AD90E9E-2B14-4E70-83E0-50FD93940A92}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
@@ -19,12 +13,12 @@
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="35">
   <si>
     <t>Lockett inma pockett</t>
   </si>
@@ -125,7 +119,7 @@
     <t>Chance of making playoffs</t>
   </si>
   <si>
-    <t>Louie Power Index</t>
+    <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
@@ -134,8 +128,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,21 +192,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -250,7 +236,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -284,7 +270,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -319,10 +304,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -495,17 +479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -625,7 +606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -666,7 +647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -707,7 +688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -748,7 +729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,7 +770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -830,7 +811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -871,7 +852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -912,7 +893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -953,7 +934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -994,7 +975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1041,17 +1022,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1062,7 +1040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1070,13 +1048,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>8.3333333333333329E-2</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1084,13 +1062,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.16666666666666671</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1104,7 +1082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1112,13 +1090,13 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1126,13 +1104,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.41666666666666669</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1146,7 +1124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1160,7 +1138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1168,13 +1146,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.58333333333333337</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1182,13 +1160,13 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1202,7 +1180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1210,13 +1188,13 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1224,7 +1202,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>0.91666666666666663</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -1236,14 +1214,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1257,7 +1235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1274,7 +1252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1282,16 +1260,16 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0.91666666666666663</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D3">
-        <v>-8.333333333333337E-2</v>
+        <v>-0.08333333333333337</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1299,7 +1277,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D4">
         <v>-0.1666666666666666</v>
@@ -1308,7 +1286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1325,7 +1303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1333,16 +1311,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6">
-        <v>-0.33333333333333343</v>
+        <v>-0.3333333333333334</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1350,16 +1328,16 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.58333333333333337</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D7">
-        <v>-0.41666666666666657</v>
+        <v>-0.4166666666666666</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1367,16 +1345,16 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>0.41666666666666669</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D8">
-        <v>0.41666666666666669</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1384,16 +1362,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1410,7 +1388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1418,16 +1396,16 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.16666666666666671</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D11">
-        <v>0.16666666666666671</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1435,16 +1413,16 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>8.3333333333333329E-2</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D12">
-        <v>8.3333333333333329E-2</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1467,14 +1445,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1518,7 +1496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1562,7 +1540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1606,7 +1584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1650,7 +1628,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1694,7 +1672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1738,7 +1716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1782,7 +1760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1826,7 +1804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1870,7 +1848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1914,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1958,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2002,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2052,14 +2030,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2073,7 +2051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2090,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2107,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2124,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2141,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2158,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2175,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2192,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2209,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2226,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2243,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2260,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>12</v>
       </c>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -1454,7 +1454,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="46">
   <si>
     <t>Lockett inma pockett</t>
   </si>
@@ -56,10 +56,13 @@
     <t>DadBods 69ers</t>
   </si>
   <si>
-    <t>1-0-0</t>
-  </si>
-  <si>
-    <t>0-1-0</t>
+    <t>1-1-0</t>
+  </si>
+  <si>
+    <t>2-0-0</t>
+  </si>
+  <si>
+    <t>0-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -123,6 +126,36 @@
   </si>
   <si>
     <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓10</t>
   </si>
 </sst>
 </file>
@@ -532,7 +565,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -544,10 +577,10 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -559,7 +592,7 @@
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
         <v>12</v>
@@ -570,40 +603,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -623,7 +656,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -632,19 +665,19 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -652,10 +685,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -664,28 +697,28 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -693,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -705,28 +738,28 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -737,7 +770,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -746,28 +779,28 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -775,40 +808,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -819,7 +852,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -828,25 +861,25 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
@@ -857,10 +890,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -872,22 +905,22 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -898,40 +931,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -939,40 +972,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -992,28 +1025,28 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1031,13 +1064,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1045,13 +1078,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.08333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1059,13 +1092,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0.1666666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1073,13 +1106,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>0.25</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1087,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1101,13 +1134,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4166666666666667</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1115,10 +1148,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1129,13 +1162,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1143,10 +1176,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>0.5833333333333334</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1157,10 +1190,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>0.6666666666666666</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1171,13 +1204,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1185,13 +1218,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>0.8333333333333334</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1199,13 +1232,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>0.9166666666666666</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1223,16 +1256,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1240,16 +1273,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1257,13 +1290,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0.9166666666666666</v>
+        <v>1.5</v>
       </c>
       <c r="D3">
-        <v>-0.08333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1277,13 +1310,13 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.8333333333333334</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D4">
-        <v>-0.1666666666666666</v>
+        <v>-0.6666666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1291,13 +1324,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D5">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1308,13 +1341,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>1.25</v>
       </c>
       <c r="D6">
-        <v>-0.3333333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1325,13 +1358,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>0.5833333333333334</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D7">
-        <v>-0.4166666666666666</v>
+        <v>0.08333333333333326</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1342,16 +1375,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>0.4166666666666667</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0.4166666666666667</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1359,16 +1392,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D9">
-        <v>0.3333333333333333</v>
+        <v>-0.08333333333333337</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1376,16 +1409,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D10">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1393,16 +1426,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>0.1666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="D11">
-        <v>0.1666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1410,16 +1443,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>0.08333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D12">
-        <v>0.08333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1430,13 +1463,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1454,51 +1487,51 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1542,7 +1575,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1586,7 +1619,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1630,7 +1663,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1674,7 +1707,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1718,7 +1751,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1762,7 +1795,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1806,7 +1839,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1850,7 +1883,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1877,10 +1910,10 @@
         <v>0</v>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>100</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1894,7 +1927,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1921,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1938,7 +1971,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2039,16 +2072,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2056,16 +2089,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2073,16 +2106,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2090,16 +2123,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2107,16 +2140,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2124,16 +2157,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2141,16 +2174,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2158,7 +2191,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2166,8 +2199,8 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2175,16 +2208,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2192,16 +2225,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2209,16 +2242,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2226,16 +2259,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="E12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2243,16 +2276,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -56,13 +56,16 @@
     <t>DadBods 69ers</t>
   </si>
   <si>
-    <t>1-1-0</t>
-  </si>
-  <si>
-    <t>2-0-0</t>
-  </si>
-  <si>
-    <t>0-2-0</t>
+    <t>1-2-0</t>
+  </si>
+  <si>
+    <t>2-1-0</t>
+  </si>
+  <si>
+    <t>0-3-0</t>
+  </si>
+  <si>
+    <t>3-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -128,34 +131,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
     <t>↑7</t>
   </si>
   <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
     <t>↑1</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓10</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -615,13 +615,13 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -633,7 +633,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
         <v>12</v>
@@ -674,7 +674,7 @@
         <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
         <v>13</v>
@@ -688,37 +688,37 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -729,22 +729,22 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -756,7 +756,7 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M6" t="s">
         <v>13</v>
@@ -779,13 +779,13 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
@@ -797,7 +797,7 @@
         <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M7" t="s">
         <v>13</v>
@@ -811,34 +811,34 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M8" t="s">
         <v>12</v>
@@ -852,34 +852,34 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
@@ -902,7 +902,7 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -920,7 +920,7 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -934,37 +934,37 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -972,40 +972,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1016,34 +1016,34 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
         <v>13</v>
@@ -1064,13 +1064,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1078,10 +1078,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1092,13 +1092,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.5833333333333334</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>0.5833333333333334</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>0.9166666666666666</v>
+        <v>1.25</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1134,10 +1134,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1148,13 +1148,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>1.083333333333333</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>1.083333333333333</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1190,10 +1190,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>1.083333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1207,7 +1207,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1218,10 +1218,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>1.333333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1235,10 +1235,10 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>1.583333333333333</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1256,16 +1256,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1276,13 +1276,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1.583333333333333</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D2">
-        <v>-0.4166666666666667</v>
+        <v>-0.9166666666666665</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1290,16 +1290,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>0.08333333333333348</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1310,10 +1310,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>-0.6666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1324,16 +1324,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>1.25</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1341,16 +1341,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1.25</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D6">
-        <v>0.25</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1361,13 +1361,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1.083333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D7">
-        <v>0.08333333333333326</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1375,13 +1375,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1392,13 +1392,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9166666666666666</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D9">
-        <v>-0.08333333333333337</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1409,16 +1409,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D10">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1429,10 +1429,10 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1443,16 +1443,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="D12">
-        <v>0.3333333333333333</v>
+        <v>-0.25</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1460,16 +1460,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D13">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1487,51 +1487,51 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>100</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2072,16 +2072,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2089,16 +2089,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2106,16 +2106,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2123,16 +2123,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2140,13 +2140,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
@@ -2157,13 +2157,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
@@ -2174,16 +2174,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2191,13 +2191,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>41</v>
@@ -2208,13 +2208,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>42</v>
@@ -2225,10 +2225,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -2242,16 +2242,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2262,13 +2262,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2279,13 +2279,13 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -1487,7 +1487,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -1534,263 +1534,263 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>42.86</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>21.82</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>14.05</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>5.63</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>99.45</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>14.63</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>16.96</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>14.87</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>13.43</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>9.19</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.91</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>5.63</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>3.66</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="N3">
-        <v>100</v>
+        <v>94.37</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>11.99</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>13.45</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>13.56</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>13.91</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>12.46</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>11.46</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.24</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>7.06</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.73</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N4">
-        <v>100</v>
+        <v>93.13</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>10.33</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>14.14</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>13.51</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>13.13</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>12.63</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>10.61</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.06</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>7.720000000000001</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.62</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N5">
-        <v>100</v>
+        <v>91.13</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>6.63</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>11.36</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>12.41</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>12.79</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>13.21</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11.82</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10.09</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.69</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="N6">
-        <v>100</v>
+        <v>87.84</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>5.23</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>8.15</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>10.71</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>11.91</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>12.61</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>12.63</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12.95</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>11.31</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.91</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>4.66</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N7">
-        <v>100</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1798,43 +1798,43 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>4.130000000000001</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>9.32</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>10.78</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>10.56</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>12.23</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>12.57</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>12.19</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.01</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>7.56</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="N8">
-        <v>100</v>
+        <v>79.53</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1842,136 +1842,136 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>9.15</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>12.16</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>13.12</v>
       </c>
       <c r="I9">
-        <v>100</v>
+        <v>13.7</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.16</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>9.01</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N9">
-        <v>100</v>
+        <v>76.59</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>4.72</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>6.36</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>9.229999999999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11.67</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>15.15</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>18.41</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>20.08</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>6.92</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>52.86</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>5.680000000000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.690000000000001</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>14.16</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>20.66</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>26.08</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.41</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.27</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>36.58</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1983,34 +1983,34 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>14.94</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>38.37</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>38.6</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2033,28 +2033,28 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>7.22</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>36.42</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>54.69</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -1487,7 +1487,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -1534,43 +1534,43 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>42.86</v>
+        <v>42.24</v>
       </c>
       <c r="C2">
-        <v>21.82</v>
+        <v>22.22</v>
       </c>
       <c r="D2">
-        <v>14.05</v>
+        <v>13.93</v>
       </c>
       <c r="E2">
-        <v>8.390000000000001</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="F2">
-        <v>5.63</v>
+        <v>5.36</v>
       </c>
       <c r="G2">
-        <v>3.38</v>
+        <v>3.65</v>
       </c>
       <c r="H2">
-        <v>2.25</v>
+        <v>1.97</v>
       </c>
       <c r="I2">
-        <v>1.07</v>
+        <v>1.23</v>
       </c>
       <c r="J2">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="K2">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="L2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>99.45</v>
+        <v>99.49000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1578,43 +1578,43 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>14.63</v>
+        <v>14.85</v>
       </c>
       <c r="C3">
-        <v>16.96</v>
+        <v>16.35</v>
       </c>
       <c r="D3">
-        <v>14.87</v>
+        <v>14.97</v>
       </c>
       <c r="E3">
-        <v>13.43</v>
+        <v>13.29</v>
       </c>
       <c r="F3">
-        <v>11.75</v>
+        <v>11.57</v>
       </c>
       <c r="G3">
-        <v>9.19</v>
+        <v>9.94</v>
       </c>
       <c r="H3">
-        <v>7.91</v>
+        <v>7.41</v>
       </c>
       <c r="I3">
-        <v>5.63</v>
+        <v>6.12</v>
       </c>
       <c r="J3">
-        <v>3.66</v>
+        <v>3.78</v>
       </c>
       <c r="K3">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="L3">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="M3">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>94.37</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1622,43 +1622,43 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>11.99</v>
+        <v>11.15</v>
       </c>
       <c r="C4">
-        <v>13.45</v>
+        <v>13.15</v>
       </c>
       <c r="D4">
-        <v>13.56</v>
+        <v>13.88</v>
       </c>
       <c r="E4">
-        <v>13.91</v>
+        <v>13.1</v>
       </c>
       <c r="F4">
-        <v>12.46</v>
+        <v>12.34</v>
       </c>
       <c r="G4">
-        <v>11.46</v>
+        <v>11.42</v>
       </c>
       <c r="H4">
-        <v>9.24</v>
+        <v>10.3</v>
       </c>
       <c r="I4">
-        <v>7.06</v>
+        <v>7.66</v>
       </c>
       <c r="J4">
-        <v>4.73</v>
+        <v>4.760000000000001</v>
       </c>
       <c r="K4">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="L4">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="M4">
         <v>0.02</v>
       </c>
       <c r="N4">
-        <v>93.13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1666,43 +1666,43 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>10.33</v>
+        <v>10.71</v>
       </c>
       <c r="C5">
-        <v>14.14</v>
+        <v>13.76</v>
       </c>
       <c r="D5">
-        <v>13.51</v>
+        <v>13.74</v>
       </c>
       <c r="E5">
-        <v>13.13</v>
+        <v>12.65</v>
       </c>
       <c r="F5">
-        <v>12.63</v>
+        <v>12.49</v>
       </c>
       <c r="G5">
-        <v>10.61</v>
+        <v>10.59</v>
       </c>
       <c r="H5">
-        <v>9.06</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="I5">
-        <v>7.720000000000001</v>
+        <v>7.98</v>
       </c>
       <c r="J5">
-        <v>5.62</v>
+        <v>5.319999999999999</v>
       </c>
       <c r="K5">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="L5">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="M5">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="N5">
-        <v>91.13</v>
+        <v>91.47</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1710,43 +1710,43 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>6.63</v>
+        <v>7.04</v>
       </c>
       <c r="C6">
-        <v>9.529999999999999</v>
+        <v>9.81</v>
       </c>
       <c r="D6">
-        <v>11.36</v>
+        <v>11.16</v>
       </c>
       <c r="E6">
-        <v>12.41</v>
+        <v>13.13</v>
       </c>
       <c r="F6">
-        <v>12.79</v>
+        <v>12.65</v>
       </c>
       <c r="G6">
-        <v>13.21</v>
+        <v>12.58</v>
       </c>
       <c r="H6">
-        <v>11.82</v>
+        <v>11.78</v>
       </c>
       <c r="I6">
-        <v>10.09</v>
+        <v>10.08</v>
       </c>
       <c r="J6">
-        <v>7.69</v>
+        <v>7.52</v>
       </c>
       <c r="K6">
-        <v>3.84</v>
+        <v>3.7</v>
       </c>
       <c r="L6">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="N6">
-        <v>87.84</v>
+        <v>88.23</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1754,43 +1754,43 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5.23</v>
+        <v>5.7</v>
       </c>
       <c r="C7">
-        <v>8.15</v>
+        <v>8.17</v>
       </c>
       <c r="D7">
-        <v>10.71</v>
+        <v>10.78</v>
       </c>
       <c r="E7">
-        <v>11.91</v>
+        <v>12.23</v>
       </c>
       <c r="F7">
+        <v>12.39</v>
+      </c>
+      <c r="G7">
         <v>12.61</v>
       </c>
-      <c r="G7">
-        <v>12.63</v>
-      </c>
       <c r="H7">
-        <v>12.95</v>
+        <v>12.1</v>
       </c>
       <c r="I7">
-        <v>11.31</v>
+        <v>11.4</v>
       </c>
       <c r="J7">
-        <v>8.91</v>
+        <v>8.85</v>
       </c>
       <c r="K7">
-        <v>4.66</v>
+        <v>4.8</v>
       </c>
       <c r="L7">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="M7">
         <v>0.13</v>
       </c>
       <c r="N7">
-        <v>85.5</v>
+        <v>85.38</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1798,43 +1798,43 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>4.130000000000001</v>
+        <v>4.34</v>
       </c>
       <c r="C8">
-        <v>7.75</v>
+        <v>7.6</v>
       </c>
       <c r="D8">
-        <v>9.32</v>
+        <v>9.139999999999999</v>
       </c>
       <c r="E8">
-        <v>10.78</v>
+        <v>9.959999999999999</v>
       </c>
       <c r="F8">
-        <v>10.56</v>
+        <v>11.77</v>
       </c>
       <c r="G8">
-        <v>12.23</v>
+        <v>12.5</v>
       </c>
       <c r="H8">
-        <v>12.57</v>
+        <v>12.96</v>
       </c>
       <c r="I8">
-        <v>12.19</v>
+        <v>11.79</v>
       </c>
       <c r="J8">
-        <v>11.01</v>
+        <v>10.4</v>
       </c>
       <c r="K8">
-        <v>7.56</v>
+        <v>7.630000000000001</v>
       </c>
       <c r="L8">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="M8">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="N8">
-        <v>79.53</v>
+        <v>80.06</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1842,43 +1842,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="C9">
-        <v>5.899999999999999</v>
+        <v>6.39</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>7.84</v>
       </c>
       <c r="E9">
-        <v>9.15</v>
+        <v>9.69</v>
       </c>
       <c r="F9">
-        <v>11.3</v>
+        <v>10.95</v>
       </c>
       <c r="G9">
-        <v>12.16</v>
+        <v>12.05</v>
       </c>
       <c r="H9">
-        <v>13.12</v>
+        <v>13.29</v>
       </c>
       <c r="I9">
-        <v>13.7</v>
+        <v>13.26</v>
       </c>
       <c r="J9">
-        <v>12.16</v>
+        <v>11.87</v>
       </c>
       <c r="K9">
-        <v>9.01</v>
+        <v>9.139999999999999</v>
       </c>
       <c r="L9">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
       <c r="M9">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="N9">
-        <v>76.59</v>
+        <v>76.55</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1886,43 +1886,43 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0.74</v>
+        <v>0.7100000000000001</v>
       </c>
       <c r="C10">
-        <v>1.77</v>
+        <v>1.94</v>
       </c>
       <c r="D10">
-        <v>3.22</v>
+        <v>3.29</v>
       </c>
       <c r="E10">
-        <v>4.72</v>
+        <v>4.67</v>
       </c>
       <c r="F10">
-        <v>6.36</v>
+        <v>6.69</v>
       </c>
       <c r="G10">
-        <v>9.229999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="H10">
-        <v>11.67</v>
+        <v>11.94</v>
       </c>
       <c r="I10">
-        <v>15.15</v>
+        <v>14.53</v>
       </c>
       <c r="J10">
-        <v>18.41</v>
+        <v>19.6</v>
       </c>
       <c r="K10">
-        <v>20.08</v>
+        <v>18.85</v>
       </c>
       <c r="L10">
-        <v>6.92</v>
+        <v>7.03</v>
       </c>
       <c r="M10">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="N10">
-        <v>52.86</v>
+        <v>52.65000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1930,43 +1930,43 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="C11">
-        <v>0.53</v>
+        <v>0.61</v>
       </c>
       <c r="D11">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="E11">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="F11">
-        <v>3.8</v>
+        <v>3.73</v>
       </c>
       <c r="G11">
-        <v>5.680000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="H11">
-        <v>8.690000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="I11">
-        <v>14.16</v>
+        <v>13.85</v>
       </c>
       <c r="J11">
-        <v>20.66</v>
+        <v>21.05</v>
       </c>
       <c r="K11">
-        <v>26.08</v>
+        <v>26.48</v>
       </c>
       <c r="L11">
-        <v>12.41</v>
+        <v>12.46</v>
       </c>
       <c r="M11">
-        <v>4.27</v>
+        <v>4.33</v>
       </c>
       <c r="N11">
-        <v>36.58</v>
+        <v>35.68</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1980,37 +1980,37 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E12">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F12">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="G12">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="H12">
-        <v>0.66</v>
+        <v>0.5</v>
       </c>
       <c r="I12">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="J12">
-        <v>5.390000000000001</v>
+        <v>5.04</v>
       </c>
       <c r="K12">
-        <v>14.94</v>
+        <v>15.69</v>
       </c>
       <c r="L12">
-        <v>38.37</v>
+        <v>38.4</v>
       </c>
       <c r="M12">
-        <v>38.6</v>
+        <v>38.26</v>
       </c>
       <c r="N12">
-        <v>2.7</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2036,25 +2036,25 @@
         <v>0.01</v>
       </c>
       <c r="H13">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I13">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="J13">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="K13">
-        <v>7.22</v>
+        <v>7.28</v>
       </c>
       <c r="L13">
-        <v>36.42</v>
+        <v>36.16</v>
       </c>
       <c r="M13">
-        <v>54.69</v>
+        <v>54.76</v>
       </c>
       <c r="N13">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -12,13 +12,14 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
+    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="52">
   <si>
     <t>Lockett inma pockett</t>
   </si>
@@ -56,16 +57,19 @@
     <t>DadBods 69ers</t>
   </si>
   <si>
-    <t>1-2-0</t>
-  </si>
-  <si>
-    <t>2-1-0</t>
-  </si>
-  <si>
-    <t>0-3-0</t>
-  </si>
-  <si>
-    <t>3-0-0</t>
+    <t>1-3-0</t>
+  </si>
+  <si>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>0-4-0</t>
+  </si>
+  <si>
+    <t>4-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -131,31 +135,46 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↑5</t>
+    <t>↑8</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑10</t>
+  </si>
+  <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
 </sst>
 </file>
@@ -565,7 +584,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -577,10 +596,10 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -595,7 +614,7 @@
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -603,10 +622,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -615,16 +634,16 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -636,7 +655,7 @@
         <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -644,40 +663,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -688,7 +707,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -697,13 +716,13 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -712,13 +731,13 @@
         <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -726,40 +745,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
         <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -767,40 +786,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
       <c r="L7" t="s">
         <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -808,13 +827,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -823,10 +842,10 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -841,7 +860,7 @@
         <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -861,7 +880,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -873,7 +892,7 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
@@ -890,40 +909,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -934,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -972,40 +991,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1013,40 +1032,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L13" t="s">
         <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1064,13 +1083,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1078,13 +1097,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1.083333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1092,13 +1111,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.166666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1106,13 +1125,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1.166666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1120,13 +1139,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>1.25</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1134,13 +1153,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>1.25</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1148,13 +1167,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>1.333333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1162,13 +1181,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>1.416666666666667</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1176,13 +1195,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1.583333333333333</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1190,13 +1209,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>1.666666666666667</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1204,10 +1223,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>1.75</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1218,13 +1237,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>1.916666666666667</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1235,10 +1254,10 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>2.416666666666667</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1256,16 +1275,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1276,13 +1295,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2.083333333333333</v>
+        <v>2.75</v>
       </c>
       <c r="D2">
-        <v>-0.9166666666666665</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1290,16 +1309,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>2.083333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D3">
-        <v>0.08333333333333348</v>
+        <v>-0.3333333333333335</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1307,13 +1326,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.3333333333333335</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1324,16 +1343,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1.833333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D5">
-        <v>-0.1666666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1344,13 +1363,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1.666666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D6">
-        <v>-0.3333333333333333</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1358,16 +1377,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>1.666666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D7">
-        <v>-0.3333333333333333</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1375,16 +1394,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>1.583333333333333</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D8">
-        <v>0.5833333333333333</v>
+        <v>-0.9166666666666665</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1392,16 +1411,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>1.583333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D9">
-        <v>0.5833333333333333</v>
+        <v>-0.08333333333333326</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1409,16 +1428,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>1.25</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D10">
-        <v>-0.75</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1426,16 +1445,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1443,13 +1462,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D12">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1460,16 +1479,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.5</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>-0.08333333333333337</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1487,46 +1506,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1534,43 +1553,43 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>42.24</v>
+        <v>20.85</v>
       </c>
       <c r="C2">
-        <v>22.22</v>
+        <v>17.47</v>
       </c>
       <c r="D2">
-        <v>13.93</v>
+        <v>14.1</v>
       </c>
       <c r="E2">
-        <v>8.890000000000001</v>
+        <v>12.05</v>
       </c>
       <c r="F2">
-        <v>5.36</v>
+        <v>10.2</v>
       </c>
       <c r="G2">
-        <v>3.65</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>1.97</v>
+        <v>6.529999999999999</v>
       </c>
       <c r="I2">
-        <v>1.23</v>
+        <v>5.25</v>
       </c>
       <c r="J2">
-        <v>0.39</v>
+        <v>2.94</v>
       </c>
       <c r="K2">
-        <v>0.12</v>
+        <v>1.86</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N2">
-        <v>99.49000000000001</v>
+        <v>94.44999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1578,351 +1597,351 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>14.85</v>
+        <v>18.81</v>
       </c>
       <c r="C3">
-        <v>16.35</v>
+        <v>15.17</v>
       </c>
       <c r="D3">
-        <v>14.97</v>
+        <v>13.44</v>
       </c>
       <c r="E3">
-        <v>13.29</v>
+        <v>11.75</v>
       </c>
       <c r="F3">
-        <v>11.57</v>
+        <v>10.02</v>
       </c>
       <c r="G3">
-        <v>9.94</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="H3">
-        <v>7.41</v>
+        <v>7.66</v>
       </c>
       <c r="I3">
-        <v>6.12</v>
+        <v>5.7</v>
       </c>
       <c r="J3">
-        <v>3.78</v>
+        <v>4.17</v>
       </c>
       <c r="K3">
-        <v>1.58</v>
+        <v>2.84</v>
       </c>
       <c r="L3">
-        <v>0.14</v>
+        <v>1.11</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N3">
-        <v>94.5</v>
+        <v>91.67999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>11.15</v>
+        <v>13.48</v>
       </c>
       <c r="C4">
-        <v>13.15</v>
+        <v>12.5</v>
       </c>
       <c r="D4">
-        <v>13.88</v>
+        <v>11.46</v>
       </c>
       <c r="E4">
-        <v>13.1</v>
+        <v>10.88</v>
       </c>
       <c r="F4">
-        <v>12.34</v>
+        <v>10.68</v>
       </c>
       <c r="G4">
-        <v>11.42</v>
+        <v>10.49</v>
       </c>
       <c r="H4">
-        <v>10.3</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="I4">
-        <v>7.66</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="J4">
-        <v>4.760000000000001</v>
+        <v>6.39</v>
       </c>
       <c r="K4">
-        <v>1.97</v>
+        <v>4.44</v>
       </c>
       <c r="L4">
-        <v>0.25</v>
+        <v>2.15</v>
       </c>
       <c r="M4">
-        <v>0.02</v>
+        <v>0.37</v>
       </c>
       <c r="N4">
-        <v>93</v>
+        <v>86.64999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>10.71</v>
+        <v>12.73</v>
       </c>
       <c r="C5">
-        <v>13.76</v>
+        <v>13.84</v>
       </c>
       <c r="D5">
-        <v>13.74</v>
+        <v>13.55</v>
       </c>
       <c r="E5">
-        <v>12.65</v>
+        <v>12.62</v>
       </c>
       <c r="F5">
-        <v>12.49</v>
+        <v>11.2</v>
       </c>
       <c r="G5">
-        <v>10.59</v>
+        <v>10.53</v>
       </c>
       <c r="H5">
-        <v>9.550000000000001</v>
+        <v>8.44</v>
       </c>
       <c r="I5">
-        <v>7.98</v>
+        <v>7.55</v>
       </c>
       <c r="J5">
-        <v>5.319999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="K5">
-        <v>2.76</v>
+        <v>2.91</v>
       </c>
       <c r="L5">
-        <v>0.41</v>
+        <v>1.28</v>
       </c>
       <c r="M5">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
       <c r="N5">
-        <v>91.47</v>
+        <v>90.46000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>7.04</v>
+        <v>10.11</v>
       </c>
       <c r="C6">
-        <v>9.81</v>
+        <v>9.75</v>
       </c>
       <c r="D6">
-        <v>11.16</v>
+        <v>11.03</v>
       </c>
       <c r="E6">
-        <v>13.13</v>
+        <v>11.11</v>
       </c>
       <c r="F6">
-        <v>12.65</v>
+        <v>10.89</v>
       </c>
       <c r="G6">
-        <v>12.58</v>
+        <v>10.29</v>
       </c>
       <c r="H6">
-        <v>11.78</v>
+        <v>9.65</v>
       </c>
       <c r="I6">
-        <v>10.08</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="J6">
-        <v>7.52</v>
+        <v>7.920000000000001</v>
       </c>
       <c r="K6">
-        <v>3.7</v>
+        <v>5.93</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>3.53</v>
       </c>
       <c r="M6">
-        <v>0.05</v>
+        <v>1.07</v>
       </c>
       <c r="N6">
-        <v>88.23</v>
+        <v>81.55</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>5.7</v>
+        <v>8.01</v>
       </c>
       <c r="C7">
-        <v>8.17</v>
+        <v>10.07</v>
       </c>
       <c r="D7">
-        <v>10.78</v>
+        <v>10.75</v>
       </c>
       <c r="E7">
-        <v>12.23</v>
+        <v>10.54</v>
       </c>
       <c r="F7">
-        <v>12.39</v>
+        <v>11.3</v>
       </c>
       <c r="G7">
-        <v>12.61</v>
+        <v>11.49</v>
       </c>
       <c r="H7">
-        <v>12.1</v>
+        <v>10.49</v>
       </c>
       <c r="I7">
-        <v>11.4</v>
+        <v>9.59</v>
       </c>
       <c r="J7">
-        <v>8.85</v>
+        <v>8.23</v>
       </c>
       <c r="K7">
-        <v>4.8</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="L7">
-        <v>0.84</v>
+        <v>3.05</v>
       </c>
       <c r="M7">
-        <v>0.13</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="N7">
-        <v>85.38</v>
+        <v>82.23999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>4.34</v>
+        <v>7.870000000000001</v>
       </c>
       <c r="C8">
-        <v>7.6</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="D8">
-        <v>9.139999999999999</v>
+        <v>9.59</v>
       </c>
       <c r="E8">
-        <v>9.959999999999999</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="F8">
-        <v>11.77</v>
+        <v>10.75</v>
       </c>
       <c r="G8">
-        <v>12.5</v>
+        <v>10.35</v>
       </c>
       <c r="H8">
-        <v>12.96</v>
+        <v>10.94</v>
       </c>
       <c r="I8">
-        <v>11.79</v>
+        <v>10.06</v>
       </c>
       <c r="J8">
-        <v>10.4</v>
+        <v>9.5</v>
       </c>
       <c r="K8">
-        <v>7.630000000000001</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="L8">
-        <v>1.68</v>
+        <v>4.27</v>
       </c>
       <c r="M8">
-        <v>0.23</v>
+        <v>1.16</v>
       </c>
       <c r="N8">
-        <v>80.06</v>
+        <v>78.47</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>3.08</v>
+        <v>5.23</v>
       </c>
       <c r="C9">
-        <v>6.39</v>
+        <v>6.510000000000001</v>
       </c>
       <c r="D9">
-        <v>7.84</v>
+        <v>7.76</v>
       </c>
       <c r="E9">
-        <v>9.69</v>
+        <v>9.370000000000001</v>
       </c>
       <c r="F9">
-        <v>10.95</v>
+        <v>9.6</v>
       </c>
       <c r="G9">
-        <v>12.05</v>
+        <v>10.06</v>
       </c>
       <c r="H9">
-        <v>13.29</v>
+        <v>11.02</v>
       </c>
       <c r="I9">
-        <v>13.26</v>
+        <v>10.65</v>
       </c>
       <c r="J9">
-        <v>11.87</v>
+        <v>11.03</v>
       </c>
       <c r="K9">
-        <v>9.139999999999999</v>
+        <v>9.67</v>
       </c>
       <c r="L9">
-        <v>2.13</v>
+        <v>6.74</v>
       </c>
       <c r="M9">
-        <v>0.31</v>
+        <v>2.36</v>
       </c>
       <c r="N9">
-        <v>76.55</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7100000000000001</v>
+        <v>2.14</v>
       </c>
       <c r="C10">
-        <v>1.94</v>
+        <v>3.63</v>
       </c>
       <c r="D10">
-        <v>3.29</v>
+        <v>4.82</v>
       </c>
       <c r="E10">
-        <v>4.67</v>
+        <v>6.819999999999999</v>
       </c>
       <c r="F10">
-        <v>6.69</v>
+        <v>7.82</v>
       </c>
       <c r="G10">
-        <v>8.880000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="H10">
-        <v>11.94</v>
+        <v>11.1</v>
       </c>
       <c r="I10">
-        <v>14.53</v>
+        <v>12.53</v>
       </c>
       <c r="J10">
-        <v>19.6</v>
+        <v>12.77</v>
       </c>
       <c r="K10">
-        <v>18.85</v>
+        <v>13.6</v>
       </c>
       <c r="L10">
-        <v>7.03</v>
+        <v>11.3</v>
       </c>
       <c r="M10">
-        <v>1.87</v>
+        <v>4.37</v>
       </c>
       <c r="N10">
-        <v>52.65000000000001</v>
+        <v>57.95999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1930,92 +1949,92 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.18</v>
+        <v>0.58</v>
       </c>
       <c r="C11">
-        <v>0.61</v>
+        <v>1.3</v>
       </c>
       <c r="D11">
-        <v>1.25</v>
+        <v>2.41</v>
       </c>
       <c r="E11">
-        <v>2.36</v>
+        <v>3.35</v>
       </c>
       <c r="F11">
-        <v>3.73</v>
+        <v>4.72</v>
       </c>
       <c r="G11">
-        <v>5.55</v>
+        <v>6.52</v>
       </c>
       <c r="H11">
-        <v>8.15</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I11">
-        <v>13.85</v>
+        <v>11.27</v>
       </c>
       <c r="J11">
-        <v>21.05</v>
+        <v>14.33</v>
       </c>
       <c r="K11">
-        <v>26.48</v>
+        <v>17.56</v>
       </c>
       <c r="L11">
-        <v>12.46</v>
+        <v>18.26</v>
       </c>
       <c r="M11">
-        <v>4.33</v>
+        <v>11.4</v>
       </c>
       <c r="N11">
-        <v>35.68</v>
+        <v>38.45</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="D12">
-        <v>0.02</v>
+        <v>1.07</v>
       </c>
       <c r="E12">
-        <v>0.03</v>
+        <v>1.67</v>
       </c>
       <c r="F12">
-        <v>0.06</v>
+        <v>2.66</v>
       </c>
       <c r="G12">
-        <v>0.22</v>
+        <v>3.71</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
+        <v>6.06</v>
       </c>
       <c r="I12">
-        <v>1.78</v>
+        <v>9.07</v>
       </c>
       <c r="J12">
-        <v>5.04</v>
+        <v>13.56</v>
       </c>
       <c r="K12">
-        <v>15.69</v>
+        <v>19.46</v>
       </c>
       <c r="L12">
-        <v>38.4</v>
+        <v>24.19</v>
       </c>
       <c r="M12">
-        <v>38.26</v>
+        <v>17.73</v>
       </c>
       <c r="N12">
-        <v>2.61</v>
+        <v>25.06</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2024,37 +2043,37 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="G13">
-        <v>0.01</v>
+        <v>0.33</v>
       </c>
       <c r="H13">
-        <v>0.05</v>
+        <v>0.77</v>
       </c>
       <c r="I13">
-        <v>0.32</v>
+        <v>1.49</v>
       </c>
       <c r="J13">
-        <v>1.42</v>
+        <v>4.06</v>
       </c>
       <c r="K13">
-        <v>7.28</v>
+        <v>9.33</v>
       </c>
       <c r="L13">
-        <v>36.16</v>
+        <v>23.47</v>
       </c>
       <c r="M13">
-        <v>54.76</v>
+        <v>60.31</v>
       </c>
       <c r="N13">
-        <v>0.38</v>
+        <v>2.83</v>
       </c>
     </row>
   </sheetData>
@@ -2072,16 +2091,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2092,13 +2111,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2106,16 +2125,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2123,16 +2142,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2140,16 +2159,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2157,16 +2176,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2174,16 +2193,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2191,16 +2210,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2208,16 +2227,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2225,16 +2244,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2242,16 +2261,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>-4</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2259,16 +2278,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2276,16 +2295,286 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>-10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>-3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-4</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>-5</v>
+      </c>
+      <c r="C7">
+        <v>-2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>-9</v>
+      </c>
+      <c r="D9">
+        <v>-8</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>-3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>-3</v>
+      </c>
+      <c r="E11">
+        <v>-4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>-11</v>
+      </c>
+      <c r="D12">
+        <v>-15</v>
+      </c>
+      <c r="E12">
+        <v>-5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
       <c r="C13">
-        <v>-15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
+        <v>-3</v>
+      </c>
+      <c r="D13">
+        <v>-4</v>
+      </c>
+      <c r="E13">
+        <v>-10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="52">
   <si>
     <t>Lockett inma pockett</t>
   </si>
@@ -1553,43 +1553,43 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>20.85</v>
+        <v>21.22</v>
       </c>
       <c r="C2">
-        <v>17.47</v>
+        <v>16.85</v>
       </c>
       <c r="D2">
-        <v>14.1</v>
+        <v>14.08</v>
       </c>
       <c r="E2">
-        <v>12.05</v>
+        <v>11.79</v>
       </c>
       <c r="F2">
-        <v>10.2</v>
+        <v>9.950000000000001</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="H2">
-        <v>6.529999999999999</v>
+        <v>6.84</v>
       </c>
       <c r="I2">
-        <v>5.25</v>
+        <v>5.050000000000001</v>
       </c>
       <c r="J2">
-        <v>2.94</v>
+        <v>3.42</v>
       </c>
       <c r="K2">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="L2">
-        <v>0.65</v>
+        <v>0.77</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="N2">
-        <v>94.44999999999999</v>
+        <v>93.92</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1597,43 +1597,43 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>18.81</v>
+        <v>18.03</v>
       </c>
       <c r="C3">
-        <v>15.17</v>
+        <v>15.26</v>
       </c>
       <c r="D3">
-        <v>13.44</v>
+        <v>13.62</v>
       </c>
       <c r="E3">
-        <v>11.75</v>
+        <v>11.44</v>
       </c>
       <c r="F3">
-        <v>10.02</v>
+        <v>10.33</v>
       </c>
       <c r="G3">
-        <v>9.130000000000001</v>
+        <v>8.82</v>
       </c>
       <c r="H3">
-        <v>7.66</v>
+        <v>7.98</v>
       </c>
       <c r="I3">
-        <v>5.7</v>
+        <v>5.970000000000001</v>
       </c>
       <c r="J3">
-        <v>4.17</v>
+        <v>4.52</v>
       </c>
       <c r="K3">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="L3">
-        <v>1.11</v>
+        <v>0.97</v>
       </c>
       <c r="M3">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="N3">
-        <v>91.67999999999999</v>
+        <v>91.44999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1641,43 +1641,43 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>13.48</v>
+        <v>13.4</v>
       </c>
       <c r="C4">
-        <v>12.5</v>
+        <v>12.73</v>
       </c>
       <c r="D4">
-        <v>11.46</v>
+        <v>12.37</v>
       </c>
       <c r="E4">
-        <v>10.88</v>
+        <v>10.7</v>
       </c>
       <c r="F4">
-        <v>10.68</v>
+        <v>10.91</v>
       </c>
       <c r="G4">
-        <v>10.49</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="H4">
-        <v>9.039999999999999</v>
+        <v>9.08</v>
       </c>
       <c r="I4">
-        <v>8.119999999999999</v>
+        <v>7.88</v>
       </c>
       <c r="J4">
-        <v>6.39</v>
+        <v>6.13</v>
       </c>
       <c r="K4">
-        <v>4.44</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="L4">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="M4">
-        <v>0.37</v>
+        <v>0.49</v>
       </c>
       <c r="N4">
-        <v>86.64999999999999</v>
+        <v>86.84999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1685,43 +1685,43 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>12.73</v>
+        <v>12.56</v>
       </c>
       <c r="C5">
-        <v>13.84</v>
+        <v>14.05</v>
       </c>
       <c r="D5">
-        <v>13.55</v>
+        <v>14.19</v>
       </c>
       <c r="E5">
-        <v>12.62</v>
+        <v>12.86</v>
       </c>
       <c r="F5">
-        <v>11.2</v>
+        <v>10.83</v>
       </c>
       <c r="G5">
-        <v>10.53</v>
+        <v>10.94</v>
       </c>
       <c r="H5">
-        <v>8.44</v>
+        <v>8.649999999999999</v>
       </c>
       <c r="I5">
-        <v>7.55</v>
+        <v>6.87</v>
       </c>
       <c r="J5">
-        <v>5.1</v>
+        <v>5.029999999999999</v>
       </c>
       <c r="K5">
-        <v>2.91</v>
+        <v>2.6</v>
       </c>
       <c r="L5">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="M5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
-        <v>90.46000000000001</v>
+        <v>90.94999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1729,131 +1729,131 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>10.11</v>
+        <v>10.54</v>
       </c>
       <c r="C6">
+        <v>10.53</v>
+      </c>
+      <c r="D6">
+        <v>10.52</v>
+      </c>
+      <c r="E6">
+        <v>11.28</v>
+      </c>
+      <c r="F6">
+        <v>10.76</v>
+      </c>
+      <c r="G6">
+        <v>9.68</v>
+      </c>
+      <c r="H6">
         <v>9.75</v>
       </c>
-      <c r="D6">
-        <v>11.03</v>
-      </c>
-      <c r="E6">
-        <v>11.11</v>
-      </c>
-      <c r="F6">
-        <v>10.89</v>
-      </c>
-      <c r="G6">
-        <v>10.29</v>
-      </c>
-      <c r="H6">
-        <v>9.65</v>
-      </c>
       <c r="I6">
-        <v>8.720000000000001</v>
+        <v>8.41</v>
       </c>
       <c r="J6">
-        <v>7.920000000000001</v>
+        <v>8.219999999999999</v>
       </c>
       <c r="K6">
-        <v>5.93</v>
+        <v>6.12</v>
       </c>
       <c r="L6">
-        <v>3.53</v>
+        <v>3.35</v>
       </c>
       <c r="M6">
-        <v>1.07</v>
+        <v>0.84</v>
       </c>
       <c r="N6">
-        <v>81.55</v>
+        <v>81.47</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>8.01</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>10.07</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="D7">
-        <v>10.75</v>
+        <v>9.35</v>
       </c>
       <c r="E7">
-        <v>10.54</v>
+        <v>9.99</v>
       </c>
       <c r="F7">
-        <v>11.3</v>
+        <v>10.68</v>
       </c>
       <c r="G7">
-        <v>11.49</v>
+        <v>10.22</v>
       </c>
       <c r="H7">
-        <v>10.49</v>
+        <v>10.76</v>
       </c>
       <c r="I7">
-        <v>9.59</v>
+        <v>10.28</v>
       </c>
       <c r="J7">
-        <v>8.23</v>
+        <v>8.81</v>
       </c>
       <c r="K7">
-        <v>5.800000000000001</v>
+        <v>7.23</v>
       </c>
       <c r="L7">
-        <v>3.05</v>
+        <v>4.23</v>
       </c>
       <c r="M7">
-        <v>0.6799999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="N7">
-        <v>82.23999999999999</v>
+        <v>78.64</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>7.870000000000001</v>
+        <v>7.99</v>
       </c>
       <c r="C8">
-        <v>9.130000000000001</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="D8">
-        <v>9.59</v>
+        <v>10.79</v>
       </c>
       <c r="E8">
-        <v>9.779999999999999</v>
+        <v>11.68</v>
       </c>
       <c r="F8">
-        <v>10.75</v>
+        <v>11.63</v>
       </c>
       <c r="G8">
-        <v>10.35</v>
+        <v>11.26</v>
       </c>
       <c r="H8">
-        <v>10.94</v>
+        <v>10.24</v>
       </c>
       <c r="I8">
-        <v>10.06</v>
+        <v>9.33</v>
       </c>
       <c r="J8">
-        <v>9.5</v>
+        <v>8.15</v>
       </c>
       <c r="K8">
-        <v>6.600000000000001</v>
+        <v>5.71</v>
       </c>
       <c r="L8">
-        <v>4.27</v>
+        <v>3.04</v>
       </c>
       <c r="M8">
-        <v>1.16</v>
+        <v>0.66</v>
       </c>
       <c r="N8">
-        <v>78.47</v>
+        <v>82.44</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1861,43 +1861,43 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>5.23</v>
+        <v>5.140000000000001</v>
       </c>
       <c r="C9">
-        <v>6.510000000000001</v>
+        <v>6.619999999999999</v>
       </c>
       <c r="D9">
-        <v>7.76</v>
+        <v>7.21</v>
       </c>
       <c r="E9">
-        <v>9.370000000000001</v>
+        <v>8.780000000000001</v>
       </c>
       <c r="F9">
-        <v>9.6</v>
+        <v>9.65</v>
       </c>
       <c r="G9">
-        <v>10.06</v>
+        <v>10.87</v>
       </c>
       <c r="H9">
-        <v>11.02</v>
+        <v>11.2</v>
       </c>
       <c r="I9">
-        <v>10.65</v>
+        <v>11.25</v>
       </c>
       <c r="J9">
-        <v>11.03</v>
+        <v>10.77</v>
       </c>
       <c r="K9">
-        <v>9.67</v>
+        <v>9.180000000000001</v>
       </c>
       <c r="L9">
-        <v>6.74</v>
+        <v>7.13</v>
       </c>
       <c r="M9">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="N9">
-        <v>70.2</v>
+        <v>70.72</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1905,43 +1905,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="C10">
-        <v>3.63</v>
+        <v>3.31</v>
       </c>
       <c r="D10">
-        <v>4.82</v>
+        <v>5.050000000000001</v>
       </c>
       <c r="E10">
-        <v>6.819999999999999</v>
+        <v>6.54</v>
       </c>
       <c r="F10">
-        <v>7.82</v>
+        <v>7.969999999999999</v>
       </c>
       <c r="G10">
-        <v>9.1</v>
+        <v>9.629999999999999</v>
       </c>
       <c r="H10">
-        <v>11.1</v>
+        <v>10.66</v>
       </c>
       <c r="I10">
-        <v>12.53</v>
+        <v>12.12</v>
       </c>
       <c r="J10">
-        <v>12.77</v>
+        <v>13.42</v>
       </c>
       <c r="K10">
-        <v>13.6</v>
+        <v>13.18</v>
       </c>
       <c r="L10">
-        <v>11.3</v>
+        <v>11.35</v>
       </c>
       <c r="M10">
-        <v>4.37</v>
+        <v>4.6</v>
       </c>
       <c r="N10">
-        <v>57.95999999999999</v>
+        <v>57.45</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1949,43 +1949,43 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.58</v>
+        <v>0.76</v>
       </c>
       <c r="C11">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="D11">
-        <v>2.41</v>
+        <v>1.94</v>
       </c>
       <c r="E11">
         <v>3.35</v>
       </c>
       <c r="F11">
-        <v>4.72</v>
+        <v>4.64</v>
       </c>
       <c r="G11">
-        <v>6.52</v>
+        <v>6.329999999999999</v>
       </c>
       <c r="H11">
-        <v>8.300000000000001</v>
+        <v>7.93</v>
       </c>
       <c r="I11">
-        <v>11.27</v>
+        <v>11.68</v>
       </c>
       <c r="J11">
-        <v>14.33</v>
+        <v>14.08</v>
       </c>
       <c r="K11">
-        <v>17.56</v>
+        <v>17.6</v>
       </c>
       <c r="L11">
-        <v>18.26</v>
+        <v>19.13</v>
       </c>
       <c r="M11">
-        <v>11.4</v>
+        <v>11.21</v>
       </c>
       <c r="N11">
-        <v>38.45</v>
+        <v>37.98</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1996,40 +1996,40 @@
         <v>0.19</v>
       </c>
       <c r="C12">
-        <v>0.63</v>
+        <v>0.42</v>
       </c>
       <c r="D12">
-        <v>1.07</v>
+        <v>0.84</v>
       </c>
       <c r="E12">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="F12">
-        <v>2.66</v>
+        <v>2.51</v>
       </c>
       <c r="G12">
-        <v>3.71</v>
+        <v>3.91</v>
       </c>
       <c r="H12">
-        <v>6.06</v>
+        <v>6.25</v>
       </c>
       <c r="I12">
-        <v>9.07</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="J12">
         <v>13.56</v>
       </c>
       <c r="K12">
-        <v>19.46</v>
+        <v>20.09</v>
       </c>
       <c r="L12">
-        <v>24.19</v>
+        <v>23.66</v>
       </c>
       <c r="M12">
-        <v>17.73</v>
+        <v>17.57</v>
       </c>
       <c r="N12">
-        <v>25.06</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2043,37 +2043,37 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E13">
         <v>0.06</v>
       </c>
       <c r="F13">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="G13">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="H13">
-        <v>0.77</v>
+        <v>0.66</v>
       </c>
       <c r="I13">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="J13">
-        <v>4.06</v>
+        <v>3.89</v>
       </c>
       <c r="K13">
-        <v>9.33</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="L13">
-        <v>23.47</v>
+        <v>23.02</v>
       </c>
       <c r="M13">
-        <v>60.31</v>
+        <v>60.79</v>
       </c>
       <c r="N13">
-        <v>2.83</v>
+        <v>3.01</v>
       </c>
     </row>
   </sheetData>
@@ -2314,266 +2314,305 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>-3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-4</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
         <v>-5</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-2</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
         <v>-1</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-9</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-8</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-1</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>4</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-3</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-3</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-4</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
         <v>-1</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-11</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-15</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-5</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-3</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-4</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-10</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="53">
   <si>
     <t>Lockett inma pockett</t>
   </si>
@@ -57,19 +57,22 @@
     <t>DadBods 69ers</t>
   </si>
   <si>
-    <t>1-3-0</t>
-  </si>
-  <si>
-    <t>2-2-0</t>
-  </si>
-  <si>
-    <t>3-1-0</t>
-  </si>
-  <si>
-    <t>0-4-0</t>
-  </si>
-  <si>
-    <t>4-0-0</t>
+    <t>1-4-0</t>
+  </si>
+  <si>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
+  </si>
+  <si>
+    <t>5-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -135,34 +138,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓7</t>
+    <t>↑4</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓10</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
 </sst>
 </file>
@@ -584,37 +587,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -663,40 +666,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -731,13 +734,13 @@
         <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -748,7 +751,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -763,16 +766,16 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
         <v>13</v>
@@ -789,7 +792,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -801,25 +804,25 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" t="s">
         <v>15</v>
-      </c>
-      <c r="L7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -830,37 +833,37 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L8" t="s">
         <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -871,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
         <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -909,40 +912,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -953,7 +956,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -971,13 +974,13 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
         <v>13</v>
@@ -994,37 +997,37 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1035,7 +1038,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1053,13 +1056,13 @@
         <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
         <v>13</v>
@@ -1083,13 +1086,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1097,13 +1100,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.666666666666667</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1111,13 +1114,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1.75</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1125,13 +1128,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>1.75</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1139,13 +1142,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>1.833333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1153,13 +1156,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>1.833333333333333</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1170,10 +1173,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.916666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1184,10 +1187,10 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>1.916666666666667</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1195,10 +1198,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>2.083333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1209,13 +1212,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>2.083333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1223,10 +1226,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>2.166666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1237,10 +1240,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>2.416666666666667</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1251,10 +1254,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>2.583333333333333</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1275,16 +1278,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1292,16 +1295,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="D2">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1309,16 +1312,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>2.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>-0.3333333333333335</v>
+        <v>-1</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1326,16 +1329,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>2.333333333333333</v>
-      </c>
       <c r="D4">
-        <v>0.3333333333333335</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1343,16 +1346,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>2.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1360,13 +1363,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>2.166666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="D6">
-        <v>-0.8333333333333335</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1377,16 +1380,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>2.166666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="D7">
-        <v>-0.8333333333333335</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1394,16 +1397,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>2.083333333333333</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D8">
-        <v>-0.9166666666666665</v>
+        <v>0.4166666666666665</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1411,16 +1414,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1.916666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D9">
-        <v>-0.08333333333333326</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1428,16 +1431,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>1.583333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D10">
-        <v>0.5833333333333333</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1448,13 +1451,13 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>1.583333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D11">
-        <v>0.5833333333333333</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1462,16 +1465,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>1.5</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>0.08333333333333348</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1482,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.9166666666666666</v>
+        <v>1.5</v>
       </c>
       <c r="D13">
-        <v>-0.08333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1506,354 +1509,354 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>21.22</v>
+        <v>25.6</v>
       </c>
       <c r="C2">
-        <v>16.85</v>
+        <v>19.32</v>
       </c>
       <c r="D2">
-        <v>14.08</v>
+        <v>15.65</v>
       </c>
       <c r="E2">
-        <v>11.79</v>
+        <v>11.39</v>
       </c>
       <c r="F2">
-        <v>9.950000000000001</v>
+        <v>8.98</v>
       </c>
       <c r="G2">
-        <v>8.140000000000001</v>
+        <v>6.47</v>
       </c>
       <c r="H2">
-        <v>6.84</v>
+        <v>4.47</v>
       </c>
       <c r="I2">
-        <v>5.050000000000001</v>
+        <v>3.64</v>
       </c>
       <c r="J2">
-        <v>3.42</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>1.77</v>
+        <v>1.36</v>
       </c>
       <c r="L2">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="M2">
-        <v>0.12</v>
+        <v>0.29</v>
       </c>
       <c r="N2">
-        <v>93.92</v>
+        <v>95.52000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>18.03</v>
+        <v>21.35</v>
       </c>
       <c r="C3">
-        <v>15.26</v>
+        <v>17.87</v>
       </c>
       <c r="D3">
-        <v>13.62</v>
+        <v>13.81</v>
       </c>
       <c r="E3">
-        <v>11.44</v>
+        <v>12.17</v>
       </c>
       <c r="F3">
-        <v>10.33</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="G3">
-        <v>8.82</v>
+        <v>7.449999999999999</v>
       </c>
       <c r="H3">
-        <v>7.98</v>
+        <v>5.91</v>
       </c>
       <c r="I3">
-        <v>5.970000000000001</v>
+        <v>4.64</v>
       </c>
       <c r="J3">
-        <v>4.52</v>
+        <v>3.08</v>
       </c>
       <c r="K3">
-        <v>2.83</v>
+        <v>2.2</v>
       </c>
       <c r="L3">
-        <v>0.97</v>
+        <v>1.41</v>
       </c>
       <c r="M3">
-        <v>0.23</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="N3">
-        <v>91.44999999999999</v>
+        <v>92.74000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>13.4</v>
+        <v>14.48</v>
       </c>
       <c r="C4">
-        <v>12.73</v>
+        <v>13.59</v>
       </c>
       <c r="D4">
-        <v>12.37</v>
+        <v>12.98</v>
       </c>
       <c r="E4">
-        <v>10.7</v>
+        <v>11.09</v>
       </c>
       <c r="F4">
-        <v>10.91</v>
+        <v>10.74</v>
       </c>
       <c r="G4">
-        <v>9.779999999999999</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="H4">
-        <v>9.08</v>
+        <v>8.42</v>
       </c>
       <c r="I4">
-        <v>7.88</v>
+        <v>6.41</v>
       </c>
       <c r="J4">
-        <v>6.13</v>
+        <v>5.29</v>
       </c>
       <c r="K4">
-        <v>4.399999999999999</v>
+        <v>4.36</v>
       </c>
       <c r="L4">
-        <v>2.13</v>
+        <v>2.64</v>
       </c>
       <c r="M4">
-        <v>0.49</v>
+        <v>1.05</v>
       </c>
       <c r="N4">
-        <v>86.84999999999999</v>
+        <v>86.66</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>9.43</v>
+      </c>
+      <c r="C5">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>12.56</v>
-      </c>
-      <c r="C5">
-        <v>14.05</v>
-      </c>
       <c r="D5">
-        <v>14.19</v>
+        <v>10.85</v>
       </c>
       <c r="E5">
-        <v>12.86</v>
+        <v>10.98</v>
       </c>
       <c r="F5">
-        <v>10.83</v>
+        <v>11.16</v>
       </c>
       <c r="G5">
-        <v>10.94</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="H5">
-        <v>8.649999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="I5">
-        <v>6.87</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="J5">
-        <v>5.029999999999999</v>
+        <v>6.99</v>
       </c>
       <c r="K5">
-        <v>2.6</v>
+        <v>6.02</v>
       </c>
       <c r="L5">
-        <v>1.22</v>
+        <v>4.77</v>
       </c>
       <c r="M5">
-        <v>0.2</v>
+        <v>2.42</v>
       </c>
       <c r="N5">
-        <v>90.94999999999999</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>10.54</v>
+        <v>7.8</v>
       </c>
       <c r="C6">
-        <v>10.53</v>
+        <v>8.649999999999999</v>
       </c>
       <c r="D6">
-        <v>10.52</v>
+        <v>9.65</v>
       </c>
       <c r="E6">
-        <v>11.28</v>
+        <v>10.18</v>
       </c>
       <c r="F6">
-        <v>10.76</v>
+        <v>10.12</v>
       </c>
       <c r="G6">
-        <v>9.68</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>9.75</v>
+        <v>9.67</v>
       </c>
       <c r="I6">
-        <v>8.41</v>
+        <v>8.98</v>
       </c>
       <c r="J6">
-        <v>8.219999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="K6">
-        <v>6.12</v>
+        <v>7.39</v>
       </c>
       <c r="L6">
-        <v>3.35</v>
+        <v>5.62</v>
       </c>
       <c r="M6">
-        <v>0.84</v>
+        <v>3.84</v>
       </c>
       <c r="N6">
-        <v>81.47</v>
+        <v>75.05</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>7.22</v>
       </c>
       <c r="C7">
         <v>9.359999999999999</v>
       </c>
       <c r="D7">
-        <v>9.35</v>
+        <v>9.76</v>
       </c>
       <c r="E7">
-        <v>9.99</v>
+        <v>10.43</v>
       </c>
       <c r="F7">
-        <v>10.68</v>
+        <v>9.790000000000001</v>
       </c>
       <c r="G7">
-        <v>10.22</v>
+        <v>10.16</v>
       </c>
       <c r="H7">
-        <v>10.76</v>
+        <v>9.65</v>
       </c>
       <c r="I7">
-        <v>10.28</v>
+        <v>8.16</v>
       </c>
       <c r="J7">
-        <v>8.81</v>
+        <v>8.459999999999999</v>
       </c>
       <c r="K7">
-        <v>7.23</v>
+        <v>7.22</v>
       </c>
       <c r="L7">
-        <v>4.23</v>
+        <v>6.04</v>
       </c>
       <c r="M7">
-        <v>1.09</v>
+        <v>3.75</v>
       </c>
       <c r="N7">
-        <v>78.64</v>
+        <v>74.53</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>7.99</v>
+        <v>6.27</v>
       </c>
       <c r="C8">
-        <v>9.520000000000001</v>
+        <v>7.720000000000001</v>
       </c>
       <c r="D8">
-        <v>10.79</v>
+        <v>8.57</v>
       </c>
       <c r="E8">
-        <v>11.68</v>
+        <v>9.74</v>
       </c>
       <c r="F8">
-        <v>11.63</v>
+        <v>9.43</v>
       </c>
       <c r="G8">
-        <v>11.26</v>
+        <v>9.75</v>
       </c>
       <c r="H8">
-        <v>10.24</v>
+        <v>9.93</v>
       </c>
       <c r="I8">
-        <v>9.33</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="J8">
-        <v>8.15</v>
+        <v>9.56</v>
       </c>
       <c r="K8">
-        <v>5.71</v>
+        <v>8.1</v>
       </c>
       <c r="L8">
-        <v>3.04</v>
+        <v>6.710000000000001</v>
       </c>
       <c r="M8">
-        <v>0.66</v>
+        <v>4.75</v>
       </c>
       <c r="N8">
-        <v>82.44</v>
+        <v>70.88</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1861,87 +1864,87 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>5.140000000000001</v>
+        <v>2.67</v>
       </c>
       <c r="C9">
-        <v>6.619999999999999</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>7.21</v>
+        <v>5.33</v>
       </c>
       <c r="E9">
-        <v>8.780000000000001</v>
+        <v>6.88</v>
       </c>
       <c r="F9">
-        <v>9.65</v>
+        <v>7.75</v>
       </c>
       <c r="G9">
-        <v>10.87</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="H9">
-        <v>11.2</v>
+        <v>10.07</v>
       </c>
       <c r="I9">
-        <v>11.25</v>
+        <v>11.44</v>
       </c>
       <c r="J9">
-        <v>10.77</v>
+        <v>11.91</v>
       </c>
       <c r="K9">
-        <v>9.180000000000001</v>
+        <v>12.04</v>
       </c>
       <c r="L9">
-        <v>7.13</v>
+        <v>9.98</v>
       </c>
       <c r="M9">
-        <v>2.2</v>
+        <v>8.709999999999999</v>
       </c>
       <c r="N9">
-        <v>70.72</v>
+        <v>57.36</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>2.17</v>
+        <v>2.38</v>
       </c>
       <c r="C10">
-        <v>3.31</v>
+        <v>3.88</v>
       </c>
       <c r="D10">
-        <v>5.050000000000001</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="E10">
-        <v>6.54</v>
+        <v>6.87</v>
       </c>
       <c r="F10">
-        <v>7.969999999999999</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="G10">
-        <v>9.629999999999999</v>
+        <v>9.42</v>
       </c>
       <c r="H10">
-        <v>10.66</v>
+        <v>9.98</v>
       </c>
       <c r="I10">
-        <v>12.12</v>
+        <v>11.17</v>
       </c>
       <c r="J10">
-        <v>13.42</v>
+        <v>11.09</v>
       </c>
       <c r="K10">
-        <v>13.18</v>
+        <v>10.97</v>
       </c>
       <c r="L10">
-        <v>11.35</v>
+        <v>11.04</v>
       </c>
       <c r="M10">
-        <v>4.6</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="N10">
-        <v>57.45</v>
+        <v>57.93000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1949,43 +1952,43 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.76</v>
+        <v>1.89</v>
       </c>
       <c r="C11">
-        <v>1.35</v>
+        <v>3.44</v>
       </c>
       <c r="D11">
-        <v>1.94</v>
+        <v>4.44</v>
       </c>
       <c r="E11">
-        <v>3.35</v>
+        <v>5.220000000000001</v>
       </c>
       <c r="F11">
-        <v>4.64</v>
+        <v>6.08</v>
       </c>
       <c r="G11">
-        <v>6.329999999999999</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="H11">
-        <v>7.93</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="I11">
-        <v>11.68</v>
+        <v>10.3</v>
       </c>
       <c r="J11">
-        <v>14.08</v>
+        <v>11.88</v>
       </c>
       <c r="K11">
-        <v>17.6</v>
+        <v>12.44</v>
       </c>
       <c r="L11">
-        <v>19.13</v>
+        <v>14.19</v>
       </c>
       <c r="M11">
-        <v>11.21</v>
+        <v>12.54</v>
       </c>
       <c r="N11">
-        <v>37.98</v>
+        <v>48.95</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1993,43 +1996,43 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0.19</v>
+        <v>0.74</v>
       </c>
       <c r="C12">
-        <v>0.42</v>
+        <v>1.91</v>
       </c>
       <c r="D12">
-        <v>0.84</v>
+        <v>2.81</v>
       </c>
       <c r="E12">
-        <v>1.53</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>2.51</v>
+        <v>5.89</v>
       </c>
       <c r="G12">
-        <v>3.91</v>
+        <v>7.380000000000001</v>
       </c>
       <c r="H12">
-        <v>6.25</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I12">
-        <v>9.470000000000001</v>
+        <v>10.98</v>
       </c>
       <c r="J12">
-        <v>13.56</v>
+        <v>12.07</v>
       </c>
       <c r="K12">
-        <v>20.09</v>
+        <v>14.51</v>
       </c>
       <c r="L12">
-        <v>23.66</v>
+        <v>15.21</v>
       </c>
       <c r="M12">
-        <v>17.57</v>
+        <v>15.78</v>
       </c>
       <c r="N12">
-        <v>25.12</v>
+        <v>42.43</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2037,43 +2040,43 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="D13">
-        <v>0.04</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="E13">
-        <v>0.06</v>
+        <v>1.05</v>
       </c>
       <c r="F13">
-        <v>0.14</v>
+        <v>1.89</v>
       </c>
       <c r="G13">
-        <v>0.42</v>
+        <v>2.81</v>
       </c>
       <c r="H13">
-        <v>0.66</v>
+        <v>4.65</v>
       </c>
       <c r="I13">
-        <v>1.69</v>
+        <v>6.77</v>
       </c>
       <c r="J13">
-        <v>3.89</v>
+        <v>9.569999999999999</v>
       </c>
       <c r="K13">
-        <v>9.289999999999999</v>
+        <v>13.39</v>
       </c>
       <c r="L13">
-        <v>23.02</v>
+        <v>21.56</v>
       </c>
       <c r="M13">
-        <v>60.79</v>
+        <v>37.33000000000001</v>
       </c>
       <c r="N13">
-        <v>3.01</v>
+        <v>18.15</v>
       </c>
     </row>
   </sheetData>
@@ -2091,16 +2094,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2108,16 +2111,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2125,13 +2128,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
@@ -2142,10 +2145,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -2162,7 +2165,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -2176,13 +2179,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
@@ -2193,13 +2196,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -2210,16 +2213,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2227,16 +2230,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2244,16 +2247,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2261,16 +2264,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2278,13 +2281,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>46</v>
@@ -2295,13 +2298,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
         <v>47</v>
@@ -2314,15 +2317,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>48</v>
@@ -2337,79 +2340,91 @@
         <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>-9</v>
+      </c>
+      <c r="E3">
+        <v>-8</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2428,191 +2443,218 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
+        <v>-3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
         <v>0</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>-5</v>
-      </c>
-      <c r="D7">
-        <v>-2</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>-11</v>
+      </c>
+      <c r="E8">
+        <v>-15</v>
+      </c>
+      <c r="F8">
+        <v>-5</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>-3</v>
+      </c>
+      <c r="F9">
+        <v>-4</v>
+      </c>
+      <c r="G9">
+        <v>-5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>-3</v>
+      </c>
+      <c r="E10">
+        <v>-4</v>
+      </c>
+      <c r="F10">
+        <v>-10</v>
+      </c>
+      <c r="G10">
+        <v>-5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>-3</v>
+      </c>
+      <c r="G11">
+        <v>-6</v>
+      </c>
+      <c r="H11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>-5</v>
+      </c>
+      <c r="D12">
+        <v>-2</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>-7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>-1</v>
-      </c>
-      <c r="D9">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>-9</v>
       </c>
-      <c r="E9">
-        <v>-8</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>-1</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>-3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>-3</v>
-      </c>
-      <c r="F11">
-        <v>-4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>-1</v>
-      </c>
-      <c r="D12">
-        <v>-11</v>
-      </c>
-      <c r="E12">
-        <v>-15</v>
-      </c>
-      <c r="F12">
-        <v>-5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>-3</v>
-      </c>
-      <c r="E13">
-        <v>-4</v>
-      </c>
-      <c r="F13">
-        <v>-10</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="53">
   <si>
     <t>Lockett inma pockett</t>
   </si>
@@ -1556,43 +1556,43 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>25.6</v>
+        <v>24.9</v>
       </c>
       <c r="C2">
-        <v>19.32</v>
+        <v>20.11</v>
       </c>
       <c r="D2">
-        <v>15.65</v>
+        <v>14.77</v>
       </c>
       <c r="E2">
-        <v>11.39</v>
+        <v>11.4</v>
       </c>
       <c r="F2">
-        <v>8.98</v>
+        <v>9.370000000000001</v>
       </c>
       <c r="G2">
-        <v>6.47</v>
+        <v>6.529999999999999</v>
       </c>
       <c r="H2">
-        <v>4.47</v>
+        <v>4.91</v>
       </c>
       <c r="I2">
-        <v>3.64</v>
+        <v>3.46</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K2">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="L2">
-        <v>0.83</v>
+        <v>0.58</v>
       </c>
       <c r="M2">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="N2">
-        <v>95.52000000000001</v>
+        <v>95.45000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1600,43 +1600,43 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21.35</v>
+        <v>21.79</v>
       </c>
       <c r="C3">
-        <v>17.87</v>
+        <v>16.82</v>
       </c>
       <c r="D3">
-        <v>13.81</v>
+        <v>14.7</v>
       </c>
       <c r="E3">
-        <v>12.17</v>
+        <v>11.5</v>
       </c>
       <c r="F3">
-        <v>9.539999999999999</v>
+        <v>9.73</v>
       </c>
       <c r="G3">
-        <v>7.449999999999999</v>
+        <v>7.75</v>
       </c>
       <c r="H3">
-        <v>5.91</v>
+        <v>5.43</v>
       </c>
       <c r="I3">
-        <v>4.64</v>
+        <v>4.91</v>
       </c>
       <c r="J3">
-        <v>3.08</v>
+        <v>3.32</v>
       </c>
       <c r="K3">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L3">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="M3">
-        <v>0.5700000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="N3">
-        <v>92.74000000000001</v>
+        <v>92.63</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1644,43 +1644,43 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>14.48</v>
+        <v>14.27</v>
       </c>
       <c r="C4">
-        <v>13.59</v>
+        <v>13.26</v>
       </c>
       <c r="D4">
-        <v>12.98</v>
+        <v>13.25</v>
       </c>
       <c r="E4">
-        <v>11.09</v>
+        <v>11.84</v>
       </c>
       <c r="F4">
-        <v>10.74</v>
+        <v>10.45</v>
       </c>
       <c r="G4">
-        <v>8.949999999999999</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="H4">
-        <v>8.42</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I4">
-        <v>6.41</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="J4">
-        <v>5.29</v>
+        <v>5.59</v>
       </c>
       <c r="K4">
-        <v>4.36</v>
+        <v>3.76</v>
       </c>
       <c r="L4">
-        <v>2.64</v>
+        <v>2.43</v>
       </c>
       <c r="M4">
-        <v>1.05</v>
+        <v>1.29</v>
       </c>
       <c r="N4">
-        <v>86.66</v>
+        <v>86.93000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1688,131 +1688,131 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>9.43</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>11.08</v>
       </c>
       <c r="D5">
-        <v>10.85</v>
+        <v>10.99</v>
       </c>
       <c r="E5">
-        <v>10.98</v>
+        <v>10.81</v>
       </c>
       <c r="F5">
-        <v>11.16</v>
+        <v>10.37</v>
       </c>
       <c r="G5">
-        <v>9.779999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="H5">
-        <v>9.56</v>
+        <v>9.34</v>
       </c>
       <c r="I5">
-        <v>8.039999999999999</v>
+        <v>7.95</v>
       </c>
       <c r="J5">
-        <v>6.99</v>
+        <v>7.08</v>
       </c>
       <c r="K5">
-        <v>6.02</v>
+        <v>5.93</v>
       </c>
       <c r="L5">
-        <v>4.77</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="M5">
-        <v>2.42</v>
+        <v>2.41</v>
       </c>
       <c r="N5">
-        <v>79.8</v>
+        <v>80.19</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>7.8</v>
+        <v>7.52</v>
       </c>
       <c r="C6">
-        <v>8.649999999999999</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="D6">
-        <v>9.65</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E6">
-        <v>10.18</v>
+        <v>9.67</v>
       </c>
       <c r="F6">
-        <v>10.12</v>
+        <v>10.09</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="H6">
-        <v>9.67</v>
+        <v>10.35</v>
       </c>
       <c r="I6">
-        <v>8.98</v>
+        <v>9.35</v>
       </c>
       <c r="J6">
-        <v>8.1</v>
+        <v>8.260000000000002</v>
       </c>
       <c r="K6">
-        <v>7.39</v>
+        <v>7.08</v>
       </c>
       <c r="L6">
-        <v>5.62</v>
+        <v>5.77</v>
       </c>
       <c r="M6">
-        <v>3.84</v>
+        <v>3.89</v>
       </c>
       <c r="N6">
-        <v>75.05</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>7.22</v>
+        <v>7.430000000000001</v>
       </c>
       <c r="C7">
-        <v>9.359999999999999</v>
+        <v>8.33</v>
       </c>
       <c r="D7">
-        <v>9.76</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="E7">
-        <v>10.43</v>
+        <v>10.18</v>
       </c>
       <c r="F7">
-        <v>9.790000000000001</v>
+        <v>9.85</v>
       </c>
       <c r="G7">
-        <v>10.16</v>
+        <v>9.959999999999999</v>
       </c>
       <c r="H7">
-        <v>9.65</v>
+        <v>10.26</v>
       </c>
       <c r="I7">
-        <v>8.16</v>
+        <v>8.93</v>
       </c>
       <c r="J7">
-        <v>8.459999999999999</v>
+        <v>8.44</v>
       </c>
       <c r="K7">
-        <v>7.22</v>
+        <v>7.46</v>
       </c>
       <c r="L7">
-        <v>6.04</v>
+        <v>5.86</v>
       </c>
       <c r="M7">
-        <v>3.75</v>
+        <v>3.83</v>
       </c>
       <c r="N7">
-        <v>74.53</v>
+        <v>74.41</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1820,43 +1820,43 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>6.27</v>
+        <v>6.45</v>
       </c>
       <c r="C8">
-        <v>7.720000000000001</v>
+        <v>7.630000000000001</v>
       </c>
       <c r="D8">
-        <v>8.57</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="E8">
-        <v>9.74</v>
+        <v>10.04</v>
       </c>
       <c r="F8">
-        <v>9.43</v>
+        <v>9.6</v>
       </c>
       <c r="G8">
-        <v>9.75</v>
+        <v>10.42</v>
       </c>
       <c r="H8">
-        <v>9.93</v>
+        <v>9.180000000000001</v>
       </c>
       <c r="I8">
-        <v>9.470000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J8">
-        <v>9.56</v>
+        <v>9.33</v>
       </c>
       <c r="K8">
-        <v>8.1</v>
+        <v>7.539999999999999</v>
       </c>
       <c r="L8">
-        <v>6.710000000000001</v>
+        <v>6.94</v>
       </c>
       <c r="M8">
-        <v>4.75</v>
+        <v>4.45</v>
       </c>
       <c r="N8">
-        <v>70.88</v>
+        <v>71.74000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1864,40 +1864,40 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>4.02</v>
       </c>
       <c r="D9">
-        <v>5.33</v>
+        <v>5.42</v>
       </c>
       <c r="E9">
         <v>6.88</v>
       </c>
       <c r="F9">
-        <v>7.75</v>
+        <v>8.01</v>
       </c>
       <c r="G9">
-        <v>9.220000000000001</v>
+        <v>9.629999999999999</v>
       </c>
       <c r="H9">
-        <v>10.07</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="I9">
-        <v>11.44</v>
+        <v>11.1</v>
       </c>
       <c r="J9">
-        <v>11.91</v>
+        <v>11.09</v>
       </c>
       <c r="K9">
-        <v>12.04</v>
+        <v>11.47</v>
       </c>
       <c r="L9">
-        <v>9.98</v>
+        <v>10.98</v>
       </c>
       <c r="M9">
-        <v>8.709999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="N9">
         <v>57.36</v>
@@ -1908,43 +1908,43 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="C10">
-        <v>3.88</v>
+        <v>4.15</v>
       </c>
       <c r="D10">
-        <v>5.600000000000001</v>
+        <v>5.21</v>
       </c>
       <c r="E10">
-        <v>6.87</v>
+        <v>6.76</v>
       </c>
       <c r="F10">
-        <v>8.630000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="G10">
-        <v>9.42</v>
+        <v>9.27</v>
       </c>
       <c r="H10">
-        <v>9.98</v>
+        <v>10.02</v>
       </c>
       <c r="I10">
-        <v>11.17</v>
+        <v>11.21</v>
       </c>
       <c r="J10">
-        <v>11.09</v>
+        <v>11.28</v>
       </c>
       <c r="K10">
-        <v>10.97</v>
+        <v>11.44</v>
       </c>
       <c r="L10">
-        <v>11.04</v>
+        <v>11</v>
       </c>
       <c r="M10">
-        <v>8.970000000000001</v>
+        <v>9.09</v>
       </c>
       <c r="N10">
-        <v>57.93000000000001</v>
+        <v>57.19</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1952,43 +1952,43 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="C11">
-        <v>3.44</v>
+        <v>3.29</v>
       </c>
       <c r="D11">
-        <v>4.44</v>
+        <v>4.14</v>
       </c>
       <c r="E11">
-        <v>5.220000000000001</v>
+        <v>5.59</v>
       </c>
       <c r="F11">
-        <v>6.08</v>
+        <v>6.92</v>
       </c>
       <c r="G11">
-        <v>8.609999999999999</v>
+        <v>8.219999999999999</v>
       </c>
       <c r="H11">
-        <v>8.970000000000001</v>
+        <v>9.610000000000001</v>
       </c>
       <c r="I11">
-        <v>10.3</v>
+        <v>9.790000000000001</v>
       </c>
       <c r="J11">
-        <v>11.88</v>
+        <v>11.68</v>
       </c>
       <c r="K11">
-        <v>12.44</v>
+        <v>12.79</v>
       </c>
       <c r="L11">
-        <v>14.19</v>
+        <v>13.58</v>
       </c>
       <c r="M11">
-        <v>12.54</v>
+        <v>12.56</v>
       </c>
       <c r="N11">
-        <v>48.95</v>
+        <v>49.39</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1996,43 +1996,43 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="C12">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="D12">
-        <v>2.81</v>
+        <v>2.99</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>4.09</v>
       </c>
       <c r="F12">
-        <v>5.89</v>
+        <v>5.63</v>
       </c>
       <c r="G12">
-        <v>7.380000000000001</v>
+        <v>7.23</v>
       </c>
       <c r="H12">
-        <v>8.720000000000001</v>
+        <v>8.57</v>
       </c>
       <c r="I12">
-        <v>10.98</v>
+        <v>10.76</v>
       </c>
       <c r="J12">
-        <v>12.07</v>
+        <v>12.36</v>
       </c>
       <c r="K12">
-        <v>14.51</v>
+        <v>14.26</v>
       </c>
       <c r="L12">
-        <v>15.21</v>
+        <v>15.28</v>
       </c>
       <c r="M12">
-        <v>15.78</v>
+        <v>16.36</v>
       </c>
       <c r="N12">
-        <v>42.43</v>
+        <v>41.73999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2040,43 +2040,43 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="C13">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="D13">
-        <v>0.5499999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="E13">
-        <v>1.05</v>
+        <v>1.24</v>
       </c>
       <c r="F13">
         <v>1.89</v>
       </c>
       <c r="G13">
-        <v>2.81</v>
+        <v>2.83</v>
       </c>
       <c r="H13">
-        <v>4.65</v>
+        <v>4.48</v>
       </c>
       <c r="I13">
-        <v>6.77</v>
+        <v>6.49</v>
       </c>
       <c r="J13">
-        <v>9.569999999999999</v>
+        <v>9.17</v>
       </c>
       <c r="K13">
-        <v>13.39</v>
+        <v>14.65</v>
       </c>
       <c r="L13">
-        <v>21.56</v>
+        <v>21.86</v>
       </c>
       <c r="M13">
-        <v>37.33000000000001</v>
+        <v>36.35</v>
       </c>
       <c r="N13">
-        <v>18.15</v>
+        <v>17.97</v>
       </c>
     </row>
   </sheetData>
@@ -2317,344 +2317,305 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
+      <c r="B3">
+        <v>-1</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="D3">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E3">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-4</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>-4</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>-3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>-3</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
+      <c r="B7">
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
+      <c r="B8">
+        <v>-1</v>
       </c>
       <c r="C8">
+        <v>-11</v>
+      </c>
+      <c r="D8">
+        <v>-15</v>
+      </c>
+      <c r="E8">
+        <v>-5</v>
+      </c>
+      <c r="F8">
         <v>-1</v>
       </c>
-      <c r="D8">
-        <v>-11</v>
-      </c>
-      <c r="E8">
-        <v>-15</v>
-      </c>
-      <c r="F8">
-        <v>-5</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E9">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F9">
-        <v>-4</v>
-      </c>
-      <c r="G9">
         <v>-5</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" t="s">
-        <v>0</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D10">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E10">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="F10">
-        <v>-10</v>
-      </c>
-      <c r="G10">
         <v>-5</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
+      <c r="B11">
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="F11">
-        <v>-3</v>
-      </c>
-      <c r="G11">
         <v>-6</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
+      <c r="B12">
+        <v>-5</v>
       </c>
       <c r="C12">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D12">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
         <v>-7</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
       <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
         <v>-9</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="68">
   <si>
     <t>Lockett inma pockett</t>
   </si>
@@ -57,22 +57,40 @@
     <t>DadBods 69ers</t>
   </si>
   <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
-  </si>
-  <si>
-    <t>5-0-0</t>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>1-13-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -138,31 +156,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑2</t>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓10</t>
+    <t>↓6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -178,6 +196,33 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
 </sst>
 </file>
@@ -587,10 +632,10 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -599,25 +644,25 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -628,37 +673,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -669,37 +714,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
         <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -707,40 +752,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -748,19 +793,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -769,19 +814,19 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
         <v>15</v>
       </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>15</v>
-      </c>
-      <c r="L6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -789,40 +834,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
         <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
       </c>
       <c r="L7" t="s">
         <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -830,40 +875,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="K8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s">
-        <v>13</v>
-      </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -874,37 +919,37 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -915,34 +960,34 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
         <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" t="s">
-        <v>14</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -953,34 +998,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
         <v>13</v>
@@ -994,40 +1039,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1035,40 +1080,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="L13" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1086,13 +1131,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1103,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.916666666666667</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1114,13 +1159,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>2.083333333333333</v>
+        <v>5.75</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1128,13 +1173,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>2.166666666666667</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1142,13 +1187,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>2.333333333333333</v>
-      </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1156,13 +1201,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2.416666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1170,13 +1215,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>2.5</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1187,10 +1232,10 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>2.583333333333333</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1198,13 +1243,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>2.666666666666667</v>
+        <v>7.75</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1212,13 +1257,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>2.666666666666667</v>
+        <v>7.75</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1229,10 +1274,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1243,10 +1288,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>2.916666666666667</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1254,13 +1299,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1278,16 +1323,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1295,16 +1340,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>3.25</v>
+        <v>9.5</v>
       </c>
       <c r="D2">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1312,16 +1357,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>-0.3333333333333339</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1329,16 +1374,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.3333333333333339</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1346,16 +1391,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1363,13 +1408,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2.75</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D6">
-        <v>-0.25</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1380,16 +1425,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>2.5</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1397,16 +1442,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>2.416666666666667</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D8">
-        <v>0.4166666666666665</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1414,16 +1459,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>2.166666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D9">
-        <v>-0.8333333333333335</v>
+        <v>-1.916666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1431,16 +1476,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>2.166666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D10">
-        <v>-0.8333333333333335</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1448,16 +1493,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>2.166666666666667</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D11">
-        <v>0.1666666666666665</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1465,16 +1510,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>2.083333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="D12">
-        <v>0.08333333333333348</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1482,16 +1527,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>1.5</v>
-      </c>
-      <c r="D13">
-        <v>0.5</v>
-      </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1509,46 +1554,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1556,395 +1601,395 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>24.9</v>
+        <v>63.69</v>
       </c>
       <c r="C2">
-        <v>20.11</v>
+        <v>21.56</v>
       </c>
       <c r="D2">
-        <v>14.77</v>
+        <v>8.27</v>
       </c>
       <c r="E2">
-        <v>11.4</v>
+        <v>3.6</v>
       </c>
       <c r="F2">
-        <v>9.370000000000001</v>
+        <v>1.66</v>
       </c>
       <c r="G2">
-        <v>6.529999999999999</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="H2">
-        <v>4.91</v>
+        <v>0.25</v>
       </c>
       <c r="I2">
-        <v>3.46</v>
+        <v>0.12</v>
       </c>
       <c r="J2">
-        <v>2.4</v>
+        <v>0.03</v>
       </c>
       <c r="K2">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.58</v>
+        <v>0.01</v>
       </c>
       <c r="M2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>95.45000000000002</v>
+        <v>99.96000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>21.79</v>
+        <v>16.54</v>
       </c>
       <c r="C3">
-        <v>16.82</v>
+        <v>24.61</v>
       </c>
       <c r="D3">
-        <v>14.7</v>
+        <v>19.12</v>
       </c>
       <c r="E3">
-        <v>11.5</v>
+        <v>14.05</v>
       </c>
       <c r="F3">
-        <v>9.73</v>
+        <v>9.719999999999999</v>
       </c>
       <c r="G3">
-        <v>7.75</v>
+        <v>6.49</v>
       </c>
       <c r="H3">
-        <v>5.43</v>
+        <v>4.32</v>
       </c>
       <c r="I3">
-        <v>4.91</v>
+        <v>2.81</v>
       </c>
       <c r="J3">
-        <v>3.32</v>
+        <v>1.46</v>
       </c>
       <c r="K3">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="L3">
-        <v>1.33</v>
+        <v>0.08</v>
       </c>
       <c r="M3">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>92.63</v>
+        <v>97.66000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>14.27</v>
+        <v>8.76</v>
       </c>
       <c r="C4">
-        <v>13.26</v>
+        <v>16.26</v>
       </c>
       <c r="D4">
-        <v>13.25</v>
+        <v>16.56</v>
       </c>
       <c r="E4">
-        <v>11.84</v>
+        <v>14.46</v>
       </c>
       <c r="F4">
-        <v>10.45</v>
+        <v>12.56</v>
       </c>
       <c r="G4">
-        <v>8.799999999999999</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="H4">
-        <v>8.210000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="I4">
-        <v>6.850000000000001</v>
+        <v>5.82</v>
       </c>
       <c r="J4">
-        <v>5.59</v>
+        <v>4.94</v>
       </c>
       <c r="K4">
-        <v>3.76</v>
+        <v>2.36</v>
       </c>
       <c r="L4">
-        <v>2.43</v>
+        <v>0.24</v>
       </c>
       <c r="M4">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>86.93000000000001</v>
+        <v>92.45999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>3.58</v>
       </c>
       <c r="C5">
-        <v>11.08</v>
+        <v>9.959999999999999</v>
       </c>
       <c r="D5">
-        <v>10.99</v>
+        <v>12.4</v>
       </c>
       <c r="E5">
-        <v>10.81</v>
+        <v>12.51</v>
       </c>
       <c r="F5">
-        <v>10.37</v>
+        <v>12.5</v>
       </c>
       <c r="G5">
-        <v>9.65</v>
+        <v>11.82</v>
       </c>
       <c r="H5">
-        <v>9.34</v>
+        <v>11.81</v>
       </c>
       <c r="I5">
-        <v>7.95</v>
+        <v>9.56</v>
       </c>
       <c r="J5">
-        <v>7.08</v>
+        <v>8.690000000000001</v>
       </c>
       <c r="K5">
-        <v>5.93</v>
+        <v>6.1</v>
       </c>
       <c r="L5">
-        <v>4.390000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="M5">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>80.19</v>
+        <v>84.13999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>7.52</v>
+        <v>2.64</v>
       </c>
       <c r="C6">
-        <v>9.109999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="D6">
-        <v>9.199999999999999</v>
+        <v>10.18</v>
       </c>
       <c r="E6">
-        <v>9.67</v>
+        <v>11.91</v>
       </c>
       <c r="F6">
-        <v>10.09</v>
+        <v>12.03</v>
       </c>
       <c r="G6">
-        <v>9.710000000000001</v>
+        <v>12.99</v>
       </c>
       <c r="H6">
-        <v>10.35</v>
+        <v>11.37</v>
       </c>
       <c r="I6">
-        <v>9.35</v>
+        <v>11.3</v>
       </c>
       <c r="J6">
-        <v>8.260000000000002</v>
+        <v>9.84</v>
       </c>
       <c r="K6">
-        <v>7.08</v>
+        <v>8.09</v>
       </c>
       <c r="L6">
-        <v>5.77</v>
+        <v>1.55</v>
       </c>
       <c r="M6">
-        <v>3.89</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>75</v>
+        <v>80.52</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>7.430000000000001</v>
+        <v>1.65</v>
       </c>
       <c r="C7">
-        <v>8.33</v>
+        <v>5.21</v>
       </c>
       <c r="D7">
-        <v>9.470000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="E7">
-        <v>10.18</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="F7">
-        <v>9.85</v>
+        <v>11.25</v>
       </c>
       <c r="G7">
-        <v>9.959999999999999</v>
+        <v>11.84</v>
       </c>
       <c r="H7">
-        <v>10.26</v>
+        <v>12.8</v>
       </c>
       <c r="I7">
-        <v>8.93</v>
+        <v>12.73</v>
       </c>
       <c r="J7">
-        <v>8.44</v>
+        <v>12.57</v>
       </c>
       <c r="K7">
-        <v>7.46</v>
+        <v>10.96</v>
       </c>
       <c r="L7">
-        <v>5.86</v>
+        <v>2.68</v>
       </c>
       <c r="M7">
-        <v>3.83</v>
+        <v>0.02</v>
       </c>
       <c r="N7">
-        <v>74.41</v>
+        <v>73.77000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>6.45</v>
+        <v>1.26</v>
       </c>
       <c r="C8">
-        <v>7.630000000000001</v>
+        <v>4.54</v>
       </c>
       <c r="D8">
-        <v>9.220000000000001</v>
+        <v>7.48</v>
       </c>
       <c r="E8">
-        <v>10.04</v>
+        <v>9.75</v>
       </c>
       <c r="F8">
-        <v>9.6</v>
+        <v>10.82</v>
       </c>
       <c r="G8">
-        <v>10.42</v>
+        <v>11.79</v>
       </c>
       <c r="H8">
-        <v>9.180000000000001</v>
+        <v>12.23</v>
       </c>
       <c r="I8">
-        <v>9.199999999999999</v>
+        <v>13.1</v>
       </c>
       <c r="J8">
-        <v>9.33</v>
+        <v>13.2</v>
       </c>
       <c r="K8">
-        <v>7.539999999999999</v>
+        <v>12.09</v>
       </c>
       <c r="L8">
-        <v>6.94</v>
+        <v>3.68</v>
       </c>
       <c r="M8">
-        <v>4.45</v>
+        <v>0.06</v>
       </c>
       <c r="N8">
-        <v>71.74000000000001</v>
+        <v>70.97</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2.66</v>
+        <v>0.83</v>
       </c>
       <c r="C9">
-        <v>4.02</v>
+        <v>3.65</v>
       </c>
       <c r="D9">
-        <v>5.42</v>
+        <v>6.69</v>
       </c>
       <c r="E9">
-        <v>6.88</v>
+        <v>8.81</v>
       </c>
       <c r="F9">
-        <v>8.01</v>
+        <v>10.58</v>
       </c>
       <c r="G9">
-        <v>9.629999999999999</v>
+        <v>12.52</v>
       </c>
       <c r="H9">
-        <v>9.640000000000001</v>
+        <v>13.02</v>
       </c>
       <c r="I9">
-        <v>11.1</v>
+        <v>13.58</v>
       </c>
       <c r="J9">
-        <v>11.09</v>
+        <v>13.72</v>
       </c>
       <c r="K9">
-        <v>11.47</v>
+        <v>12.57</v>
       </c>
       <c r="L9">
-        <v>10.98</v>
+        <v>3.92</v>
       </c>
       <c r="M9">
-        <v>9.1</v>
+        <v>0.11</v>
       </c>
       <c r="N9">
-        <v>57.36</v>
+        <v>69.68000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>2.48</v>
+        <v>0.79</v>
       </c>
       <c r="C10">
-        <v>4.15</v>
+        <v>4.21</v>
       </c>
       <c r="D10">
-        <v>5.21</v>
+        <v>6.660000000000001</v>
       </c>
       <c r="E10">
-        <v>6.76</v>
+        <v>8.77</v>
       </c>
       <c r="F10">
-        <v>8.09</v>
+        <v>10.41</v>
       </c>
       <c r="G10">
-        <v>9.27</v>
+        <v>11.12</v>
       </c>
       <c r="H10">
-        <v>10.02</v>
+        <v>12.48</v>
       </c>
       <c r="I10">
-        <v>11.21</v>
+        <v>13.9</v>
       </c>
       <c r="J10">
-        <v>11.28</v>
+        <v>14.25</v>
       </c>
       <c r="K10">
-        <v>11.44</v>
+        <v>13.34</v>
       </c>
       <c r="L10">
-        <v>11</v>
+        <v>4.03</v>
       </c>
       <c r="M10">
-        <v>9.09</v>
+        <v>0.04</v>
       </c>
       <c r="N10">
-        <v>57.19</v>
+        <v>68.34</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1952,131 +1997,131 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>1.83</v>
+        <v>0.26</v>
       </c>
       <c r="C11">
-        <v>3.29</v>
+        <v>1.9</v>
       </c>
       <c r="D11">
-        <v>4.14</v>
+        <v>4.21</v>
       </c>
       <c r="E11">
-        <v>5.59</v>
+        <v>6.15</v>
       </c>
       <c r="F11">
-        <v>6.92</v>
+        <v>8.27</v>
       </c>
       <c r="G11">
-        <v>8.219999999999999</v>
+        <v>10.07</v>
       </c>
       <c r="H11">
-        <v>9.610000000000001</v>
+        <v>12.57</v>
       </c>
       <c r="I11">
-        <v>9.790000000000001</v>
+        <v>14.77</v>
       </c>
       <c r="J11">
-        <v>11.68</v>
+        <v>16.19</v>
       </c>
       <c r="K11">
-        <v>12.79</v>
+        <v>17.78</v>
       </c>
       <c r="L11">
-        <v>13.58</v>
+        <v>7.69</v>
       </c>
       <c r="M11">
-        <v>12.56</v>
+        <v>0.14</v>
       </c>
       <c r="N11">
-        <v>49.39</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>2.99</v>
+        <v>0.01</v>
       </c>
       <c r="E12">
-        <v>4.09</v>
+        <v>0.12</v>
       </c>
       <c r="F12">
-        <v>5.63</v>
+        <v>0.2</v>
       </c>
       <c r="G12">
-        <v>7.23</v>
+        <v>0.58</v>
       </c>
       <c r="H12">
-        <v>8.57</v>
+        <v>1.08</v>
       </c>
       <c r="I12">
-        <v>10.76</v>
+        <v>2.31</v>
       </c>
       <c r="J12">
-        <v>12.36</v>
+        <v>5.11</v>
       </c>
       <c r="K12">
-        <v>14.26</v>
+        <v>15.73</v>
       </c>
       <c r="L12">
-        <v>15.28</v>
+        <v>66.32000000000001</v>
       </c>
       <c r="M12">
-        <v>16.36</v>
+        <v>8.540000000000001</v>
       </c>
       <c r="N12">
-        <v>41.73999999999999</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
         <v>0</v>
       </c>
-      <c r="B13">
-        <v>0.08</v>
-      </c>
       <c r="C13">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>2.83</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>4.48</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>6.49</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>9.17</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>14.65</v>
+        <v>0.18</v>
       </c>
       <c r="L13">
-        <v>21.86</v>
+        <v>8.73</v>
       </c>
       <c r="M13">
-        <v>36.35</v>
+        <v>91.09</v>
       </c>
       <c r="N13">
-        <v>17.97</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2094,16 +2139,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2111,16 +2156,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2128,16 +2173,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2145,16 +2190,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2162,16 +2207,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2179,16 +2224,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2196,16 +2241,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2213,16 +2258,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2230,16 +2275,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2247,16 +2292,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2264,16 +2309,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>-6</v>
+        <v>-15</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2281,16 +2326,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>-7</v>
+        <v>-29</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2298,16 +2343,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>-9</v>
+        <v>-69</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2317,306 +2362,657 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>-5</v>
+      </c>
+      <c r="C2">
+        <v>-2</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>27</v>
+      </c>
+      <c r="M2">
+        <v>29</v>
+      </c>
+      <c r="N2">
+        <v>36</v>
+      </c>
+      <c r="O2">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>32</v>
+      </c>
+      <c r="L3">
+        <v>31</v>
+      </c>
+      <c r="M3">
+        <v>34</v>
+      </c>
+      <c r="N3">
+        <v>26</v>
+      </c>
+      <c r="O3">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>22</v>
+      </c>
+      <c r="J4">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>26</v>
+      </c>
+      <c r="L4">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <v>22</v>
+      </c>
+      <c r="N4">
+        <v>24</v>
+      </c>
+      <c r="O4">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>17</v>
+      </c>
+      <c r="L5">
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <v>15</v>
+      </c>
+      <c r="N5">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
         <v>-1</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>-1</v>
-      </c>
-      <c r="C3">
-        <v>-9</v>
-      </c>
-      <c r="D3">
-        <v>-8</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>-4</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>-3</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>23</v>
+      </c>
+      <c r="J6">
+        <v>26</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <v>14</v>
+      </c>
+      <c r="N6">
+        <v>14</v>
+      </c>
+      <c r="O6">
+        <v>18</v>
+      </c>
+      <c r="P6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="N7">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8">
+      <c r="H8">
+        <v>-5</v>
+      </c>
+      <c r="I8">
+        <v>-9</v>
+      </c>
+      <c r="J8">
+        <v>-16</v>
+      </c>
+      <c r="K8">
+        <v>-14</v>
+      </c>
+      <c r="L8">
         <v>-11</v>
       </c>
-      <c r="D8">
-        <v>-15</v>
-      </c>
-      <c r="E8">
-        <v>-5</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="M8">
+        <v>-10</v>
+      </c>
+      <c r="N8">
+        <v>-6</v>
+      </c>
+      <c r="O8">
+        <v>-9</v>
+      </c>
+      <c r="P8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>-5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>-2</v>
+      </c>
+      <c r="J9">
+        <v>-10</v>
+      </c>
+      <c r="K9">
+        <v>-13</v>
+      </c>
+      <c r="L9">
+        <v>-14</v>
+      </c>
+      <c r="M9">
+        <v>-10</v>
+      </c>
+      <c r="N9">
+        <v>-7</v>
+      </c>
+      <c r="O9">
+        <v>-11</v>
+      </c>
+      <c r="P9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
+        <v>-6</v>
+      </c>
+      <c r="D10">
+        <v>-9</v>
+      </c>
+      <c r="E10">
+        <v>-4</v>
+      </c>
+      <c r="F10">
+        <v>-11</v>
+      </c>
+      <c r="G10">
+        <v>-12</v>
+      </c>
+      <c r="H10">
+        <v>-11</v>
+      </c>
+      <c r="I10">
+        <v>-15</v>
+      </c>
+      <c r="J10">
+        <v>-8</v>
+      </c>
+      <c r="K10">
+        <v>-8</v>
+      </c>
+      <c r="L10">
         <v>-3</v>
       </c>
-      <c r="D10">
-        <v>-4</v>
-      </c>
-      <c r="E10">
+      <c r="M10">
+        <v>-7</v>
+      </c>
+      <c r="N10">
+        <v>-9</v>
+      </c>
+      <c r="O10">
+        <v>-11</v>
+      </c>
+      <c r="P10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>-7</v>
+      </c>
+      <c r="C11">
+        <v>-16</v>
+      </c>
+      <c r="D11">
+        <v>-25</v>
+      </c>
+      <c r="E11">
+        <v>-29</v>
+      </c>
+      <c r="F11">
+        <v>-19</v>
+      </c>
+      <c r="G11">
+        <v>-20</v>
+      </c>
+      <c r="H11">
+        <v>-17</v>
+      </c>
+      <c r="I11">
+        <v>-19</v>
+      </c>
+      <c r="J11">
+        <v>-16</v>
+      </c>
+      <c r="K11">
+        <v>-14</v>
+      </c>
+      <c r="L11">
+        <v>-13</v>
+      </c>
+      <c r="M11">
+        <v>-12</v>
+      </c>
+      <c r="N11">
         <v>-10</v>
       </c>
-      <c r="F10">
-        <v>-5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>-1</v>
-      </c>
-      <c r="D11">
+      <c r="O11">
+        <v>-15</v>
+      </c>
+      <c r="P11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E11">
-        <v>-3</v>
-      </c>
-      <c r="F11">
-        <v>-6</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="B12">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="C12">
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>-18</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="F12">
-        <v>-7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-22</v>
+      </c>
+      <c r="G12">
+        <v>-19</v>
+      </c>
+      <c r="H12">
+        <v>-16</v>
+      </c>
+      <c r="I12">
+        <v>-17</v>
+      </c>
+      <c r="J12">
+        <v>-15</v>
+      </c>
+      <c r="K12">
+        <v>-21</v>
+      </c>
+      <c r="L12">
+        <v>-20</v>
+      </c>
+      <c r="M12">
+        <v>-19</v>
+      </c>
+      <c r="N12">
+        <v>-23</v>
+      </c>
+      <c r="O12">
+        <v>-29</v>
+      </c>
+      <c r="P12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>-20</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>-20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="F13">
-        <v>-9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>47</v>
+        <v>-24</v>
+      </c>
+      <c r="G13">
+        <v>-31</v>
+      </c>
+      <c r="H13">
+        <v>-31</v>
+      </c>
+      <c r="I13">
+        <v>-33</v>
+      </c>
+      <c r="J13">
+        <v>-43</v>
+      </c>
+      <c r="K13">
+        <v>-47</v>
+      </c>
+      <c r="L13">
+        <v>-54</v>
+      </c>
+      <c r="M13">
+        <v>-55</v>
+      </c>
+      <c r="N13">
+        <v>-65</v>
+      </c>
+      <c r="O13">
+        <v>-69</v>
+      </c>
+      <c r="P13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="53">
   <si>
     <t>Lockett inma pockett</t>
   </si>
@@ -57,40 +57,22 @@
     <t>DadBods 69ers</t>
   </si>
   <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>1-13-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
+    <t>1-4-0</t>
+  </si>
+  <si>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
+  </si>
+  <si>
+    <t>5-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -156,31 +138,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑6</t>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓10</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -196,33 +178,6 @@
   </si>
   <si>
     <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Week 13</t>
-  </si>
-  <si>
-    <t>Week 14</t>
   </si>
 </sst>
 </file>
@@ -632,10 +587,10 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -644,25 +599,25 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -673,37 +628,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -714,37 +669,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -752,40 +707,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -793,19 +748,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -814,19 +769,19 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -834,40 +789,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
       <c r="L7" t="s">
         <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -875,40 +830,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -919,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -960,34 +915,34 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -998,34 +953,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
         <v>13</v>
@@ -1039,40 +994,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1080,40 +1035,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1131,13 +1086,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1148,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.583333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1159,13 +1114,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>5.75</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1173,13 +1128,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1187,13 +1142,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1201,13 +1156,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>6.666666666666667</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1215,13 +1170,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>6.833333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1232,10 +1187,10 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1243,13 +1198,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>7.75</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1257,13 +1212,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>7.75</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1274,10 +1229,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1288,10 +1243,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>8.083333333333334</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1299,13 +1254,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>8.583333333333334</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1323,16 +1278,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1340,16 +1295,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>9.5</v>
+        <v>3.25</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1357,16 +1312,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>8.666666666666666</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>-0.3333333333333339</v>
+        <v>-1</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1374,16 +1329,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>8.333333333333334</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>0.3333333333333339</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1391,16 +1346,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>7.916666666666667</v>
-      </c>
-      <c r="D5">
-        <v>0.916666666666667</v>
-      </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1408,13 +1363,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>7.666666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="D6">
-        <v>2.666666666666667</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1425,16 +1380,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>7.333333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="D7">
-        <v>-1.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1442,16 +1397,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>7.333333333333333</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D8">
-        <v>-0.666666666666667</v>
+        <v>0.4166666666666665</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1459,16 +1414,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7.083333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D9">
-        <v>-1.916666666666667</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1476,16 +1431,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>7.083333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D10">
-        <v>0.08333333333333304</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1493,16 +1448,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>6.833333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D11">
-        <v>-0.166666666666667</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1510,16 +1465,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>4.25</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D12">
-        <v>0.25</v>
+        <v>0.08333333333333348</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1527,16 +1482,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1554,46 +1509,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1601,351 +1556,351 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>63.69</v>
+        <v>26.56</v>
       </c>
       <c r="C2">
-        <v>21.56</v>
+        <v>19.65</v>
       </c>
       <c r="D2">
-        <v>8.27</v>
+        <v>14.78</v>
       </c>
       <c r="E2">
-        <v>3.6</v>
+        <v>10.92</v>
       </c>
       <c r="F2">
-        <v>1.66</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="G2">
-        <v>0.8099999999999999</v>
+        <v>6.710000000000001</v>
       </c>
       <c r="H2">
-        <v>0.25</v>
+        <v>4.590000000000001</v>
       </c>
       <c r="I2">
-        <v>0.12</v>
+        <v>3.32</v>
       </c>
       <c r="J2">
-        <v>0.03</v>
+        <v>2.24</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="L2">
-        <v>0.01</v>
+        <v>0.73</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="N2">
-        <v>99.96000000000001</v>
+        <v>95.41</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>16.54</v>
+        <v>21.66</v>
       </c>
       <c r="C3">
-        <v>24.61</v>
+        <v>16.82</v>
       </c>
       <c r="D3">
-        <v>19.12</v>
+        <v>14.24</v>
       </c>
       <c r="E3">
-        <v>14.05</v>
+        <v>11.34</v>
       </c>
       <c r="F3">
-        <v>9.719999999999999</v>
+        <v>10.54</v>
       </c>
       <c r="G3">
-        <v>6.49</v>
+        <v>7.79</v>
       </c>
       <c r="H3">
-        <v>4.32</v>
+        <v>5.81</v>
       </c>
       <c r="I3">
-        <v>2.81</v>
+        <v>4.72</v>
       </c>
       <c r="J3">
-        <v>1.46</v>
+        <v>3.26</v>
       </c>
       <c r="K3">
-        <v>0.8</v>
+        <v>2.09</v>
       </c>
       <c r="L3">
-        <v>0.08</v>
+        <v>1.12</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="N3">
-        <v>97.66000000000001</v>
+        <v>92.92</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>8.76</v>
+        <v>13.69</v>
       </c>
       <c r="C4">
-        <v>16.26</v>
+        <v>14.41</v>
       </c>
       <c r="D4">
-        <v>16.56</v>
+        <v>13.15</v>
       </c>
       <c r="E4">
-        <v>14.46</v>
+        <v>11.61</v>
       </c>
       <c r="F4">
-        <v>12.56</v>
+        <v>10.54</v>
       </c>
       <c r="G4">
-        <v>9.969999999999999</v>
+        <v>8.83</v>
       </c>
       <c r="H4">
-        <v>8.07</v>
+        <v>7.6</v>
       </c>
       <c r="I4">
-        <v>5.82</v>
+        <v>7.23</v>
       </c>
       <c r="J4">
-        <v>4.94</v>
+        <v>4.93</v>
       </c>
       <c r="K4">
-        <v>2.36</v>
+        <v>4.16</v>
       </c>
       <c r="L4">
-        <v>0.24</v>
+        <v>2.56</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="N4">
-        <v>92.45999999999999</v>
+        <v>87.06</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>3.58</v>
+        <v>10.08</v>
       </c>
       <c r="C5">
-        <v>9.959999999999999</v>
+        <v>10.69</v>
       </c>
       <c r="D5">
-        <v>12.4</v>
+        <v>10.25</v>
       </c>
       <c r="E5">
-        <v>12.51</v>
+        <v>10.38</v>
       </c>
       <c r="F5">
-        <v>12.5</v>
+        <v>10.88</v>
       </c>
       <c r="G5">
-        <v>11.82</v>
+        <v>9.49</v>
       </c>
       <c r="H5">
-        <v>11.81</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="I5">
-        <v>9.56</v>
+        <v>8.32</v>
       </c>
       <c r="J5">
-        <v>8.690000000000001</v>
+        <v>7.37</v>
       </c>
       <c r="K5">
-        <v>6.1</v>
+        <v>6.239999999999999</v>
       </c>
       <c r="L5">
-        <v>1.07</v>
+        <v>4.47</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="N5">
-        <v>84.13999999999999</v>
+        <v>79.71000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>2.64</v>
+        <v>7.24</v>
       </c>
       <c r="C6">
-        <v>8.1</v>
+        <v>8.870000000000001</v>
       </c>
       <c r="D6">
-        <v>10.18</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="E6">
-        <v>11.91</v>
+        <v>10.63</v>
       </c>
       <c r="F6">
-        <v>12.03</v>
+        <v>10.19</v>
       </c>
       <c r="G6">
-        <v>12.99</v>
+        <v>9.41</v>
       </c>
       <c r="H6">
-        <v>11.37</v>
+        <v>10.14</v>
       </c>
       <c r="I6">
-        <v>11.3</v>
+        <v>8.870000000000001</v>
       </c>
       <c r="J6">
-        <v>9.84</v>
+        <v>8.44</v>
       </c>
       <c r="K6">
-        <v>8.09</v>
+        <v>7.79</v>
       </c>
       <c r="L6">
-        <v>1.55</v>
+        <v>6.16</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="N6">
-        <v>80.52</v>
+        <v>73.99000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1.65</v>
+        <v>6.88</v>
       </c>
       <c r="C7">
-        <v>5.21</v>
+        <v>8.459999999999999</v>
       </c>
       <c r="D7">
-        <v>8.42</v>
+        <v>9.19</v>
       </c>
       <c r="E7">
-        <v>9.869999999999999</v>
+        <v>10.53</v>
       </c>
       <c r="F7">
-        <v>11.25</v>
+        <v>9.98</v>
       </c>
       <c r="G7">
-        <v>11.84</v>
+        <v>9.94</v>
       </c>
       <c r="H7">
-        <v>12.8</v>
+        <v>9.84</v>
       </c>
       <c r="I7">
-        <v>12.73</v>
+        <v>8.92</v>
       </c>
       <c r="J7">
-        <v>12.57</v>
+        <v>8.790000000000001</v>
       </c>
       <c r="K7">
-        <v>10.96</v>
+        <v>7.649999999999999</v>
       </c>
       <c r="L7">
-        <v>2.68</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="M7">
-        <v>0.02</v>
+        <v>4.02</v>
       </c>
       <c r="N7">
-        <v>73.77000000000001</v>
+        <v>73.74000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>1.26</v>
+        <v>6.43</v>
       </c>
       <c r="C8">
-        <v>4.54</v>
+        <v>7.59</v>
       </c>
       <c r="D8">
-        <v>7.48</v>
+        <v>9.09</v>
       </c>
       <c r="E8">
-        <v>9.75</v>
+        <v>10.15</v>
       </c>
       <c r="F8">
-        <v>10.82</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="G8">
-        <v>11.79</v>
+        <v>10.02</v>
       </c>
       <c r="H8">
-        <v>12.23</v>
+        <v>9.91</v>
       </c>
       <c r="I8">
-        <v>13.1</v>
+        <v>9.77</v>
       </c>
       <c r="J8">
-        <v>13.2</v>
+        <v>8.58</v>
       </c>
       <c r="K8">
-        <v>12.09</v>
+        <v>7.430000000000001</v>
       </c>
       <c r="L8">
-        <v>3.68</v>
+        <v>6.77</v>
       </c>
       <c r="M8">
-        <v>0.06</v>
+        <v>4.73</v>
       </c>
       <c r="N8">
-        <v>70.97</v>
+        <v>72.49000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>0.83</v>
+        <v>2.4</v>
       </c>
       <c r="C9">
-        <v>3.65</v>
+        <v>4.03</v>
       </c>
       <c r="D9">
-        <v>6.69</v>
+        <v>6.04</v>
       </c>
       <c r="E9">
-        <v>8.81</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="F9">
-        <v>10.58</v>
+        <v>7.33</v>
       </c>
       <c r="G9">
-        <v>12.52</v>
+        <v>9.370000000000001</v>
       </c>
       <c r="H9">
-        <v>13.02</v>
+        <v>10.31</v>
       </c>
       <c r="I9">
-        <v>13.58</v>
+        <v>11.09</v>
       </c>
       <c r="J9">
-        <v>13.72</v>
+        <v>11.1</v>
       </c>
       <c r="K9">
-        <v>12.57</v>
+        <v>11.31</v>
       </c>
       <c r="L9">
-        <v>3.92</v>
+        <v>10.78</v>
       </c>
       <c r="M9">
-        <v>0.11</v>
+        <v>9.44</v>
       </c>
       <c r="N9">
-        <v>69.68000000000001</v>
+        <v>57.37</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1953,43 +1908,43 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.79</v>
+        <v>2.39</v>
       </c>
       <c r="C10">
-        <v>4.21</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="D10">
-        <v>6.660000000000001</v>
+        <v>6.16</v>
       </c>
       <c r="E10">
-        <v>8.77</v>
+        <v>6.75</v>
       </c>
       <c r="F10">
-        <v>10.41</v>
+        <v>7.88</v>
       </c>
       <c r="G10">
-        <v>11.12</v>
+        <v>9.33</v>
       </c>
       <c r="H10">
-        <v>12.48</v>
+        <v>10.19</v>
       </c>
       <c r="I10">
-        <v>13.9</v>
+        <v>10.67</v>
       </c>
       <c r="J10">
-        <v>14.25</v>
+        <v>11.17</v>
       </c>
       <c r="K10">
-        <v>13.34</v>
+        <v>11.47</v>
       </c>
       <c r="L10">
-        <v>4.03</v>
+        <v>10.79</v>
       </c>
       <c r="M10">
-        <v>0.04</v>
+        <v>9.1</v>
       </c>
       <c r="N10">
-        <v>68.34</v>
+        <v>57.47</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1997,131 +1952,131 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.26</v>
+        <v>1.79</v>
       </c>
       <c r="C11">
-        <v>1.9</v>
+        <v>3.42</v>
       </c>
       <c r="D11">
-        <v>4.21</v>
+        <v>4.65</v>
       </c>
       <c r="E11">
-        <v>6.15</v>
+        <v>5.510000000000001</v>
       </c>
       <c r="F11">
-        <v>8.27</v>
+        <v>6.27</v>
       </c>
       <c r="G11">
-        <v>10.07</v>
+        <v>8.4</v>
       </c>
       <c r="H11">
-        <v>12.57</v>
+        <v>9.15</v>
       </c>
       <c r="I11">
-        <v>14.77</v>
+        <v>9.719999999999999</v>
       </c>
       <c r="J11">
-        <v>16.19</v>
+        <v>12</v>
       </c>
       <c r="K11">
-        <v>17.78</v>
+        <v>12.83</v>
       </c>
       <c r="L11">
-        <v>7.69</v>
+        <v>13.84</v>
       </c>
       <c r="M11">
-        <v>0.14</v>
+        <v>12.42</v>
       </c>
       <c r="N11">
-        <v>58.2</v>
+        <v>48.91</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.7100000000000001</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="D12">
-        <v>0.01</v>
+        <v>3.1</v>
       </c>
       <c r="E12">
-        <v>0.12</v>
+        <v>4.2</v>
       </c>
       <c r="F12">
-        <v>0.2</v>
+        <v>5.850000000000001</v>
       </c>
       <c r="G12">
-        <v>0.58</v>
+        <v>7.42</v>
       </c>
       <c r="H12">
-        <v>1.08</v>
+        <v>8.52</v>
       </c>
       <c r="I12">
-        <v>2.31</v>
+        <v>11.35</v>
       </c>
       <c r="J12">
-        <v>5.11</v>
+        <v>12.64</v>
       </c>
       <c r="K12">
-        <v>15.73</v>
+        <v>13.88</v>
       </c>
       <c r="L12">
-        <v>66.32000000000001</v>
+        <v>15.42</v>
       </c>
       <c r="M12">
-        <v>8.540000000000001</v>
+        <v>15.24</v>
       </c>
       <c r="N12">
-        <v>4.3</v>
+        <v>42.82</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.7100000000000001</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6.02</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.48</v>
       </c>
       <c r="K13">
-        <v>0.18</v>
+        <v>13.8</v>
       </c>
       <c r="L13">
-        <v>8.73</v>
+        <v>21.56</v>
       </c>
       <c r="M13">
-        <v>91.09</v>
+        <v>37.05</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>18.11</v>
       </c>
     </row>
   </sheetData>
@@ -2139,16 +2094,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2156,16 +2111,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2173,16 +2128,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2190,16 +2145,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2207,16 +2162,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2224,16 +2179,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2241,16 +2196,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2258,16 +2213,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2275,16 +2230,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2292,16 +2247,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2309,16 +2264,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>-15</v>
+        <v>-6</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2326,16 +2281,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>-29</v>
+        <v>-7</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2343,16 +2298,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>-69</v>
+        <v>-9</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2362,657 +2317,306 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>-5</v>
-      </c>
-      <c r="C2">
-        <v>-2</v>
-      </c>
-      <c r="D2">
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-9</v>
+      </c>
+      <c r="D3">
+        <v>-8</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-4</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-      <c r="I2">
-        <v>16</v>
-      </c>
-      <c r="J2">
-        <v>11</v>
-      </c>
-      <c r="K2">
-        <v>20</v>
-      </c>
-      <c r="L2">
-        <v>27</v>
-      </c>
-      <c r="M2">
-        <v>29</v>
-      </c>
-      <c r="N2">
-        <v>36</v>
-      </c>
-      <c r="O2">
-        <v>42</v>
-      </c>
-      <c r="P2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>15</v>
-      </c>
-      <c r="I3">
-        <v>16</v>
-      </c>
-      <c r="J3">
-        <v>21</v>
-      </c>
-      <c r="K3">
-        <v>32</v>
-      </c>
-      <c r="L3">
-        <v>31</v>
-      </c>
-      <c r="M3">
-        <v>34</v>
-      </c>
-      <c r="N3">
-        <v>26</v>
-      </c>
-      <c r="O3">
-        <v>32</v>
-      </c>
-      <c r="P3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>23</v>
-      </c>
-      <c r="G4">
-        <v>27</v>
-      </c>
-      <c r="H4">
-        <v>19</v>
-      </c>
-      <c r="I4">
-        <v>22</v>
-      </c>
-      <c r="J4">
-        <v>27</v>
-      </c>
-      <c r="K4">
-        <v>26</v>
-      </c>
-      <c r="L4">
-        <v>23</v>
-      </c>
-      <c r="M4">
-        <v>22</v>
-      </c>
-      <c r="N4">
-        <v>24</v>
-      </c>
-      <c r="O4">
-        <v>28</v>
-      </c>
-      <c r="P4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>17</v>
-      </c>
-      <c r="G5">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>18</v>
-      </c>
-      <c r="I5">
-        <v>15</v>
-      </c>
-      <c r="J5">
-        <v>19</v>
-      </c>
-      <c r="K5">
-        <v>17</v>
-      </c>
-      <c r="L5">
-        <v>16</v>
-      </c>
-      <c r="M5">
-        <v>15</v>
-      </c>
-      <c r="N5">
-        <v>20</v>
-      </c>
-      <c r="O5">
-        <v>23</v>
-      </c>
-      <c r="P5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B6">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>13</v>
-      </c>
-      <c r="H6">
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <v>23</v>
-      </c>
-      <c r="J6">
-        <v>26</v>
-      </c>
-      <c r="K6">
-        <v>18</v>
-      </c>
-      <c r="L6">
-        <v>13</v>
-      </c>
-      <c r="M6">
-        <v>14</v>
-      </c>
-      <c r="N6">
-        <v>14</v>
-      </c>
-      <c r="O6">
-        <v>18</v>
-      </c>
-      <c r="P6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-11</v>
+      </c>
+      <c r="D8">
+        <v>-15</v>
+      </c>
+      <c r="E8">
+        <v>-5</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>4</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>-1</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
+      <c r="B9">
         <v>1</v>
-      </c>
-      <c r="P7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>-5</v>
-      </c>
-      <c r="I8">
-        <v>-9</v>
-      </c>
-      <c r="J8">
-        <v>-16</v>
-      </c>
-      <c r="K8">
-        <v>-14</v>
-      </c>
-      <c r="L8">
-        <v>-11</v>
-      </c>
-      <c r="M8">
-        <v>-10</v>
-      </c>
-      <c r="N8">
-        <v>-6</v>
-      </c>
-      <c r="O8">
-        <v>-9</v>
-      </c>
-      <c r="P8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>-2</v>
-      </c>
-      <c r="J9">
-        <v>-10</v>
-      </c>
-      <c r="K9">
-        <v>-13</v>
-      </c>
-      <c r="L9">
-        <v>-14</v>
-      </c>
-      <c r="M9">
-        <v>-10</v>
-      </c>
-      <c r="N9">
-        <v>-7</v>
-      </c>
-      <c r="O9">
-        <v>-11</v>
-      </c>
-      <c r="P9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>-5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
+        <v>-3</v>
+      </c>
+      <c r="D10">
+        <v>-4</v>
+      </c>
+      <c r="E10">
+        <v>-10</v>
+      </c>
+      <c r="F10">
+        <v>-5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>-3</v>
+      </c>
+      <c r="F11">
         <v>-6</v>
       </c>
-      <c r="D10">
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>-5</v>
+      </c>
+      <c r="C12">
+        <v>-2</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>-7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>-9</v>
       </c>
-      <c r="E10">
-        <v>-4</v>
-      </c>
-      <c r="F10">
-        <v>-11</v>
-      </c>
-      <c r="G10">
-        <v>-12</v>
-      </c>
-      <c r="H10">
-        <v>-11</v>
-      </c>
-      <c r="I10">
-        <v>-15</v>
-      </c>
-      <c r="J10">
-        <v>-8</v>
-      </c>
-      <c r="K10">
-        <v>-8</v>
-      </c>
-      <c r="L10">
-        <v>-3</v>
-      </c>
-      <c r="M10">
-        <v>-7</v>
-      </c>
-      <c r="N10">
-        <v>-9</v>
-      </c>
-      <c r="O10">
-        <v>-11</v>
-      </c>
-      <c r="P10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>-7</v>
-      </c>
-      <c r="C11">
-        <v>-16</v>
-      </c>
-      <c r="D11">
-        <v>-25</v>
-      </c>
-      <c r="E11">
-        <v>-29</v>
-      </c>
-      <c r="F11">
-        <v>-19</v>
-      </c>
-      <c r="G11">
-        <v>-20</v>
-      </c>
-      <c r="H11">
-        <v>-17</v>
-      </c>
-      <c r="I11">
-        <v>-19</v>
-      </c>
-      <c r="J11">
-        <v>-16</v>
-      </c>
-      <c r="K11">
-        <v>-14</v>
-      </c>
-      <c r="L11">
-        <v>-13</v>
-      </c>
-      <c r="M11">
-        <v>-12</v>
-      </c>
-      <c r="N11">
-        <v>-10</v>
-      </c>
-      <c r="O11">
-        <v>-15</v>
-      </c>
-      <c r="P11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>-11</v>
-      </c>
-      <c r="C12">
-        <v>-11</v>
-      </c>
-      <c r="D12">
-        <v>-18</v>
-      </c>
-      <c r="E12">
-        <v>-22</v>
-      </c>
-      <c r="F12">
-        <v>-22</v>
-      </c>
-      <c r="G12">
-        <v>-19</v>
-      </c>
-      <c r="H12">
-        <v>-16</v>
-      </c>
-      <c r="I12">
-        <v>-17</v>
-      </c>
-      <c r="J12">
-        <v>-15</v>
-      </c>
-      <c r="K12">
-        <v>-21</v>
-      </c>
-      <c r="L12">
-        <v>-20</v>
-      </c>
-      <c r="M12">
-        <v>-19</v>
-      </c>
-      <c r="N12">
-        <v>-23</v>
-      </c>
-      <c r="O12">
-        <v>-29</v>
-      </c>
-      <c r="P12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>-9</v>
-      </c>
-      <c r="C13">
-        <v>-20</v>
-      </c>
-      <c r="D13">
-        <v>-20</v>
-      </c>
-      <c r="E13">
-        <v>-20</v>
-      </c>
-      <c r="F13">
-        <v>-24</v>
-      </c>
-      <c r="G13">
-        <v>-31</v>
-      </c>
-      <c r="H13">
-        <v>-31</v>
-      </c>
-      <c r="I13">
-        <v>-33</v>
-      </c>
-      <c r="J13">
-        <v>-43</v>
-      </c>
-      <c r="K13">
-        <v>-47</v>
-      </c>
-      <c r="L13">
-        <v>-54</v>
-      </c>
-      <c r="M13">
-        <v>-55</v>
-      </c>
-      <c r="N13">
-        <v>-65</v>
-      </c>
-      <c r="O13">
-        <v>-69</v>
-      </c>
-      <c r="P13" t="s">
-        <v>50</v>
+      <c r="G13" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="54">
   <si>
     <t>Lockett inma pockett</t>
   </si>
@@ -57,22 +57,22 @@
     <t>DadBods 69ers</t>
   </si>
   <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
-  </si>
-  <si>
-    <t>5-0-0</t>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
+  </si>
+  <si>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>6-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -138,33 +138,33 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑5</t>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑4</t>
+    <t>↓6</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓10</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
 </sst>
 </file>
@@ -587,37 +590,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -625,16 +628,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -646,19 +649,19 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -666,40 +669,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -707,40 +710,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -748,16 +751,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -766,19 +769,19 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
@@ -789,40 +792,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -830,40 +833,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -871,16 +874,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -892,19 +895,19 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -912,40 +915,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -956,37 +959,37 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -994,13 +997,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -1012,19 +1015,19 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
         <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -1035,40 +1038,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
         <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1100,13 +1103,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>1.916666666666667</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1114,13 +1117,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>2.083333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1128,13 +1131,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.166666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1142,10 +1145,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2.333333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1156,13 +1159,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2.416666666666667</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1170,13 +1173,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>2.5</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1184,10 +1187,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>2.583333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1201,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>2.666666666666667</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1212,13 +1215,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>2.666666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1226,13 +1229,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1240,13 +1243,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>2.916666666666667</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1257,10 +1260,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1295,13 +1298,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>3.25</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D2">
-        <v>1.25</v>
+        <v>-0.3333333333333335</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1312,16 +1315,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1329,16 +1332,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1346,13 +1349,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.4166666666666665</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -1363,16 +1366,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>2.75</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D6">
-        <v>-0.25</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1380,13 +1383,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1397,16 +1400,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>2.416666666666667</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D8">
-        <v>0.4166666666666665</v>
+        <v>0.08333333333333348</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1414,16 +1417,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>2.166666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="D9">
-        <v>-0.8333333333333335</v>
+        <v>-1.25</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1431,16 +1434,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>2.166666666666667</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D10">
-        <v>-0.8333333333333335</v>
+        <v>0.5833333333333335</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1448,16 +1451,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2.166666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D11">
-        <v>0.1666666666666665</v>
+        <v>0.3333333333333335</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1465,16 +1468,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>2.083333333333333</v>
+        <v>2.25</v>
       </c>
       <c r="D12">
-        <v>0.08333333333333348</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1482,16 +1485,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1.5</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1553,134 +1556,134 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>26.56</v>
+        <v>19.13</v>
       </c>
       <c r="C2">
-        <v>19.65</v>
+        <v>15.63</v>
       </c>
       <c r="D2">
-        <v>14.78</v>
+        <v>12.85</v>
       </c>
       <c r="E2">
-        <v>10.92</v>
+        <v>10.76</v>
       </c>
       <c r="F2">
-        <v>8.880000000000001</v>
+        <v>9.99</v>
       </c>
       <c r="G2">
-        <v>6.710000000000001</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="H2">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="I2">
+        <v>5.53</v>
+      </c>
+      <c r="J2">
         <v>4.590000000000001</v>
       </c>
-      <c r="I2">
-        <v>3.32</v>
-      </c>
-      <c r="J2">
-        <v>2.24</v>
-      </c>
       <c r="K2">
-        <v>1.35</v>
+        <v>3.08</v>
       </c>
       <c r="L2">
-        <v>0.73</v>
+        <v>2.15</v>
       </c>
       <c r="M2">
-        <v>0.27</v>
+        <v>1.04</v>
       </c>
       <c r="N2">
-        <v>95.41</v>
+        <v>89.14</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>21.66</v>
+        <v>17.88</v>
       </c>
       <c r="C3">
-        <v>16.82</v>
+        <v>15.32</v>
       </c>
       <c r="D3">
-        <v>14.24</v>
+        <v>13.26</v>
       </c>
       <c r="E3">
-        <v>11.34</v>
+        <v>11.32</v>
       </c>
       <c r="F3">
-        <v>10.54</v>
+        <v>10.39</v>
       </c>
       <c r="G3">
-        <v>7.79</v>
+        <v>8.81</v>
       </c>
       <c r="H3">
-        <v>5.81</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="I3">
-        <v>4.72</v>
+        <v>6.069999999999999</v>
       </c>
       <c r="J3">
-        <v>3.26</v>
+        <v>4.14</v>
       </c>
       <c r="K3">
-        <v>2.09</v>
+        <v>3.31</v>
       </c>
       <c r="L3">
-        <v>1.12</v>
+        <v>1.72</v>
       </c>
       <c r="M3">
-        <v>0.61</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="N3">
-        <v>92.92</v>
+        <v>89.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>13.69</v>
+        <v>17.4</v>
       </c>
       <c r="C4">
-        <v>14.41</v>
+        <v>15.83</v>
       </c>
       <c r="D4">
-        <v>13.15</v>
+        <v>14.72</v>
       </c>
       <c r="E4">
-        <v>11.61</v>
+        <v>12.73</v>
       </c>
       <c r="F4">
-        <v>10.54</v>
+        <v>10.21</v>
       </c>
       <c r="G4">
-        <v>8.83</v>
+        <v>8.43</v>
       </c>
       <c r="H4">
-        <v>7.6</v>
+        <v>6.140000000000001</v>
       </c>
       <c r="I4">
-        <v>7.23</v>
+        <v>5.76</v>
       </c>
       <c r="J4">
-        <v>4.93</v>
+        <v>4.08</v>
       </c>
       <c r="K4">
-        <v>4.16</v>
+        <v>2.55</v>
       </c>
       <c r="L4">
-        <v>2.56</v>
+        <v>1.63</v>
       </c>
       <c r="M4">
-        <v>1.29</v>
+        <v>0.52</v>
       </c>
       <c r="N4">
-        <v>87.06</v>
+        <v>91.22</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1688,87 +1691,87 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>10.08</v>
+        <v>14.24</v>
       </c>
       <c r="C5">
-        <v>10.69</v>
+        <v>13.33</v>
       </c>
       <c r="D5">
-        <v>10.25</v>
+        <v>12.78</v>
       </c>
       <c r="E5">
-        <v>10.38</v>
+        <v>11.06</v>
       </c>
       <c r="F5">
-        <v>10.88</v>
+        <v>10.37</v>
       </c>
       <c r="G5">
-        <v>9.49</v>
+        <v>9.51</v>
       </c>
       <c r="H5">
-        <v>9.619999999999999</v>
+        <v>8.01</v>
       </c>
       <c r="I5">
-        <v>8.32</v>
+        <v>7.13</v>
       </c>
       <c r="J5">
-        <v>7.37</v>
+        <v>5.18</v>
       </c>
       <c r="K5">
-        <v>6.239999999999999</v>
+        <v>4.06</v>
       </c>
       <c r="L5">
-        <v>4.47</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>2.21</v>
+        <v>1.33</v>
       </c>
       <c r="N5">
-        <v>79.71000000000001</v>
+        <v>86.42999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>7.24</v>
+        <v>8.42</v>
       </c>
       <c r="C6">
-        <v>8.870000000000001</v>
+        <v>9.25</v>
       </c>
       <c r="D6">
-        <v>8.640000000000001</v>
+        <v>10.17</v>
       </c>
       <c r="E6">
-        <v>10.63</v>
+        <v>10.01</v>
       </c>
       <c r="F6">
-        <v>10.19</v>
+        <v>9.959999999999999</v>
       </c>
       <c r="G6">
-        <v>9.41</v>
+        <v>9.120000000000001</v>
       </c>
       <c r="H6">
-        <v>10.14</v>
+        <v>10.27</v>
       </c>
       <c r="I6">
-        <v>8.870000000000001</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="J6">
-        <v>8.44</v>
+        <v>7.86</v>
       </c>
       <c r="K6">
-        <v>7.79</v>
+        <v>6.88</v>
       </c>
       <c r="L6">
-        <v>6.16</v>
+        <v>5.53</v>
       </c>
       <c r="M6">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="N6">
-        <v>73.99000000000001</v>
+        <v>76.08</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1776,43 +1779,43 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>6.88</v>
+        <v>6.64</v>
       </c>
       <c r="C7">
-        <v>8.459999999999999</v>
+        <v>7.12</v>
       </c>
       <c r="D7">
-        <v>9.19</v>
+        <v>8.110000000000001</v>
       </c>
       <c r="E7">
-        <v>10.53</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="F7">
-        <v>9.98</v>
+        <v>9.370000000000001</v>
       </c>
       <c r="G7">
-        <v>9.94</v>
+        <v>10.12</v>
       </c>
       <c r="H7">
-        <v>9.84</v>
+        <v>9.719999999999999</v>
       </c>
       <c r="I7">
-        <v>8.92</v>
+        <v>9.180000000000001</v>
       </c>
       <c r="J7">
-        <v>8.790000000000001</v>
+        <v>9.48</v>
       </c>
       <c r="K7">
-        <v>7.649999999999999</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="L7">
-        <v>5.800000000000001</v>
+        <v>7.46</v>
       </c>
       <c r="M7">
-        <v>4.02</v>
+        <v>5.609999999999999</v>
       </c>
       <c r="N7">
-        <v>73.74000000000001</v>
+        <v>68.90000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1820,87 +1823,87 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>6.43</v>
+        <v>6.5</v>
       </c>
       <c r="C8">
-        <v>7.59</v>
+        <v>8.15</v>
       </c>
       <c r="D8">
-        <v>9.09</v>
+        <v>8.1</v>
       </c>
       <c r="E8">
-        <v>10.15</v>
+        <v>9.56</v>
       </c>
       <c r="F8">
-        <v>9.529999999999999</v>
+        <v>9.229999999999999</v>
       </c>
       <c r="G8">
-        <v>10.02</v>
+        <v>9.83</v>
       </c>
       <c r="H8">
-        <v>9.91</v>
+        <v>9.92</v>
       </c>
       <c r="I8">
-        <v>9.77</v>
+        <v>8.85</v>
       </c>
       <c r="J8">
-        <v>8.58</v>
+        <v>9.41</v>
       </c>
       <c r="K8">
-        <v>7.430000000000001</v>
+        <v>8.35</v>
       </c>
       <c r="L8">
-        <v>6.77</v>
+        <v>7.28</v>
       </c>
       <c r="M8">
-        <v>4.73</v>
+        <v>4.82</v>
       </c>
       <c r="N8">
-        <v>72.49000000000001</v>
+        <v>70.14</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>2.4</v>
+        <v>4.83</v>
       </c>
       <c r="C9">
-        <v>4.03</v>
+        <v>6.36</v>
       </c>
       <c r="D9">
-        <v>6.04</v>
+        <v>7.66</v>
       </c>
       <c r="E9">
-        <v>6.800000000000001</v>
+        <v>8.94</v>
       </c>
       <c r="F9">
-        <v>7.33</v>
+        <v>9.379999999999999</v>
       </c>
       <c r="G9">
-        <v>9.370000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="H9">
-        <v>10.31</v>
+        <v>9.51</v>
       </c>
       <c r="I9">
-        <v>11.09</v>
+        <v>10.5</v>
       </c>
       <c r="J9">
-        <v>11.1</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="K9">
-        <v>11.31</v>
+        <v>9.27</v>
       </c>
       <c r="L9">
-        <v>10.78</v>
+        <v>7.94</v>
       </c>
       <c r="M9">
-        <v>9.44</v>
+        <v>6.23</v>
       </c>
       <c r="N9">
-        <v>57.37</v>
+        <v>67.04000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1908,175 +1911,175 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.39</v>
+        <v>2.9</v>
       </c>
       <c r="C10">
-        <v>4.100000000000001</v>
+        <v>4.93</v>
       </c>
       <c r="D10">
-        <v>6.16</v>
+        <v>5.84</v>
       </c>
       <c r="E10">
-        <v>6.75</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="F10">
-        <v>7.88</v>
+        <v>8.1</v>
       </c>
       <c r="G10">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="H10">
         <v>9.33</v>
       </c>
-      <c r="H10">
-        <v>10.19</v>
-      </c>
       <c r="I10">
-        <v>10.67</v>
+        <v>10.59</v>
       </c>
       <c r="J10">
-        <v>11.17</v>
+        <v>10.43</v>
       </c>
       <c r="K10">
-        <v>11.47</v>
+        <v>10.88</v>
       </c>
       <c r="L10">
-        <v>10.79</v>
+        <v>10.32</v>
       </c>
       <c r="M10">
-        <v>9.1</v>
+        <v>10.07</v>
       </c>
       <c r="N10">
-        <v>57.47</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>1.79</v>
+        <v>1.17</v>
       </c>
       <c r="C11">
-        <v>3.42</v>
+        <v>2.06</v>
       </c>
       <c r="D11">
-        <v>4.65</v>
+        <v>3.27</v>
       </c>
       <c r="E11">
-        <v>5.510000000000001</v>
+        <v>4.63</v>
       </c>
       <c r="F11">
-        <v>6.27</v>
+        <v>6.35</v>
       </c>
       <c r="G11">
-        <v>8.4</v>
+        <v>7.77</v>
       </c>
       <c r="H11">
-        <v>9.15</v>
+        <v>9.77</v>
       </c>
       <c r="I11">
-        <v>9.719999999999999</v>
+        <v>9.959999999999999</v>
       </c>
       <c r="J11">
-        <v>12</v>
+        <v>12.84</v>
       </c>
       <c r="K11">
-        <v>12.83</v>
+        <v>13.6</v>
       </c>
       <c r="L11">
-        <v>13.84</v>
+        <v>14.81</v>
       </c>
       <c r="M11">
-        <v>12.42</v>
+        <v>13.77</v>
       </c>
       <c r="N11">
-        <v>48.91</v>
+        <v>44.98</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>0.7100000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="C12">
-        <v>1.67</v>
+        <v>1.13</v>
       </c>
       <c r="D12">
-        <v>3.1</v>
+        <v>1.74</v>
       </c>
       <c r="E12">
-        <v>4.2</v>
+        <v>2.63</v>
       </c>
       <c r="F12">
-        <v>5.850000000000001</v>
+        <v>3.45</v>
       </c>
       <c r="G12">
-        <v>7.42</v>
+        <v>4.7</v>
       </c>
       <c r="H12">
-        <v>8.52</v>
+        <v>6.279999999999999</v>
       </c>
       <c r="I12">
-        <v>11.35</v>
+        <v>8.24</v>
       </c>
       <c r="J12">
-        <v>12.64</v>
+        <v>10.73</v>
       </c>
       <c r="K12">
-        <v>13.88</v>
+        <v>14.23</v>
       </c>
       <c r="L12">
-        <v>15.42</v>
+        <v>18.56</v>
       </c>
       <c r="M12">
-        <v>15.24</v>
+        <v>27.78</v>
       </c>
       <c r="N12">
-        <v>42.82</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>0.17</v>
+        <v>0.36</v>
       </c>
       <c r="C13">
-        <v>0.29</v>
+        <v>0.89</v>
       </c>
       <c r="D13">
-        <v>0.7100000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="E13">
-        <v>1.18</v>
+        <v>2.32</v>
       </c>
       <c r="F13">
-        <v>2.13</v>
+        <v>3.2</v>
       </c>
       <c r="G13">
-        <v>3.29</v>
+        <v>4.590000000000001</v>
       </c>
       <c r="H13">
-        <v>4.32</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="I13">
-        <v>6.02</v>
+        <v>9.31</v>
       </c>
       <c r="J13">
-        <v>9.48</v>
+        <v>11.74</v>
       </c>
       <c r="K13">
-        <v>13.8</v>
+        <v>15.24</v>
       </c>
       <c r="L13">
-        <v>21.56</v>
+        <v>19.6</v>
       </c>
       <c r="M13">
-        <v>37.05</v>
+        <v>24.25</v>
       </c>
       <c r="N13">
-        <v>18.11</v>
+        <v>29.17</v>
       </c>
     </row>
   </sheetData>
@@ -2114,10 +2117,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -2128,16 +2131,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2145,16 +2148,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2162,16 +2165,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2179,16 +2182,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2196,16 +2199,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2213,16 +2216,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2230,16 +2233,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2256,7 +2259,7 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2267,13 +2270,13 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2284,13 +2287,13 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2301,13 +2304,13 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2317,13 +2320,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,10 +2343,13 @@
         <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2362,172 +2368,196 @@
       <c r="F2">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>-1</v>
       </c>
       <c r="C3">
+        <v>-11</v>
+      </c>
+      <c r="D3">
+        <v>-15</v>
+      </c>
+      <c r="E3">
+        <v>-5</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>-3</v>
+      </c>
+      <c r="E4">
+        <v>-4</v>
+      </c>
+      <c r="F4">
+        <v>-5</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
         <v>-9</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>-8</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F5">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-4</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>-3</v>
+      </c>
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>-4</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="G9">
         <v>-3</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8">
-        <v>-11</v>
-      </c>
-      <c r="D8">
-        <v>-15</v>
-      </c>
-      <c r="E8">
-        <v>-5</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>-3</v>
-      </c>
-      <c r="E9">
-        <v>-4</v>
-      </c>
-      <c r="F9">
-        <v>-5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2546,11 +2576,14 @@
       <c r="F10">
         <v>-5</v>
       </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10">
+        <v>-5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2569,11 +2602,14 @@
       <c r="F11">
         <v>-6</v>
       </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11">
+        <v>-8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2592,11 +2628,14 @@
       <c r="F12">
         <v>-7</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12">
+        <v>-8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -2615,8 +2654,11 @@
       <c r="F13">
         <v>-9</v>
       </c>
-      <c r="G13" t="s">
-        <v>47</v>
+      <c r="G13">
+        <v>-13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -19,15 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="54">
-  <si>
-    <t>Lockett inma pockett</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="56">
+  <si>
+    <t>CHUBBER</t>
   </si>
   <si>
     <t>For Me To Poop On</t>
   </si>
   <si>
-    <t>Sweet Dee’Fence</t>
+    <t>Ball Too Well (Diana's Version)</t>
   </si>
   <si>
     <t>Numb Nutz</t>
@@ -36,19 +36,19 @@
     <t>Team Janstrong</t>
   </si>
   <si>
-    <t>Wallingford  Wild Hormones</t>
+    <t>Waverly Wild Hormones</t>
   </si>
   <si>
     <t>Team Musty</t>
   </si>
   <si>
-    <t>Villanova Uncle NUTZ</t>
+    <t>Deez Uncle NUTZ</t>
   </si>
   <si>
     <t>Your Mom</t>
   </si>
   <si>
-    <t>Kuppcakes  .</t>
+    <t>The Adams Family</t>
   </si>
   <si>
     <t>Golden Receivers</t>
@@ -57,22 +57,22 @@
     <t>DadBods 69ers</t>
   </si>
   <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -138,33 +138,36 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑2</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓5</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -181,6 +184,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
 </sst>
 </file>
@@ -590,37 +596,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -628,37 +634,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
         <v>12</v>
@@ -669,40 +675,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
         <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -710,40 +716,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -751,40 +757,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
-      </c>
       <c r="L6" t="s">
         <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -792,40 +798,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -833,40 +839,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -874,40 +880,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -915,40 +921,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
       <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
+      <c r="M10" t="s">
         <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -959,37 +965,37 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -997,40 +1003,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1038,40 +1044,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
       <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" t="s">
-        <v>13</v>
       </c>
       <c r="K13" t="s">
         <v>17</v>
       </c>
       <c r="L13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" t="s">
         <v>14</v>
-      </c>
-      <c r="M13" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1106,10 +1112,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2.583333333333333</v>
+        <v>2.75</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1120,7 +1126,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2.666666666666667</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1131,13 +1137,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>2.75</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1145,13 +1151,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>2.833333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1159,10 +1165,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.833333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1173,10 +1179,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>2.916666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1187,13 +1193,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>2.916666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1201,13 +1207,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>3.083333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1215,13 +1221,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1229,13 +1235,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1243,13 +1249,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>3.416666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1260,10 +1266,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1301,13 +1307,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>3.666666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="D2">
-        <v>-0.3333333333333335</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1318,13 +1324,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>3.666666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D3">
-        <v>0.6666666666666665</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1332,16 +1338,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D4">
-        <v>-0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1349,16 +1355,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>3.416666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D5">
-        <v>0.4166666666666665</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1366,13 +1372,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>3.333333333333333</v>
+        <v>3.75</v>
       </c>
       <c r="D6">
-        <v>1.333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1383,16 +1389,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>3.25</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D7">
-        <v>-0.75</v>
+        <v>-0.4166666666666665</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1400,16 +1406,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>3.083333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="D8">
-        <v>0.08333333333333348</v>
+        <v>-0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1420,13 +1426,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="D9">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1437,10 +1443,10 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>2.583333333333333</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D10">
-        <v>0.5833333333333335</v>
+        <v>0.08333333333333348</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1454,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.333333333333333</v>
+        <v>2.75</v>
       </c>
       <c r="D11">
-        <v>0.3333333333333335</v>
+        <v>-0.25</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1468,13 +1474,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>2.25</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D12">
-        <v>0.25</v>
+        <v>-0.6666666666666665</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1485,16 +1491,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>2.166666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="D13">
-        <v>-0.8333333333333335</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1556,310 +1562,310 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>19.13</v>
+        <v>26.87</v>
       </c>
       <c r="C2">
-        <v>15.63</v>
+        <v>19.69</v>
       </c>
       <c r="D2">
-        <v>12.85</v>
+        <v>14.61</v>
       </c>
       <c r="E2">
-        <v>10.76</v>
+        <v>11.71</v>
       </c>
       <c r="F2">
-        <v>9.99</v>
+        <v>9.08</v>
       </c>
       <c r="G2">
-        <v>8.050000000000001</v>
+        <v>6.45</v>
       </c>
       <c r="H2">
-        <v>7.199999999999999</v>
+        <v>4.72</v>
       </c>
       <c r="I2">
-        <v>5.53</v>
+        <v>3.46</v>
       </c>
       <c r="J2">
-        <v>4.590000000000001</v>
+        <v>2.06</v>
       </c>
       <c r="K2">
-        <v>3.08</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="L2">
-        <v>2.15</v>
+        <v>0.34</v>
       </c>
       <c r="M2">
-        <v>1.04</v>
+        <v>0.08</v>
       </c>
       <c r="N2">
-        <v>89.14</v>
+        <v>96.59</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>17.88</v>
+        <v>17.59</v>
       </c>
       <c r="C3">
-        <v>15.32</v>
+        <v>15.55</v>
       </c>
       <c r="D3">
-        <v>13.26</v>
+        <v>13.52</v>
       </c>
       <c r="E3">
-        <v>11.32</v>
+        <v>11.62</v>
       </c>
       <c r="F3">
-        <v>10.39</v>
+        <v>10.75</v>
       </c>
       <c r="G3">
-        <v>8.81</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="H3">
-        <v>6.850000000000001</v>
+        <v>7.59</v>
       </c>
       <c r="I3">
-        <v>6.069999999999999</v>
+        <v>5.79</v>
       </c>
       <c r="J3">
-        <v>4.14</v>
+        <v>3.99</v>
       </c>
       <c r="K3">
-        <v>3.31</v>
+        <v>2.6</v>
       </c>
       <c r="L3">
-        <v>1.72</v>
+        <v>1.27</v>
       </c>
       <c r="M3">
-        <v>0.9299999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="N3">
-        <v>89.90000000000001</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>17.4</v>
+        <v>16.32</v>
       </c>
       <c r="C4">
-        <v>15.83</v>
+        <v>15.01</v>
       </c>
       <c r="D4">
-        <v>14.72</v>
+        <v>13.36</v>
       </c>
       <c r="E4">
-        <v>12.73</v>
+        <v>11.39</v>
       </c>
       <c r="F4">
-        <v>10.21</v>
+        <v>11.01</v>
       </c>
       <c r="G4">
-        <v>8.43</v>
+        <v>9.32</v>
       </c>
       <c r="H4">
-        <v>6.140000000000001</v>
+        <v>7.82</v>
       </c>
       <c r="I4">
-        <v>5.76</v>
+        <v>6.35</v>
       </c>
       <c r="J4">
-        <v>4.08</v>
+        <v>4.25</v>
       </c>
       <c r="K4">
-        <v>2.55</v>
+        <v>2.89</v>
       </c>
       <c r="L4">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="M4">
-        <v>0.52</v>
+        <v>0.64</v>
       </c>
       <c r="N4">
-        <v>91.22</v>
+        <v>90.58</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>14.24</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="C5">
-        <v>13.33</v>
+        <v>11.49</v>
       </c>
       <c r="D5">
-        <v>12.78</v>
+        <v>12.28</v>
       </c>
       <c r="E5">
-        <v>11.06</v>
+        <v>12.45</v>
       </c>
       <c r="F5">
-        <v>10.37</v>
+        <v>11.67</v>
       </c>
       <c r="G5">
-        <v>9.51</v>
+        <v>10.87</v>
       </c>
       <c r="H5">
-        <v>8.01</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="I5">
-        <v>7.13</v>
+        <v>8.73</v>
       </c>
       <c r="J5">
-        <v>5.18</v>
+        <v>6.29</v>
       </c>
       <c r="K5">
-        <v>4.06</v>
+        <v>3.85</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>2.16</v>
       </c>
       <c r="M5">
-        <v>1.33</v>
+        <v>1.04</v>
       </c>
       <c r="N5">
-        <v>86.42999999999999</v>
+        <v>86.66</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>8.42</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="C6">
-        <v>9.25</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D6">
-        <v>10.17</v>
+        <v>10.15</v>
       </c>
       <c r="E6">
-        <v>10.01</v>
+        <v>10.43</v>
       </c>
       <c r="F6">
-        <v>9.959999999999999</v>
+        <v>11.01</v>
       </c>
       <c r="G6">
-        <v>9.120000000000001</v>
+        <v>10.16</v>
       </c>
       <c r="H6">
         <v>10.27</v>
       </c>
       <c r="I6">
-        <v>8.880000000000001</v>
+        <v>9.370000000000001</v>
       </c>
       <c r="J6">
-        <v>7.86</v>
+        <v>8.19</v>
       </c>
       <c r="K6">
-        <v>6.88</v>
+        <v>6.260000000000001</v>
       </c>
       <c r="L6">
-        <v>5.53</v>
+        <v>3.99</v>
       </c>
       <c r="M6">
-        <v>3.65</v>
+        <v>2.32</v>
       </c>
       <c r="N6">
-        <v>76.08</v>
+        <v>79.24000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>6.64</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="C7">
-        <v>7.12</v>
+        <v>9.370000000000001</v>
       </c>
       <c r="D7">
-        <v>8.110000000000001</v>
+        <v>10.11</v>
       </c>
       <c r="E7">
-        <v>8.640000000000001</v>
+        <v>10.89</v>
       </c>
       <c r="F7">
-        <v>9.370000000000001</v>
+        <v>11.23</v>
       </c>
       <c r="G7">
-        <v>10.12</v>
+        <v>10.32</v>
       </c>
       <c r="H7">
-        <v>9.719999999999999</v>
+        <v>10.66</v>
       </c>
       <c r="I7">
-        <v>9.180000000000001</v>
+        <v>9.030000000000001</v>
       </c>
       <c r="J7">
-        <v>9.48</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="K7">
-        <v>8.550000000000001</v>
+        <v>6.13</v>
       </c>
       <c r="L7">
-        <v>7.46</v>
+        <v>4.02</v>
       </c>
       <c r="M7">
-        <v>5.609999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="N7">
-        <v>68.90000000000001</v>
+        <v>79.81</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>6.5</v>
+        <v>6.92</v>
       </c>
       <c r="C8">
-        <v>8.15</v>
+        <v>8.4</v>
       </c>
       <c r="D8">
-        <v>8.1</v>
+        <v>9.84</v>
       </c>
       <c r="E8">
-        <v>9.56</v>
+        <v>10.54</v>
       </c>
       <c r="F8">
-        <v>9.229999999999999</v>
+        <v>10.11</v>
       </c>
       <c r="G8">
-        <v>9.83</v>
+        <v>10.57</v>
       </c>
       <c r="H8">
-        <v>9.92</v>
+        <v>10.19</v>
       </c>
       <c r="I8">
-        <v>8.85</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="J8">
-        <v>9.41</v>
+        <v>8.690000000000001</v>
       </c>
       <c r="K8">
-        <v>8.35</v>
+        <v>7.04</v>
       </c>
       <c r="L8">
-        <v>7.28</v>
+        <v>5.1</v>
       </c>
       <c r="M8">
-        <v>4.82</v>
+        <v>3.08</v>
       </c>
       <c r="N8">
-        <v>70.14</v>
+        <v>76.09</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1867,43 +1873,43 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>4.83</v>
+        <v>3.28</v>
       </c>
       <c r="C9">
-        <v>6.36</v>
+        <v>5.16</v>
       </c>
       <c r="D9">
-        <v>7.66</v>
+        <v>6.83</v>
       </c>
       <c r="E9">
-        <v>8.94</v>
+        <v>8.51</v>
       </c>
       <c r="F9">
-        <v>9.379999999999999</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="G9">
-        <v>9.859999999999999</v>
+        <v>10.16</v>
       </c>
       <c r="H9">
-        <v>9.51</v>
+        <v>10.6</v>
       </c>
       <c r="I9">
-        <v>10.5</v>
+        <v>10.78</v>
       </c>
       <c r="J9">
-        <v>9.520000000000001</v>
+        <v>11.37</v>
       </c>
       <c r="K9">
-        <v>9.27</v>
+        <v>10.54</v>
       </c>
       <c r="L9">
-        <v>7.94</v>
+        <v>8.459999999999999</v>
       </c>
       <c r="M9">
-        <v>6.23</v>
+        <v>5.45</v>
       </c>
       <c r="N9">
-        <v>67.04000000000001</v>
+        <v>64.18000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1911,43 +1917,43 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="C10">
-        <v>4.93</v>
+        <v>3.92</v>
       </c>
       <c r="D10">
-        <v>5.84</v>
+        <v>5.94</v>
       </c>
       <c r="E10">
-        <v>7.399999999999999</v>
+        <v>7.140000000000001</v>
       </c>
       <c r="F10">
-        <v>8.1</v>
+        <v>8.06</v>
       </c>
       <c r="G10">
-        <v>9.210000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H10">
-        <v>9.33</v>
+        <v>10.59</v>
       </c>
       <c r="I10">
-        <v>10.59</v>
+        <v>11.32</v>
       </c>
       <c r="J10">
-        <v>10.43</v>
+        <v>11.83</v>
       </c>
       <c r="K10">
-        <v>10.88</v>
+        <v>11.58</v>
       </c>
       <c r="L10">
-        <v>10.32</v>
+        <v>10.44</v>
       </c>
       <c r="M10">
-        <v>10.07</v>
+        <v>7.630000000000001</v>
       </c>
       <c r="N10">
-        <v>58.3</v>
+        <v>58.52</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1955,43 +1961,43 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1.17</v>
+        <v>0.36</v>
       </c>
       <c r="C11">
-        <v>2.06</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="D11">
-        <v>3.27</v>
+        <v>1.72</v>
       </c>
       <c r="E11">
-        <v>4.63</v>
+        <v>2.48</v>
       </c>
       <c r="F11">
-        <v>6.35</v>
+        <v>3.52</v>
       </c>
       <c r="G11">
-        <v>7.77</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="H11">
-        <v>9.77</v>
+        <v>7.01</v>
       </c>
       <c r="I11">
-        <v>9.959999999999999</v>
+        <v>10.15</v>
       </c>
       <c r="J11">
-        <v>12.84</v>
+        <v>13.34</v>
       </c>
       <c r="K11">
-        <v>13.6</v>
+        <v>15.91</v>
       </c>
       <c r="L11">
-        <v>14.81</v>
+        <v>18.73</v>
       </c>
       <c r="M11">
-        <v>13.77</v>
+        <v>20.06</v>
       </c>
       <c r="N11">
-        <v>44.98</v>
+        <v>31.96</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1999,43 +2005,43 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>0.53</v>
+        <v>0.22</v>
       </c>
       <c r="C12">
-        <v>1.13</v>
+        <v>0.7100000000000001</v>
       </c>
       <c r="D12">
-        <v>1.74</v>
+        <v>1.26</v>
       </c>
       <c r="E12">
-        <v>2.63</v>
+        <v>2.14</v>
       </c>
       <c r="F12">
-        <v>3.45</v>
+        <v>3.12</v>
       </c>
       <c r="G12">
-        <v>4.7</v>
+        <v>4.99</v>
       </c>
       <c r="H12">
-        <v>6.279999999999999</v>
+        <v>6.76</v>
       </c>
       <c r="I12">
-        <v>8.24</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="J12">
-        <v>10.73</v>
+        <v>11.65</v>
       </c>
       <c r="K12">
-        <v>14.23</v>
+        <v>15.43</v>
       </c>
       <c r="L12">
-        <v>18.56</v>
+        <v>19.91</v>
       </c>
       <c r="M12">
-        <v>27.78</v>
+        <v>25.09</v>
       </c>
       <c r="N12">
-        <v>28.7</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2043,43 +2049,43 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>0.36</v>
+        <v>0.15</v>
       </c>
       <c r="C13">
-        <v>0.89</v>
+        <v>0.24</v>
       </c>
       <c r="D13">
-        <v>1.5</v>
+        <v>0.38</v>
       </c>
       <c r="E13">
-        <v>2.32</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F13">
-        <v>3.2</v>
+        <v>1.58</v>
       </c>
       <c r="G13">
-        <v>4.590000000000001</v>
+        <v>2.77</v>
       </c>
       <c r="H13">
-        <v>7.000000000000001</v>
+        <v>4.15</v>
       </c>
       <c r="I13">
-        <v>9.31</v>
+        <v>6.78</v>
       </c>
       <c r="J13">
-        <v>11.74</v>
+        <v>10.2</v>
       </c>
       <c r="K13">
-        <v>15.24</v>
+        <v>16.84</v>
       </c>
       <c r="L13">
-        <v>19.6</v>
+        <v>23.94</v>
       </c>
       <c r="M13">
-        <v>24.25</v>
+        <v>32.27</v>
       </c>
       <c r="N13">
-        <v>29.17</v>
+        <v>16.75</v>
       </c>
     </row>
   </sheetData>
@@ -2114,13 +2120,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -2131,10 +2137,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -2148,13 +2154,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
@@ -2165,13 +2171,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
@@ -2182,10 +2188,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -2202,10 +2208,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
@@ -2216,13 +2222,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
@@ -2233,13 +2239,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>-3</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
@@ -2250,7 +2256,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>-5</v>
@@ -2259,7 +2265,7 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2267,16 +2273,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2284,10 +2290,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -2304,13 +2310,13 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>-13</v>
+        <v>-19</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2320,142 +2326,157 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>-11</v>
+      </c>
+      <c r="D2">
+        <v>-15</v>
+      </c>
+      <c r="E2">
+        <v>-5</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="D3">
+        <v>-3</v>
+      </c>
+      <c r="E3">
+        <v>-4</v>
+      </c>
+      <c r="F3">
+        <v>-5</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-4</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D5">
         <v>-1</v>
       </c>
-      <c r="E2">
+      <c r="E5">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="F5">
         <v>14</v>
       </c>
-      <c r="G2">
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>-1</v>
-      </c>
-      <c r="C3">
-        <v>-11</v>
-      </c>
-      <c r="D3">
-        <v>-15</v>
-      </c>
-      <c r="E3">
-        <v>-5</v>
-      </c>
-      <c r="F3">
-        <v>-1</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>-3</v>
-      </c>
-      <c r="E4">
-        <v>-4</v>
-      </c>
-      <c r="F4">
-        <v>-5</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>-1</v>
-      </c>
-      <c r="C5">
-        <v>-9</v>
-      </c>
-      <c r="D5">
-        <v>-8</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
         <v>7</v>
       </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -2464,22 +2485,25 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2501,141 +2525,159 @@
       <c r="G7">
         <v>3</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-9</v>
+      </c>
+      <c r="D8">
+        <v>-8</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>-5</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>-7</v>
+      </c>
+      <c r="G9">
+        <v>-8</v>
+      </c>
+      <c r="H9">
+        <v>-3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>-3</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>-3</v>
+      </c>
+      <c r="H10">
+        <v>-5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>-3</v>
+      </c>
+      <c r="D11">
+        <v>-4</v>
+      </c>
+      <c r="E11">
+        <v>-10</v>
+      </c>
+      <c r="F11">
+        <v>-5</v>
+      </c>
+      <c r="G11">
+        <v>-5</v>
+      </c>
+      <c r="H11">
+        <v>-9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
         <v>-3</v>
       </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>-3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>-3</v>
-      </c>
-      <c r="D10">
-        <v>-4</v>
-      </c>
-      <c r="E10">
-        <v>-10</v>
-      </c>
-      <c r="F10">
-        <v>-5</v>
-      </c>
-      <c r="G10">
-        <v>-5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>-1</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>-3</v>
-      </c>
-      <c r="F11">
+      <c r="F12">
         <v>-6</v>
-      </c>
-      <c r="G11">
-        <v>-8</v>
-      </c>
-      <c r="H11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>-5</v>
-      </c>
-      <c r="C12">
-        <v>-2</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>-7</v>
       </c>
       <c r="G12">
         <v>-8</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12">
+        <v>-13</v>
+      </c>
+      <c r="I12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -2657,8 +2699,11 @@
       <c r="G13">
         <v>-13</v>
       </c>
-      <c r="H13" t="s">
-        <v>39</v>
+      <c r="H13">
+        <v>-19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
     <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
+    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="76">
   <si>
     <t>CHUBBER</t>
   </si>
@@ -132,12 +133,51 @@
     <t>Chance of making playoffs</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Kari Dickert</t>
+  </si>
+  <si>
+    <t>lawrence wallach</t>
+  </si>
+  <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
+    <t>Diana Wallach</t>
+  </si>
+  <si>
+    <t>Michael Dickert</t>
+  </si>
+  <si>
+    <t>Gabe Musty</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>Zach Wallach</t>
+  </si>
+  <si>
+    <t>Matt Wallach</t>
+  </si>
+  <si>
+    <t>Noah Wallach</t>
+  </si>
+  <si>
+    <t>Jordan Wallach</t>
+  </si>
+  <si>
+    <t>Ted Wallach</t>
+  </si>
+  <si>
     <t>↑7</t>
   </si>
   <si>
@@ -187,6 +227,27 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Home Team</t>
+  </si>
+  <si>
+    <t>Away Team</t>
+  </si>
+  <si>
+    <t>Home LPI</t>
+  </si>
+  <si>
+    <t>Away LPI</t>
+  </si>
+  <si>
+    <t>LPI Difference</t>
+  </si>
+  <si>
+    <t>Winner</t>
   </si>
 </sst>
 </file>
@@ -1565,131 +1626,131 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>26.87</v>
+        <v>26.35</v>
       </c>
       <c r="C2">
-        <v>19.69</v>
+        <v>19.29</v>
       </c>
       <c r="D2">
-        <v>14.61</v>
+        <v>14.98</v>
       </c>
       <c r="E2">
-        <v>11.71</v>
+        <v>12.16</v>
       </c>
       <c r="F2">
-        <v>9.08</v>
+        <v>8.959999999999999</v>
       </c>
       <c r="G2">
-        <v>6.45</v>
+        <v>7.049999999999999</v>
       </c>
       <c r="H2">
-        <v>4.72</v>
+        <v>4.92</v>
       </c>
       <c r="I2">
-        <v>3.46</v>
+        <v>3.26</v>
       </c>
       <c r="J2">
-        <v>2.06</v>
+        <v>1.72</v>
       </c>
       <c r="K2">
-        <v>0.9299999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="L2">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="M2">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="N2">
-        <v>96.59</v>
+        <v>96.97</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>17.59</v>
+        <v>17.16</v>
       </c>
       <c r="C3">
-        <v>15.55</v>
+        <v>14.77</v>
       </c>
       <c r="D3">
-        <v>13.52</v>
+        <v>12.87</v>
       </c>
       <c r="E3">
-        <v>11.62</v>
+        <v>12.11</v>
       </c>
       <c r="F3">
-        <v>10.75</v>
+        <v>10.63</v>
       </c>
       <c r="G3">
-        <v>9.289999999999999</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="H3">
-        <v>7.59</v>
+        <v>7.779999999999999</v>
       </c>
       <c r="I3">
-        <v>5.79</v>
+        <v>6.4</v>
       </c>
       <c r="J3">
-        <v>3.99</v>
+        <v>4.34</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L3">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="M3">
-        <v>0.44</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="N3">
-        <v>91.7</v>
+        <v>90.75999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>16.32</v>
+        <v>16.78</v>
       </c>
       <c r="C4">
-        <v>15.01</v>
+        <v>16.34</v>
       </c>
       <c r="D4">
-        <v>13.36</v>
+        <v>14.17</v>
       </c>
       <c r="E4">
-        <v>11.39</v>
+        <v>11.91</v>
       </c>
       <c r="F4">
-        <v>11.01</v>
+        <v>10.66</v>
       </c>
       <c r="G4">
-        <v>9.32</v>
+        <v>9.26</v>
       </c>
       <c r="H4">
-        <v>7.82</v>
+        <v>7.37</v>
       </c>
       <c r="I4">
-        <v>6.35</v>
+        <v>5.44</v>
       </c>
       <c r="J4">
-        <v>4.25</v>
+        <v>4.06</v>
       </c>
       <c r="K4">
-        <v>2.89</v>
+        <v>2.37</v>
       </c>
       <c r="L4">
-        <v>1.64</v>
+        <v>1.19</v>
       </c>
       <c r="M4">
-        <v>0.64</v>
+        <v>0.45</v>
       </c>
       <c r="N4">
-        <v>90.58</v>
+        <v>91.93000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1697,131 +1758,131 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>9.529999999999999</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="C5">
-        <v>11.49</v>
+        <v>11.45</v>
       </c>
       <c r="D5">
-        <v>12.28</v>
+        <v>12.39</v>
       </c>
       <c r="E5">
-        <v>12.45</v>
+        <v>11.99</v>
       </c>
       <c r="F5">
-        <v>11.67</v>
+        <v>12.07</v>
       </c>
       <c r="G5">
-        <v>10.87</v>
+        <v>10.62</v>
       </c>
       <c r="H5">
-        <v>9.640000000000001</v>
+        <v>9.68</v>
       </c>
       <c r="I5">
-        <v>8.73</v>
+        <v>7.91</v>
       </c>
       <c r="J5">
-        <v>6.29</v>
+        <v>6.35</v>
       </c>
       <c r="K5">
-        <v>3.85</v>
+        <v>4.31</v>
       </c>
       <c r="L5">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="M5">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N5">
-        <v>86.66</v>
+        <v>85.89</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>8.210000000000001</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="C6">
-        <v>9.640000000000001</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D6">
-        <v>10.15</v>
+        <v>10.41</v>
       </c>
       <c r="E6">
-        <v>10.43</v>
+        <v>10.49</v>
       </c>
       <c r="F6">
-        <v>11.01</v>
+        <v>10.68</v>
       </c>
       <c r="G6">
-        <v>10.16</v>
+        <v>10.36</v>
       </c>
       <c r="H6">
-        <v>10.27</v>
+        <v>10.73</v>
       </c>
       <c r="I6">
-        <v>9.370000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="J6">
-        <v>8.19</v>
+        <v>8.06</v>
       </c>
       <c r="K6">
-        <v>6.260000000000001</v>
+        <v>6.04</v>
       </c>
       <c r="L6">
-        <v>3.99</v>
+        <v>3.74</v>
       </c>
       <c r="M6">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="N6">
-        <v>79.24000000000001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>8.200000000000001</v>
+        <v>8.290000000000001</v>
       </c>
       <c r="C7">
-        <v>9.370000000000001</v>
+        <v>9.26</v>
       </c>
       <c r="D7">
-        <v>10.11</v>
+        <v>10.77</v>
       </c>
       <c r="E7">
-        <v>10.89</v>
+        <v>10.38</v>
       </c>
       <c r="F7">
-        <v>11.23</v>
+        <v>11.18</v>
       </c>
       <c r="G7">
-        <v>10.32</v>
+        <v>10.62</v>
       </c>
       <c r="H7">
-        <v>10.66</v>
+        <v>10.03</v>
       </c>
       <c r="I7">
-        <v>9.030000000000001</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="J7">
-        <v>8.140000000000001</v>
+        <v>7.829999999999999</v>
       </c>
       <c r="K7">
-        <v>6.13</v>
+        <v>5.99</v>
       </c>
       <c r="L7">
-        <v>4.02</v>
+        <v>4.36</v>
       </c>
       <c r="M7">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="N7">
-        <v>79.81</v>
+        <v>79.66</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1829,43 +1890,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.92</v>
+        <v>6.68</v>
       </c>
       <c r="C8">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="D8">
-        <v>9.84</v>
+        <v>9.33</v>
       </c>
       <c r="E8">
-        <v>10.54</v>
+        <v>11.09</v>
       </c>
       <c r="F8">
-        <v>10.11</v>
+        <v>10.22</v>
       </c>
       <c r="G8">
-        <v>10.57</v>
+        <v>10.22</v>
       </c>
       <c r="H8">
-        <v>10.19</v>
+        <v>10.48</v>
       </c>
       <c r="I8">
         <v>9.520000000000001</v>
       </c>
       <c r="J8">
-        <v>8.690000000000001</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="K8">
-        <v>7.04</v>
+        <v>6.98</v>
       </c>
       <c r="L8">
-        <v>5.1</v>
+        <v>5.029999999999999</v>
       </c>
       <c r="M8">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="N8">
-        <v>76.09</v>
+        <v>76.14</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1873,43 +1934,43 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>3.28</v>
+        <v>3.13</v>
       </c>
       <c r="C9">
-        <v>5.16</v>
+        <v>5.23</v>
       </c>
       <c r="D9">
-        <v>6.83</v>
+        <v>6.52</v>
       </c>
       <c r="E9">
-        <v>8.51</v>
+        <v>8.02</v>
       </c>
       <c r="F9">
-        <v>8.859999999999999</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="G9">
-        <v>10.16</v>
+        <v>10.25</v>
       </c>
       <c r="H9">
-        <v>10.6</v>
+        <v>10.45</v>
       </c>
       <c r="I9">
-        <v>10.78</v>
+        <v>11.63</v>
       </c>
       <c r="J9">
-        <v>11.37</v>
+        <v>10.87</v>
       </c>
       <c r="K9">
-        <v>10.54</v>
+        <v>10.48</v>
       </c>
       <c r="L9">
-        <v>8.459999999999999</v>
+        <v>8.34</v>
       </c>
       <c r="M9">
-        <v>5.45</v>
+        <v>5.86</v>
       </c>
       <c r="N9">
-        <v>64.18000000000001</v>
+        <v>64.44999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1917,43 +1978,43 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.35</v>
+        <v>2.54</v>
       </c>
       <c r="C10">
-        <v>3.92</v>
+        <v>3.72</v>
       </c>
       <c r="D10">
-        <v>5.94</v>
+        <v>5.27</v>
       </c>
       <c r="E10">
-        <v>7.140000000000001</v>
+        <v>6.83</v>
       </c>
       <c r="F10">
-        <v>8.06</v>
+        <v>7.969999999999999</v>
       </c>
       <c r="G10">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H10">
-        <v>10.59</v>
+        <v>10.32</v>
       </c>
       <c r="I10">
-        <v>11.32</v>
+        <v>11.87</v>
       </c>
       <c r="J10">
-        <v>11.83</v>
+        <v>12.19</v>
       </c>
       <c r="K10">
-        <v>11.58</v>
+        <v>11.31</v>
       </c>
       <c r="L10">
-        <v>10.44</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="M10">
-        <v>7.630000000000001</v>
+        <v>8.309999999999999</v>
       </c>
       <c r="N10">
-        <v>58.52</v>
+        <v>58.31999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1961,43 +2022,43 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="C11">
-        <v>0.8200000000000001</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="D11">
-        <v>1.72</v>
+        <v>1.36</v>
       </c>
       <c r="E11">
-        <v>2.48</v>
+        <v>1.97</v>
       </c>
       <c r="F11">
-        <v>3.52</v>
+        <v>3.44</v>
       </c>
       <c r="G11">
-        <v>5.899999999999999</v>
+        <v>5.13</v>
       </c>
       <c r="H11">
-        <v>7.01</v>
+        <v>7.46</v>
       </c>
       <c r="I11">
-        <v>10.15</v>
+        <v>10.36</v>
       </c>
       <c r="J11">
-        <v>13.34</v>
+        <v>13.07</v>
       </c>
       <c r="K11">
-        <v>15.91</v>
+        <v>17.01</v>
       </c>
       <c r="L11">
-        <v>18.73</v>
+        <v>19.46</v>
       </c>
       <c r="M11">
-        <v>20.06</v>
+        <v>19.48</v>
       </c>
       <c r="N11">
-        <v>31.96</v>
+        <v>30.98</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2005,43 +2066,43 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="C12">
-        <v>0.7100000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="D12">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="E12">
-        <v>2.14</v>
+        <v>2.39</v>
       </c>
       <c r="F12">
-        <v>3.12</v>
+        <v>3.24</v>
       </c>
       <c r="G12">
-        <v>4.99</v>
+        <v>4.88</v>
       </c>
       <c r="H12">
-        <v>6.76</v>
+        <v>6.619999999999999</v>
       </c>
       <c r="I12">
-        <v>8.720000000000001</v>
+        <v>8.690000000000001</v>
       </c>
       <c r="J12">
-        <v>11.65</v>
+        <v>12.04</v>
       </c>
       <c r="K12">
-        <v>15.43</v>
+        <v>15.19</v>
       </c>
       <c r="L12">
-        <v>19.91</v>
+        <v>19.74</v>
       </c>
       <c r="M12">
-        <v>25.09</v>
+        <v>24.99</v>
       </c>
       <c r="N12">
-        <v>27.92</v>
+        <v>28.04</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2049,43 +2110,43 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>0.15</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="C13">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="D13">
-        <v>0.38</v>
+        <v>0.54</v>
       </c>
       <c r="E13">
-        <v>0.7000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="F13">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="G13">
         <v>2.77</v>
       </c>
       <c r="H13">
-        <v>4.15</v>
+        <v>4.16</v>
       </c>
       <c r="I13">
-        <v>6.78</v>
+        <v>6.619999999999999</v>
       </c>
       <c r="J13">
-        <v>10.2</v>
+        <v>10.67</v>
       </c>
       <c r="K13">
-        <v>16.84</v>
+        <v>16.72</v>
       </c>
       <c r="L13">
-        <v>23.94</v>
+        <v>23.98</v>
       </c>
       <c r="M13">
-        <v>32.27</v>
+        <v>31.77</v>
       </c>
       <c r="N13">
-        <v>16.75</v>
+        <v>16.86</v>
       </c>
     </row>
   </sheetData>
@@ -2095,13 +2156,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2109,214 +2170,253 @@
         <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
       <c r="E8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
         <v>-3</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
       <c r="E9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
         <v>-5</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
       <c r="E10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
         <v>-9</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
       <c r="E11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12">
         <v>-13</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
         <v>-19</v>
       </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2334,28 +2434,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2384,7 +2484,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2413,7 +2513,7 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2442,7 +2542,7 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2471,7 +2571,7 @@
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2500,7 +2600,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2529,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2558,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2587,7 +2687,7 @@
         <v>-3</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2616,7 +2716,7 @@
         <v>-5</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2645,7 +2745,7 @@
         <v>-9</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2674,7 +2774,7 @@
         <v>-13</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2703,7 +2803,303 @@
         <v>-19</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>-5</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>-4</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>-8</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>-6</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>-5</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>-5</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>-2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>-4</v>
+      </c>
+      <c r="F10">
+        <v>-8</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>-4</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="78">
   <si>
     <t>CHUBBER</t>
   </si>
@@ -58,22 +58,25 @@
     <t>DadBods 69ers</t>
   </si>
   <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -142,70 +145,70 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>lawrence wallach</t>
+  </si>
+  <si>
     <t>Kari Dickert</t>
   </si>
   <si>
-    <t>lawrence wallach</t>
+    <t>Diana Wallach</t>
   </si>
   <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
-    <t>Diana Wallach</t>
+    <t>Gabe Musty</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
   </si>
   <si>
     <t>Michael Dickert</t>
   </si>
   <si>
-    <t>Gabe Musty</t>
-  </si>
-  <si>
-    <t>Louis Rodriguez</t>
+    <t>Matt Wallach</t>
   </si>
   <si>
     <t>Zach Wallach</t>
   </si>
   <si>
-    <t>Matt Wallach</t>
+    <t>Ted Wallach</t>
+  </si>
+  <si>
+    <t>Jordan Wallach</t>
   </si>
   <si>
     <t>Noah Wallach</t>
   </si>
   <si>
-    <t>Jordan Wallach</t>
-  </si>
-  <si>
-    <t>Ted Wallach</t>
-  </si>
-  <si>
     <t>↑7</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑5</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↓8</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -227,6 +230,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -657,37 +663,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -695,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -704,10 +710,10 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -716,7 +722,7 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
@@ -725,10 +731,10 @@
         <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -736,7 +742,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -745,31 +751,31 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
       <c r="J4" t="s">
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -777,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -789,28 +795,28 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
         <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -818,37 +824,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
         <v>15</v>
@@ -862,22 +868,22 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -886,7 +892,7 @@
         <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
         <v>15</v>
@@ -900,10 +906,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -912,25 +918,25 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
         <v>15</v>
@@ -944,37 +950,37 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -988,16 +994,16 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -1006,16 +1012,16 @@
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1026,19 +1032,19 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -1047,16 +1053,16 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1070,28 +1076,28 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
         <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
         <v>15</v>
@@ -1108,37 +1114,37 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1156,13 +1162,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1173,10 +1179,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1184,10 +1190,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3.083333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1198,13 +1204,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>3.333333333333333</v>
+        <v>3.75</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1215,10 +1221,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>3.333333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1226,13 +1232,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>3.5</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1240,10 +1246,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1254,10 +1260,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1271,10 +1277,10 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>3.5</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1285,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>3.5</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1296,13 +1302,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1310,13 +1316,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>3.916666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1327,10 +1333,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>4.333333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1348,16 +1354,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1365,13 +1371,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4.5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1385,10 +1391,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>4.333333333333333</v>
+        <v>5.25</v>
       </c>
       <c r="D3">
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -1399,16 +1405,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>4.333333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D4">
-        <v>0.333333333333333</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1416,16 +1422,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>4.333333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D5">
-        <v>1.333333333333333</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1436,13 +1442,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>3.75</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D6">
-        <v>0.75</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1453,13 +1459,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>3.583333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="D7">
-        <v>-0.4166666666666665</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1470,10 +1476,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D8">
-        <v>-0.5</v>
+        <v>-0.916666666666667</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -1493,7 +1499,7 @@
         <v>-0.75</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1504,10 +1510,10 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>3.083333333333333</v>
+        <v>3.25</v>
       </c>
       <c r="D10">
-        <v>0.08333333333333348</v>
+        <v>0.25</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1518,13 +1524,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>2.75</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D11">
-        <v>-0.25</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1535,13 +1541,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2.333333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D12">
-        <v>-0.6666666666666665</v>
+        <v>-0.1666666666666665</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1555,13 +1561,13 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>2.25</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D13">
-        <v>0.25</v>
+        <v>0.5833333333333335</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1579,46 +1585,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1626,43 +1632,43 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>26.35</v>
+        <v>34.67</v>
       </c>
       <c r="C2">
-        <v>19.29</v>
+        <v>22.63</v>
       </c>
       <c r="D2">
-        <v>14.98</v>
+        <v>15.56</v>
       </c>
       <c r="E2">
-        <v>12.16</v>
+        <v>11.35</v>
       </c>
       <c r="F2">
-        <v>8.959999999999999</v>
+        <v>7.24</v>
       </c>
       <c r="G2">
-        <v>7.049999999999999</v>
+        <v>4.279999999999999</v>
       </c>
       <c r="H2">
-        <v>4.92</v>
+        <v>2.28</v>
       </c>
       <c r="I2">
-        <v>3.26</v>
+        <v>1.1</v>
       </c>
       <c r="J2">
-        <v>1.72</v>
+        <v>0.48</v>
       </c>
       <c r="K2">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="L2">
-        <v>0.4</v>
+        <v>0.14</v>
       </c>
       <c r="M2">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="N2">
-        <v>96.97</v>
+        <v>99.10999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1670,43 +1676,43 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>17.16</v>
+        <v>18.81</v>
       </c>
       <c r="C3">
-        <v>14.77</v>
+        <v>17.31</v>
       </c>
       <c r="D3">
-        <v>12.87</v>
+        <v>16.14</v>
       </c>
       <c r="E3">
-        <v>12.11</v>
+        <v>14.26</v>
       </c>
       <c r="F3">
-        <v>10.63</v>
+        <v>11.81</v>
       </c>
       <c r="G3">
-        <v>9.039999999999999</v>
+        <v>8.82</v>
       </c>
       <c r="H3">
-        <v>7.779999999999999</v>
+        <v>5.64</v>
       </c>
       <c r="I3">
-        <v>6.4</v>
+        <v>3.73</v>
       </c>
       <c r="J3">
-        <v>4.34</v>
+        <v>1.9</v>
       </c>
       <c r="K3">
-        <v>2.8</v>
+        <v>1.01</v>
       </c>
       <c r="L3">
-        <v>1.53</v>
+        <v>0.39</v>
       </c>
       <c r="M3">
-        <v>0.5700000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="N3">
-        <v>90.75999999999999</v>
+        <v>96.52</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1714,219 +1720,219 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>16.78</v>
+        <v>14.35</v>
       </c>
       <c r="C4">
-        <v>16.34</v>
+        <v>15.31</v>
       </c>
       <c r="D4">
-        <v>14.17</v>
+        <v>15.66</v>
       </c>
       <c r="E4">
-        <v>11.91</v>
+        <v>14.03</v>
       </c>
       <c r="F4">
-        <v>10.66</v>
+        <v>12.32</v>
       </c>
       <c r="G4">
-        <v>9.26</v>
+        <v>9.370000000000001</v>
       </c>
       <c r="H4">
-        <v>7.37</v>
+        <v>7.52</v>
       </c>
       <c r="I4">
-        <v>5.44</v>
+        <v>4.9</v>
       </c>
       <c r="J4">
-        <v>4.06</v>
+        <v>3.42</v>
       </c>
       <c r="K4">
-        <v>2.37</v>
+        <v>1.8</v>
       </c>
       <c r="L4">
-        <v>1.19</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="M4">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="N4">
-        <v>91.93000000000001</v>
+        <v>93.46000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>9.779999999999999</v>
+        <v>11.11</v>
       </c>
       <c r="C5">
-        <v>11.45</v>
+        <v>14.32</v>
       </c>
       <c r="D5">
-        <v>12.39</v>
+        <v>14.45</v>
       </c>
       <c r="E5">
-        <v>11.99</v>
+        <v>13.88</v>
       </c>
       <c r="F5">
-        <v>12.07</v>
+        <v>12.2</v>
       </c>
       <c r="G5">
-        <v>10.62</v>
+        <v>10.46</v>
       </c>
       <c r="H5">
-        <v>9.68</v>
+        <v>8.27</v>
       </c>
       <c r="I5">
-        <v>7.91</v>
+        <v>6.25</v>
       </c>
       <c r="J5">
-        <v>6.35</v>
+        <v>4.279999999999999</v>
       </c>
       <c r="K5">
-        <v>4.31</v>
+        <v>2.9</v>
       </c>
       <c r="L5">
-        <v>2.36</v>
+        <v>1.29</v>
       </c>
       <c r="M5">
-        <v>1.09</v>
+        <v>0.59</v>
       </c>
       <c r="N5">
-        <v>85.89</v>
+        <v>90.94</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>8.630000000000001</v>
+        <v>9.85</v>
       </c>
       <c r="C6">
-        <v>9.529999999999999</v>
+        <v>11.77</v>
       </c>
       <c r="D6">
-        <v>10.41</v>
+        <v>13.31</v>
       </c>
       <c r="E6">
-        <v>10.49</v>
+        <v>13.25</v>
       </c>
       <c r="F6">
-        <v>10.68</v>
+        <v>13.59</v>
       </c>
       <c r="G6">
-        <v>10.36</v>
+        <v>11.84</v>
       </c>
       <c r="H6">
-        <v>10.73</v>
+        <v>10.53</v>
       </c>
       <c r="I6">
-        <v>9.17</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="J6">
-        <v>8.06</v>
+        <v>4.77</v>
       </c>
       <c r="K6">
-        <v>6.04</v>
+        <v>2.55</v>
       </c>
       <c r="L6">
-        <v>3.74</v>
+        <v>1.24</v>
       </c>
       <c r="M6">
-        <v>2.16</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="N6">
-        <v>80</v>
+        <v>90.73999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>8.290000000000001</v>
+        <v>7.88</v>
       </c>
       <c r="C7">
-        <v>9.26</v>
+        <v>10.75</v>
       </c>
       <c r="D7">
-        <v>10.77</v>
+        <v>11.54</v>
       </c>
       <c r="E7">
-        <v>10.38</v>
+        <v>12.9</v>
       </c>
       <c r="F7">
-        <v>11.18</v>
+        <v>12.32</v>
       </c>
       <c r="G7">
-        <v>10.62</v>
+        <v>12.29</v>
       </c>
       <c r="H7">
-        <v>10.03</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="I7">
-        <v>9.130000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="J7">
-        <v>7.829999999999999</v>
+        <v>6.18</v>
       </c>
       <c r="K7">
-        <v>5.99</v>
+        <v>4.109999999999999</v>
       </c>
       <c r="L7">
-        <v>4.36</v>
+        <v>2.9</v>
       </c>
       <c r="M7">
-        <v>2.16</v>
+        <v>1.04</v>
       </c>
       <c r="N7">
-        <v>79.66</v>
+        <v>85.77</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>6.68</v>
+        <v>1.65</v>
       </c>
       <c r="C8">
-        <v>8.6</v>
+        <v>3.37</v>
       </c>
       <c r="D8">
-        <v>9.33</v>
+        <v>5.42</v>
       </c>
       <c r="E8">
-        <v>11.09</v>
+        <v>7.249999999999999</v>
       </c>
       <c r="F8">
-        <v>10.22</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="G8">
-        <v>10.22</v>
+        <v>10.69</v>
       </c>
       <c r="H8">
-        <v>10.48</v>
+        <v>12.2</v>
       </c>
       <c r="I8">
-        <v>9.520000000000001</v>
+        <v>12.47</v>
       </c>
       <c r="J8">
-        <v>8.799999999999999</v>
+        <v>12.22</v>
       </c>
       <c r="K8">
-        <v>6.98</v>
+        <v>10.89</v>
       </c>
       <c r="L8">
-        <v>5.029999999999999</v>
+        <v>8.91</v>
       </c>
       <c r="M8">
-        <v>3.05</v>
+        <v>6.069999999999999</v>
       </c>
       <c r="N8">
-        <v>76.14</v>
+        <v>61.91</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1934,219 +1940,219 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>3.13</v>
+        <v>0.76</v>
       </c>
       <c r="C9">
-        <v>5.23</v>
+        <v>1.91</v>
       </c>
       <c r="D9">
-        <v>6.52</v>
+        <v>2.85</v>
       </c>
       <c r="E9">
-        <v>8.02</v>
+        <v>4.64</v>
       </c>
       <c r="F9">
-        <v>9.220000000000001</v>
+        <v>6.97</v>
       </c>
       <c r="G9">
-        <v>10.25</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H9">
-        <v>10.45</v>
+        <v>11.22</v>
       </c>
       <c r="I9">
-        <v>11.63</v>
+        <v>12.52</v>
       </c>
       <c r="J9">
-        <v>10.87</v>
+        <v>13.32</v>
       </c>
       <c r="K9">
-        <v>10.48</v>
+        <v>13.64</v>
       </c>
       <c r="L9">
-        <v>8.34</v>
+        <v>12.28</v>
       </c>
       <c r="M9">
-        <v>5.86</v>
+        <v>10.69</v>
       </c>
       <c r="N9">
-        <v>64.44999999999999</v>
+        <v>50.06999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>2.54</v>
+        <v>0.45</v>
       </c>
       <c r="C10">
-        <v>3.72</v>
+        <v>1.24</v>
       </c>
       <c r="D10">
-        <v>5.27</v>
+        <v>2.09</v>
       </c>
       <c r="E10">
-        <v>6.83</v>
+        <v>3.31</v>
       </c>
       <c r="F10">
-        <v>7.969999999999999</v>
+        <v>5.19</v>
       </c>
       <c r="G10">
-        <v>9.800000000000001</v>
+        <v>8.17</v>
       </c>
       <c r="H10">
-        <v>10.32</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="I10">
-        <v>11.87</v>
+        <v>13.13</v>
       </c>
       <c r="J10">
-        <v>12.19</v>
+        <v>14.25</v>
       </c>
       <c r="K10">
-        <v>11.31</v>
+        <v>14.95</v>
       </c>
       <c r="L10">
-        <v>9.869999999999999</v>
+        <v>14.91</v>
       </c>
       <c r="M10">
-        <v>8.309999999999999</v>
+        <v>12.42</v>
       </c>
       <c r="N10">
-        <v>58.31999999999999</v>
+        <v>43.47</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="C11">
-        <v>0.9199999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="D11">
-        <v>1.36</v>
+        <v>2.17</v>
       </c>
       <c r="E11">
-        <v>1.97</v>
+        <v>3.35</v>
       </c>
       <c r="F11">
-        <v>3.44</v>
+        <v>5.84</v>
       </c>
       <c r="G11">
-        <v>5.13</v>
+        <v>8.25</v>
       </c>
       <c r="H11">
-        <v>7.46</v>
+        <v>11.12</v>
       </c>
       <c r="I11">
-        <v>10.36</v>
+        <v>13.19</v>
       </c>
       <c r="J11">
-        <v>13.07</v>
+        <v>14.15</v>
       </c>
       <c r="K11">
-        <v>17.01</v>
+        <v>14.34</v>
       </c>
       <c r="L11">
-        <v>19.46</v>
+        <v>13.39</v>
       </c>
       <c r="M11">
-        <v>19.48</v>
+        <v>12.75</v>
       </c>
       <c r="N11">
-        <v>30.98</v>
+        <v>45.37</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="C12">
-        <v>0.58</v>
+        <v>0.18</v>
       </c>
       <c r="D12">
-        <v>1.39</v>
+        <v>0.42</v>
       </c>
       <c r="E12">
-        <v>2.39</v>
+        <v>0.84</v>
       </c>
       <c r="F12">
-        <v>3.24</v>
+        <v>1.84</v>
       </c>
       <c r="G12">
-        <v>4.88</v>
+        <v>3.2</v>
       </c>
       <c r="H12">
-        <v>6.619999999999999</v>
+        <v>5.489999999999999</v>
       </c>
       <c r="I12">
-        <v>8.690000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="J12">
-        <v>12.04</v>
+        <v>12.86</v>
       </c>
       <c r="K12">
-        <v>15.19</v>
+        <v>17.56</v>
       </c>
       <c r="L12">
-        <v>19.74</v>
+        <v>22.7</v>
       </c>
       <c r="M12">
-        <v>24.99</v>
+        <v>25.47</v>
       </c>
       <c r="N12">
-        <v>28.04</v>
+        <v>21.41</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>0.06999999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="C13">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
       <c r="D13">
-        <v>0.54</v>
+        <v>0.39</v>
       </c>
       <c r="E13">
-        <v>0.66</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="F13">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="G13">
-        <v>2.77</v>
+        <v>3.43</v>
       </c>
       <c r="H13">
-        <v>4.16</v>
+        <v>5.87</v>
       </c>
       <c r="I13">
-        <v>6.619999999999999</v>
+        <v>8.59</v>
       </c>
       <c r="J13">
-        <v>10.67</v>
+        <v>12.17</v>
       </c>
       <c r="K13">
-        <v>16.72</v>
+        <v>16</v>
       </c>
       <c r="L13">
-        <v>23.98</v>
+        <v>20.91</v>
       </c>
       <c r="M13">
-        <v>31.77</v>
+        <v>29.69</v>
       </c>
       <c r="N13">
-        <v>16.86</v>
+        <v>21.23</v>
       </c>
     </row>
   </sheetData>
@@ -2164,19 +2170,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2184,19 +2190,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2204,19 +2210,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2224,19 +2230,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2244,10 +2250,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -2264,13 +2270,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -2284,13 +2290,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -2304,16 +2310,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -2324,16 +2330,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -2344,19 +2350,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2364,19 +2370,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2387,16 +2393,16 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2404,19 +2410,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2426,329 +2432,362 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>-3</v>
+      </c>
+      <c r="E2">
+        <v>-4</v>
+      </c>
+      <c r="F2">
+        <v>-5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>-1</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>-11</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>-15</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>-5</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>-1</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>8</v>
       </c>
-      <c r="H2">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-4</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>-3</v>
-      </c>
-      <c r="E3">
-        <v>-4</v>
-      </c>
-      <c r="F3">
-        <v>-5</v>
-      </c>
-      <c r="G3">
+      <c r="I6">
         <v>6</v>
       </c>
-      <c r="H3">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>-4</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
         <v>-1</v>
       </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>14</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
-        <v>6</v>
+        <v>-9</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="H7">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>-4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>-3</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>-3</v>
+      </c>
+      <c r="H9">
+        <v>-5</v>
+      </c>
+      <c r="I9">
+        <v>-4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-5</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8">
+      <c r="F10">
+        <v>-7</v>
+      </c>
+      <c r="G10">
+        <v>-8</v>
+      </c>
+      <c r="H10">
+        <v>-3</v>
+      </c>
+      <c r="I10">
+        <v>-10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>-9</v>
       </c>
-      <c r="D8">
-        <v>-8</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>-5</v>
-      </c>
-      <c r="C9">
-        <v>-2</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>-7</v>
-      </c>
-      <c r="G9">
-        <v>-8</v>
-      </c>
-      <c r="H9">
-        <v>-3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>-3</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>-3</v>
-      </c>
-      <c r="H10">
-        <v>-5</v>
-      </c>
-      <c r="I10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>-3</v>
-      </c>
-      <c r="D11">
-        <v>-4</v>
-      </c>
-      <c r="E11">
-        <v>-10</v>
-      </c>
-      <c r="F11">
-        <v>-5</v>
-      </c>
       <c r="G11">
-        <v>-5</v>
+        <v>-13</v>
       </c>
       <c r="H11">
-        <v>-9</v>
-      </c>
-      <c r="I11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-19</v>
+      </c>
+      <c r="I11">
+        <v>-14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2773,37 +2812,43 @@
       <c r="H12">
         <v>-13</v>
       </c>
-      <c r="I12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12">
+        <v>-15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="F13">
+        <v>-5</v>
+      </c>
+      <c r="G13">
+        <v>-5</v>
+      </c>
+      <c r="H13">
         <v>-9</v>
       </c>
-      <c r="G13">
-        <v>-13</v>
-      </c>
-      <c r="H13">
-        <v>-19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>61</v>
+      <c r="I13">
+        <v>-17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2821,25 +2866,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="81">
   <si>
     <t>CHUBBER</t>
   </si>
@@ -58,22 +58,28 @@
     <t>DadBods 69ers</t>
   </si>
   <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -142,69 +148,72 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Diana Wallach</t>
+  </si>
+  <si>
+    <t>lawrence wallach</t>
+  </si>
+  <si>
     <t>Kari Dickert</t>
   </si>
   <si>
-    <t>lawrence wallach</t>
+    <t>Gabe Musty</t>
   </si>
   <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
-    <t>Diana Wallach</t>
-  </si>
-  <si>
     <t>Michael Dickert</t>
   </si>
   <si>
-    <t>Gabe Musty</t>
-  </si>
-  <si>
     <t>Louis Rodriguez</t>
   </si>
   <si>
+    <t>Matt Wallach</t>
+  </si>
+  <si>
     <t>Zach Wallach</t>
   </si>
   <si>
-    <t>Matt Wallach</t>
+    <t>Ted Wallach</t>
+  </si>
+  <si>
+    <t>Jordan Wallach</t>
   </si>
   <si>
     <t>Noah Wallach</t>
   </si>
   <si>
-    <t>Jordan Wallach</t>
-  </si>
-  <si>
-    <t>Ted Wallach</t>
-  </si>
-  <si>
-    <t>↑7</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓5</t>
   </si>
   <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↑8</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑2</t>
   </si>
   <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
     <t>↓6</t>
   </si>
   <si>
@@ -227,6 +236,12 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -657,37 +672,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -698,37 +713,37 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -739,34 +754,34 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -777,10 +792,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -789,22 +804,22 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
         <v>12</v>
@@ -818,40 +833,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -859,40 +874,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -900,40 +915,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -941,40 +956,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -982,10 +997,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -994,22 +1009,22 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
@@ -1023,40 +1038,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1064,40 +1079,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1105,40 +1120,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
         <v>15</v>
-      </c>
-      <c r="M13" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1156,13 +1171,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1170,10 +1185,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2.75</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1184,13 +1199,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>3.083333333333333</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1198,13 +1213,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>3.333333333333333</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1212,13 +1227,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>3.333333333333333</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1226,13 +1241,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1240,13 +1255,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1254,13 +1269,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1268,13 +1283,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1282,13 +1297,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1296,13 +1311,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>3.75</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1310,13 +1325,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>3.916666666666667</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1327,10 +1342,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>4.333333333333333</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1348,16 +1363,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1368,13 +1383,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1385,13 +1400,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>4.333333333333333</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D3">
-        <v>0.333333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1402,13 +1417,13 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>4.333333333333333</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D4">
-        <v>0.333333333333333</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1419,13 +1434,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.333333333333333</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D5">
-        <v>1.333333333333333</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1436,13 +1451,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>3.75</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D6">
-        <v>0.75</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1453,13 +1468,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>3.583333333333333</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D7">
-        <v>-0.4166666666666665</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1470,13 +1485,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D8">
-        <v>-0.5</v>
+        <v>-0.833333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1484,16 +1499,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3.25</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D9">
-        <v>-0.75</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1501,16 +1516,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>3.083333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D10">
-        <v>0.08333333333333348</v>
+        <v>-0.1666666666666665</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1518,13 +1533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>2.75</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D11">
-        <v>-0.25</v>
+        <v>0.4166666666666665</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1535,13 +1550,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>2.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>-0.6666666666666665</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1552,16 +1567,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>2.25</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D13">
-        <v>0.25</v>
+        <v>-0.1666666666666665</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1579,46 +1594,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1626,351 +1641,351 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>26.35</v>
+        <v>25.02</v>
       </c>
       <c r="C2">
-        <v>19.29</v>
+        <v>19.26</v>
       </c>
       <c r="D2">
-        <v>14.98</v>
+        <v>16.72</v>
       </c>
       <c r="E2">
-        <v>12.16</v>
+        <v>11.84</v>
       </c>
       <c r="F2">
-        <v>8.959999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="G2">
-        <v>7.049999999999999</v>
+        <v>7.140000000000001</v>
       </c>
       <c r="H2">
-        <v>4.92</v>
+        <v>4.84</v>
       </c>
       <c r="I2">
-        <v>3.26</v>
+        <v>2.91</v>
       </c>
       <c r="J2">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="K2">
-        <v>0.8</v>
+        <v>0.46</v>
       </c>
       <c r="L2">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
       <c r="M2">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="N2">
-        <v>96.97</v>
+        <v>97.63</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>17.16</v>
+        <v>18.55</v>
       </c>
       <c r="C3">
-        <v>14.77</v>
+        <v>16.6</v>
       </c>
       <c r="D3">
-        <v>12.87</v>
+        <v>14.16</v>
       </c>
       <c r="E3">
-        <v>12.11</v>
+        <v>13.09</v>
       </c>
       <c r="F3">
-        <v>10.63</v>
+        <v>11.49</v>
       </c>
       <c r="G3">
-        <v>9.039999999999999</v>
+        <v>9.379999999999999</v>
       </c>
       <c r="H3">
-        <v>7.779999999999999</v>
+        <v>6.78</v>
       </c>
       <c r="I3">
-        <v>6.4</v>
+        <v>4.93</v>
       </c>
       <c r="J3">
-        <v>4.34</v>
+        <v>3.01</v>
       </c>
       <c r="K3">
-        <v>2.8</v>
+        <v>1.31</v>
       </c>
       <c r="L3">
-        <v>1.53</v>
+        <v>0.63</v>
       </c>
       <c r="M3">
-        <v>0.5700000000000001</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="N3">
-        <v>90.75999999999999</v>
+        <v>94.98</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>16.78</v>
+        <v>14.7</v>
       </c>
       <c r="C4">
-        <v>16.34</v>
+        <v>13.99</v>
       </c>
       <c r="D4">
-        <v>14.17</v>
+        <v>13.49</v>
       </c>
       <c r="E4">
-        <v>11.91</v>
+        <v>12.5</v>
       </c>
       <c r="F4">
-        <v>10.66</v>
+        <v>11.63</v>
       </c>
       <c r="G4">
-        <v>9.26</v>
+        <v>9.58</v>
       </c>
       <c r="H4">
-        <v>7.37</v>
+        <v>8.469999999999999</v>
       </c>
       <c r="I4">
-        <v>5.44</v>
+        <v>6.87</v>
       </c>
       <c r="J4">
-        <v>4.06</v>
+        <v>4.33</v>
       </c>
       <c r="K4">
-        <v>2.37</v>
+        <v>2.95</v>
       </c>
       <c r="L4">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="M4">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="N4">
-        <v>91.93000000000001</v>
+        <v>91.22999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>9.779999999999999</v>
+        <v>14.11</v>
       </c>
       <c r="C5">
-        <v>11.45</v>
+        <v>15.06</v>
       </c>
       <c r="D5">
-        <v>12.39</v>
+        <v>13.81</v>
       </c>
       <c r="E5">
-        <v>11.99</v>
+        <v>13.44</v>
       </c>
       <c r="F5">
-        <v>12.07</v>
+        <v>11.79</v>
       </c>
       <c r="G5">
-        <v>10.62</v>
+        <v>11.01</v>
       </c>
       <c r="H5">
-        <v>9.68</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="I5">
-        <v>7.91</v>
+        <v>5.86</v>
       </c>
       <c r="J5">
-        <v>6.35</v>
+        <v>3.5</v>
       </c>
       <c r="K5">
-        <v>4.31</v>
+        <v>2.17</v>
       </c>
       <c r="L5">
-        <v>2.36</v>
+        <v>0.65</v>
       </c>
       <c r="M5">
-        <v>1.09</v>
+        <v>0.23</v>
       </c>
       <c r="N5">
-        <v>85.89</v>
+        <v>93.45</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>8.630000000000001</v>
+        <v>10.87</v>
       </c>
       <c r="C6">
-        <v>9.529999999999999</v>
+        <v>12.06</v>
       </c>
       <c r="D6">
-        <v>10.41</v>
+        <v>12.44</v>
       </c>
       <c r="E6">
-        <v>10.49</v>
+        <v>12.81</v>
       </c>
       <c r="F6">
-        <v>10.68</v>
+        <v>12.14</v>
       </c>
       <c r="G6">
-        <v>10.36</v>
+        <v>11.32</v>
       </c>
       <c r="H6">
-        <v>10.73</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I6">
-        <v>9.17</v>
+        <v>8.16</v>
       </c>
       <c r="J6">
-        <v>8.06</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="K6">
-        <v>6.04</v>
+        <v>3.36</v>
       </c>
       <c r="L6">
-        <v>3.74</v>
+        <v>1.55</v>
       </c>
       <c r="M6">
-        <v>2.16</v>
+        <v>0.49</v>
       </c>
       <c r="N6">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>8.290000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="C7">
-        <v>9.26</v>
+        <v>9.379999999999999</v>
       </c>
       <c r="D7">
-        <v>10.77</v>
+        <v>10.88</v>
       </c>
       <c r="E7">
-        <v>10.38</v>
+        <v>11.06</v>
       </c>
       <c r="F7">
-        <v>11.18</v>
+        <v>11.73</v>
       </c>
       <c r="G7">
-        <v>10.62</v>
+        <v>10.98</v>
       </c>
       <c r="H7">
-        <v>10.03</v>
+        <v>11.57</v>
       </c>
       <c r="I7">
-        <v>9.130000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="J7">
-        <v>7.829999999999999</v>
+        <v>6.890000000000001</v>
       </c>
       <c r="K7">
-        <v>5.99</v>
+        <v>5.36</v>
       </c>
       <c r="L7">
-        <v>4.36</v>
+        <v>3.03</v>
       </c>
       <c r="M7">
-        <v>2.16</v>
+        <v>1.19</v>
       </c>
       <c r="N7">
-        <v>79.66</v>
+        <v>83.53</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>6.68</v>
+        <v>5.48</v>
       </c>
       <c r="C8">
-        <v>8.6</v>
+        <v>7.61</v>
       </c>
       <c r="D8">
-        <v>9.33</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E8">
-        <v>11.09</v>
+        <v>10.16</v>
       </c>
       <c r="F8">
-        <v>10.22</v>
+        <v>10.99</v>
       </c>
       <c r="G8">
-        <v>10.22</v>
+        <v>11.48</v>
       </c>
       <c r="H8">
-        <v>10.48</v>
+        <v>11.53</v>
       </c>
       <c r="I8">
-        <v>9.520000000000001</v>
+        <v>11.07</v>
       </c>
       <c r="J8">
-        <v>8.799999999999999</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="K8">
-        <v>6.98</v>
+        <v>6.99</v>
       </c>
       <c r="L8">
-        <v>5.029999999999999</v>
+        <v>4.07</v>
       </c>
       <c r="M8">
-        <v>3.05</v>
+        <v>1.78</v>
       </c>
       <c r="N8">
-        <v>76.14</v>
+        <v>77.27000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>3.13</v>
+        <v>1.94</v>
       </c>
       <c r="C9">
-        <v>5.23</v>
+        <v>3.17</v>
       </c>
       <c r="D9">
-        <v>6.52</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="E9">
-        <v>8.02</v>
+        <v>6.619999999999999</v>
       </c>
       <c r="F9">
-        <v>9.220000000000001</v>
+        <v>7.76</v>
       </c>
       <c r="G9">
-        <v>10.25</v>
+        <v>10.46</v>
       </c>
       <c r="H9">
-        <v>10.45</v>
+        <v>11.88</v>
       </c>
       <c r="I9">
-        <v>11.63</v>
+        <v>12.99</v>
       </c>
       <c r="J9">
-        <v>10.87</v>
+        <v>13.13</v>
       </c>
       <c r="K9">
-        <v>10.48</v>
+        <v>12.76</v>
       </c>
       <c r="L9">
-        <v>8.34</v>
+        <v>9.27</v>
       </c>
       <c r="M9">
-        <v>5.86</v>
+        <v>5.62</v>
       </c>
       <c r="N9">
-        <v>64.44999999999999</v>
+        <v>59.22</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1978,175 +1993,175 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.54</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>3.72</v>
+        <v>1.72</v>
       </c>
       <c r="D10">
-        <v>5.27</v>
+        <v>2.68</v>
       </c>
       <c r="E10">
-        <v>6.83</v>
+        <v>4.3</v>
       </c>
       <c r="F10">
-        <v>7.969999999999999</v>
+        <v>5.94</v>
       </c>
       <c r="G10">
-        <v>9.800000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="H10">
-        <v>10.32</v>
+        <v>10.55</v>
       </c>
       <c r="I10">
-        <v>11.87</v>
+        <v>12.95</v>
       </c>
       <c r="J10">
-        <v>12.19</v>
+        <v>15.41</v>
       </c>
       <c r="K10">
-        <v>11.31</v>
+        <v>14.86</v>
       </c>
       <c r="L10">
-        <v>9.869999999999999</v>
+        <v>13.21</v>
       </c>
       <c r="M10">
-        <v>8.309999999999999</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="N10">
-        <v>58.31999999999999</v>
+        <v>46.88</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>0.34</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="C11">
-        <v>0.9199999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="D11">
-        <v>1.36</v>
+        <v>1.99</v>
       </c>
       <c r="E11">
-        <v>1.97</v>
+        <v>3.36</v>
       </c>
       <c r="F11">
-        <v>3.44</v>
+        <v>4.89</v>
       </c>
       <c r="G11">
-        <v>5.13</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="H11">
-        <v>7.46</v>
+        <v>10.13</v>
       </c>
       <c r="I11">
-        <v>10.36</v>
+        <v>12.54</v>
       </c>
       <c r="J11">
-        <v>13.07</v>
+        <v>15.43</v>
       </c>
       <c r="K11">
-        <v>17.01</v>
+        <v>16.21</v>
       </c>
       <c r="L11">
-        <v>19.46</v>
+        <v>15.36</v>
       </c>
       <c r="M11">
-        <v>19.48</v>
+        <v>11.58</v>
       </c>
       <c r="N11">
-        <v>30.98</v>
+        <v>41.42</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="C12">
-        <v>0.58</v>
+        <v>0.13</v>
       </c>
       <c r="D12">
-        <v>1.39</v>
+        <v>0.34</v>
       </c>
       <c r="E12">
-        <v>2.39</v>
+        <v>0.49</v>
       </c>
       <c r="F12">
-        <v>3.24</v>
+        <v>1.29</v>
       </c>
       <c r="G12">
-        <v>4.88</v>
+        <v>2.4</v>
       </c>
       <c r="H12">
-        <v>6.619999999999999</v>
+        <v>4.26</v>
       </c>
       <c r="I12">
-        <v>8.690000000000001</v>
+        <v>6.98</v>
       </c>
       <c r="J12">
-        <v>12.04</v>
+        <v>11.77</v>
       </c>
       <c r="K12">
-        <v>15.19</v>
+        <v>17.04</v>
       </c>
       <c r="L12">
-        <v>19.74</v>
+        <v>23.41</v>
       </c>
       <c r="M12">
-        <v>24.99</v>
+        <v>31.85</v>
       </c>
       <c r="N12">
-        <v>28.04</v>
+        <v>15.93</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B13">
+        <v>0.01</v>
+      </c>
+      <c r="C13">
         <v>0.06999999999999999</v>
       </c>
-      <c r="C13">
-        <v>0.31</v>
-      </c>
       <c r="D13">
-        <v>0.54</v>
+        <v>0.14</v>
       </c>
       <c r="E13">
-        <v>0.66</v>
+        <v>0.33</v>
       </c>
       <c r="F13">
-        <v>1.73</v>
+        <v>0.45</v>
       </c>
       <c r="G13">
-        <v>2.77</v>
+        <v>1.11</v>
       </c>
       <c r="H13">
-        <v>4.16</v>
+        <v>2.42</v>
       </c>
       <c r="I13">
-        <v>6.619999999999999</v>
+        <v>4.93</v>
       </c>
       <c r="J13">
-        <v>10.67</v>
+        <v>9.41</v>
       </c>
       <c r="K13">
-        <v>16.72</v>
+        <v>16.53</v>
       </c>
       <c r="L13">
-        <v>23.98</v>
+        <v>27.43</v>
       </c>
       <c r="M13">
-        <v>31.77</v>
+        <v>37.16999999999999</v>
       </c>
       <c r="N13">
-        <v>16.86</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2164,19 +2179,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2184,19 +2199,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2207,16 +2222,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2224,19 +2239,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2244,19 +2259,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2264,19 +2279,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2284,10 +2299,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2296,7 +2311,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2307,13 +2322,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -2324,19 +2339,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2344,19 +2359,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2364,19 +2379,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2387,16 +2402,16 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>-13</v>
+        <v>-18</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2404,19 +2419,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>-19</v>
+        <v>-23</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2426,68 +2441,80 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
         <v>-1</v>
       </c>
-      <c r="C2">
-        <v>-11</v>
-      </c>
-      <c r="D2">
-        <v>-15</v>
-      </c>
       <c r="E2">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2512,71 +2539,89 @@
       <c r="H3">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>-11</v>
+      </c>
+      <c r="D4">
+        <v>-15</v>
+      </c>
+      <c r="E4">
+        <v>-5</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>-4</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>14</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -2585,54 +2630,66 @@
         <v>0</v>
       </c>
       <c r="D6">
+        <v>-4</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="I6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
+      <c r="I7">
+        <v>-4</v>
+      </c>
+      <c r="J7">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2657,98 +2714,122 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>-3</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>-3</v>
+      </c>
+      <c r="H9">
+        <v>-5</v>
+      </c>
+      <c r="I9">
+        <v>-4</v>
+      </c>
+      <c r="J9">
+        <v>-6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>-5</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>-2</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>5</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>-7</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>-8</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>-3</v>
       </c>
-      <c r="I9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>-3</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>-3</v>
-      </c>
-      <c r="H10">
-        <v>-5</v>
-      </c>
-      <c r="I10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10">
+        <v>-10</v>
+      </c>
+      <c r="J10">
+        <v>-6</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="B11">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="C11">
-        <v>-3</v>
-      </c>
-      <c r="D11">
-        <v>-4</v>
-      </c>
-      <c r="E11">
-        <v>-10</v>
-      </c>
       <c r="F11">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="G11">
-        <v>-5</v>
+        <v>-13</v>
       </c>
       <c r="H11">
-        <v>-9</v>
-      </c>
-      <c r="I11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-19</v>
+      </c>
+      <c r="I11">
+        <v>-14</v>
+      </c>
+      <c r="J11">
+        <v>-12</v>
+      </c>
+      <c r="K11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2773,37 +2854,49 @@
       <c r="H12">
         <v>-13</v>
       </c>
-      <c r="I12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12">
+        <v>-15</v>
+      </c>
+      <c r="J12">
+        <v>-18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="F13">
+        <v>-5</v>
+      </c>
+      <c r="G13">
+        <v>-5</v>
+      </c>
+      <c r="H13">
         <v>-9</v>
       </c>
-      <c r="G13">
-        <v>-13</v>
-      </c>
-      <c r="H13">
-        <v>-19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>61</v>
+      <c r="I13">
+        <v>-17</v>
+      </c>
+      <c r="J13">
+        <v>-23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2821,25 +2914,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2847,25 +2940,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="E2">
-        <v>-5</v>
+        <v>-18</v>
       </c>
       <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2873,25 +2966,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2899,25 +2992,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="F4">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2925,25 +3018,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="F5">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2951,25 +3044,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>-1</v>
-      </c>
       <c r="F6">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2977,25 +3070,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3003,25 +3096,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3029,25 +3122,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="E9">
-        <v>-2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3055,25 +3148,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>-5</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>-4</v>
-      </c>
-      <c r="F10">
-        <v>-8</v>
-      </c>
       <c r="G10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3081,25 +3174,25 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="F11">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
         <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -1638,46 +1638,46 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>25.02</v>
+        <v>14.08</v>
       </c>
       <c r="C2">
-        <v>19.26</v>
+        <v>14.06</v>
       </c>
       <c r="D2">
-        <v>16.72</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="E2">
-        <v>11.84</v>
+        <v>9.15</v>
       </c>
       <c r="F2">
-        <v>9.9</v>
+        <v>14.59</v>
       </c>
       <c r="G2">
-        <v>7.140000000000001</v>
+        <v>9.43</v>
       </c>
       <c r="H2">
-        <v>4.84</v>
+        <v>2.67</v>
       </c>
       <c r="I2">
-        <v>2.91</v>
+        <v>5.970000000000001</v>
       </c>
       <c r="J2">
-        <v>1.63</v>
+        <v>9.049999999999999</v>
       </c>
       <c r="K2">
-        <v>0.46</v>
+        <v>5.45</v>
       </c>
       <c r="L2">
-        <v>0.23</v>
+        <v>3.68</v>
       </c>
       <c r="M2">
-        <v>0.05</v>
+        <v>3.66</v>
       </c>
       <c r="N2">
-        <v>97.63</v>
+        <v>78.16</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1685,263 +1685,263 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>18.55</v>
+        <v>13.19</v>
       </c>
       <c r="C3">
-        <v>16.6</v>
+        <v>13.6</v>
       </c>
       <c r="D3">
-        <v>14.16</v>
+        <v>12.13</v>
       </c>
       <c r="E3">
-        <v>13.09</v>
+        <v>6.41</v>
       </c>
       <c r="F3">
-        <v>11.49</v>
+        <v>11.19</v>
       </c>
       <c r="G3">
-        <v>9.379999999999999</v>
+        <v>14.23</v>
       </c>
       <c r="H3">
-        <v>6.78</v>
+        <v>6.48</v>
       </c>
       <c r="I3">
-        <v>4.93</v>
+        <v>3.89</v>
       </c>
       <c r="J3">
-        <v>3.01</v>
+        <v>6.99</v>
       </c>
       <c r="K3">
-        <v>1.31</v>
+        <v>5.86</v>
       </c>
       <c r="L3">
-        <v>0.63</v>
+        <v>3.24</v>
       </c>
       <c r="M3">
-        <v>0.06999999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="N3">
-        <v>94.98</v>
+        <v>81.12</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>14.7</v>
+        <v>13.1</v>
       </c>
       <c r="C4">
-        <v>13.99</v>
+        <v>12.94</v>
       </c>
       <c r="D4">
-        <v>13.49</v>
+        <v>15.63</v>
       </c>
       <c r="E4">
-        <v>12.5</v>
+        <v>11.64</v>
       </c>
       <c r="F4">
-        <v>11.63</v>
+        <v>6.75</v>
       </c>
       <c r="G4">
-        <v>9.58</v>
+        <v>12.01</v>
       </c>
       <c r="H4">
-        <v>8.469999999999999</v>
+        <v>10.44</v>
       </c>
       <c r="I4">
-        <v>6.87</v>
+        <v>4.04</v>
       </c>
       <c r="J4">
-        <v>4.33</v>
+        <v>4.49</v>
       </c>
       <c r="K4">
-        <v>2.95</v>
+        <v>5.09</v>
       </c>
       <c r="L4">
-        <v>1.16</v>
+        <v>2.34</v>
       </c>
       <c r="M4">
-        <v>0.33</v>
+        <v>1.53</v>
       </c>
       <c r="N4">
-        <v>91.22999999999999</v>
+        <v>86.55</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>14.11</v>
+        <v>11.57</v>
       </c>
       <c r="C5">
-        <v>15.06</v>
+        <v>10.47</v>
       </c>
       <c r="D5">
-        <v>13.81</v>
+        <v>6.64</v>
       </c>
       <c r="E5">
-        <v>13.44</v>
+        <v>11.24</v>
       </c>
       <c r="F5">
-        <v>11.79</v>
+        <v>13.87</v>
       </c>
       <c r="G5">
-        <v>11.01</v>
+        <v>5.87</v>
       </c>
       <c r="H5">
-        <v>8.369999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="I5">
-        <v>5.86</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="J5">
-        <v>3.5</v>
+        <v>11.25</v>
       </c>
       <c r="K5">
-        <v>2.17</v>
+        <v>5.18</v>
       </c>
       <c r="L5">
-        <v>0.65</v>
+        <v>5.11</v>
       </c>
       <c r="M5">
-        <v>0.23</v>
+        <v>6.069999999999999</v>
       </c>
       <c r="N5">
-        <v>93.45</v>
+        <v>72.39</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>10.87</v>
+        <v>10.82</v>
       </c>
       <c r="C6">
-        <v>12.06</v>
+        <v>8.35</v>
       </c>
       <c r="D6">
-        <v>12.44</v>
+        <v>6.54</v>
       </c>
       <c r="E6">
-        <v>12.81</v>
+        <v>12.92</v>
       </c>
       <c r="F6">
-        <v>12.14</v>
+        <v>11.19</v>
       </c>
       <c r="G6">
-        <v>11.32</v>
+        <v>3.83</v>
       </c>
       <c r="H6">
-        <v>9.199999999999999</v>
+        <v>5.24</v>
       </c>
       <c r="I6">
-        <v>8.16</v>
+        <v>12.37</v>
       </c>
       <c r="J6">
-        <v>5.600000000000001</v>
+        <v>10.35</v>
       </c>
       <c r="K6">
-        <v>3.36</v>
+        <v>4.72</v>
       </c>
       <c r="L6">
-        <v>1.55</v>
+        <v>6.76</v>
       </c>
       <c r="M6">
-        <v>0.49</v>
+        <v>6.909999999999999</v>
       </c>
       <c r="N6">
-        <v>89</v>
+        <v>71.25999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>8.119999999999999</v>
+        <v>10.24</v>
       </c>
       <c r="C7">
-        <v>9.379999999999999</v>
+        <v>11.99</v>
       </c>
       <c r="D7">
-        <v>10.88</v>
+        <v>8.790000000000001</v>
       </c>
       <c r="E7">
-        <v>11.06</v>
+        <v>6.52</v>
       </c>
       <c r="F7">
-        <v>11.73</v>
+        <v>13.9</v>
       </c>
       <c r="G7">
-        <v>10.98</v>
+        <v>12.33</v>
       </c>
       <c r="H7">
-        <v>11.57</v>
+        <v>4.55</v>
       </c>
       <c r="I7">
-        <v>9.81</v>
+        <v>6.069999999999999</v>
       </c>
       <c r="J7">
+        <v>10.06</v>
+      </c>
+      <c r="K7">
         <v>6.890000000000001</v>
       </c>
-      <c r="K7">
-        <v>5.36</v>
-      </c>
       <c r="L7">
-        <v>3.03</v>
+        <v>4.5</v>
       </c>
       <c r="M7">
-        <v>1.19</v>
+        <v>4.16</v>
       </c>
       <c r="N7">
-        <v>83.53</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>5.48</v>
+        <v>9.48</v>
       </c>
       <c r="C8">
-        <v>7.61</v>
+        <v>11.57</v>
       </c>
       <c r="D8">
-        <v>8.949999999999999</v>
+        <v>13.91</v>
       </c>
       <c r="E8">
-        <v>10.16</v>
+        <v>7.52</v>
       </c>
       <c r="F8">
-        <v>10.99</v>
+        <v>7.95</v>
       </c>
       <c r="G8">
-        <v>11.48</v>
+        <v>14.5</v>
       </c>
       <c r="H8">
-        <v>11.53</v>
+        <v>9.44</v>
       </c>
       <c r="I8">
-        <v>11.07</v>
+        <v>4.49</v>
       </c>
       <c r="J8">
-        <v>9.890000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="K8">
-        <v>6.99</v>
+        <v>6.63</v>
       </c>
       <c r="L8">
-        <v>4.07</v>
+        <v>3.76</v>
       </c>
       <c r="M8">
-        <v>1.78</v>
+        <v>3.15</v>
       </c>
       <c r="N8">
-        <v>77.27000000000001</v>
+        <v>78.86</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1949,43 +1949,43 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>1.94</v>
+        <v>6.909999999999999</v>
       </c>
       <c r="C9">
-        <v>3.17</v>
+        <v>5.38</v>
       </c>
       <c r="D9">
-        <v>4.399999999999999</v>
+        <v>6.859999999999999</v>
       </c>
       <c r="E9">
-        <v>6.619999999999999</v>
+        <v>11.32</v>
       </c>
       <c r="F9">
-        <v>7.76</v>
+        <v>7.41</v>
       </c>
       <c r="G9">
-        <v>10.46</v>
+        <v>2.75</v>
       </c>
       <c r="H9">
-        <v>11.88</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I9">
-        <v>12.99</v>
+        <v>15.65</v>
       </c>
       <c r="J9">
-        <v>13.13</v>
+        <v>8.309999999999999</v>
       </c>
       <c r="K9">
-        <v>12.76</v>
+        <v>6.239999999999999</v>
       </c>
       <c r="L9">
-        <v>9.27</v>
+        <v>10.3</v>
       </c>
       <c r="M9">
-        <v>5.62</v>
+        <v>10.15</v>
       </c>
       <c r="N9">
-        <v>59.22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1993,43 +1993,43 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>4.91</v>
       </c>
       <c r="C10">
-        <v>1.72</v>
+        <v>4.21</v>
       </c>
       <c r="D10">
-        <v>2.68</v>
+        <v>7.430000000000001</v>
       </c>
       <c r="E10">
-        <v>4.3</v>
+        <v>9.74</v>
       </c>
       <c r="F10">
-        <v>5.94</v>
+        <v>4.6</v>
       </c>
       <c r="G10">
-        <v>8.140000000000001</v>
+        <v>3.69</v>
       </c>
       <c r="H10">
-        <v>10.55</v>
+        <v>11.84</v>
       </c>
       <c r="I10">
-        <v>12.95</v>
+        <v>13.83</v>
       </c>
       <c r="J10">
-        <v>15.41</v>
+        <v>6.59</v>
       </c>
       <c r="K10">
-        <v>14.86</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="L10">
-        <v>13.21</v>
+        <v>12.39</v>
       </c>
       <c r="M10">
-        <v>9.640000000000001</v>
+        <v>12.49</v>
       </c>
       <c r="N10">
-        <v>46.88</v>
+        <v>60.25</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2037,43 +2037,43 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>0.5599999999999999</v>
+        <v>3.85</v>
       </c>
       <c r="C11">
-        <v>0.95</v>
+        <v>4.12</v>
       </c>
       <c r="D11">
-        <v>1.99</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="E11">
-        <v>3.36</v>
+        <v>7.290000000000001</v>
       </c>
       <c r="F11">
-        <v>4.89</v>
+        <v>3.78</v>
       </c>
       <c r="G11">
-        <v>7.000000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="H11">
-        <v>10.13</v>
+        <v>14.72</v>
       </c>
       <c r="I11">
-        <v>12.54</v>
+        <v>11.17</v>
       </c>
       <c r="J11">
-        <v>15.43</v>
+        <v>5.66</v>
       </c>
       <c r="K11">
-        <v>16.21</v>
+        <v>11.1</v>
       </c>
       <c r="L11">
-        <v>15.36</v>
+        <v>13.11</v>
       </c>
       <c r="M11">
-        <v>11.58</v>
+        <v>11.72</v>
       </c>
       <c r="N11">
-        <v>41.42</v>
+        <v>58.41</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2081,43 +2081,43 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0.04</v>
+        <v>1.15</v>
       </c>
       <c r="C12">
-        <v>0.13</v>
+        <v>2.02</v>
       </c>
       <c r="D12">
-        <v>0.34</v>
+        <v>4.06</v>
       </c>
       <c r="E12">
-        <v>0.49</v>
+        <v>3.8</v>
       </c>
       <c r="F12">
-        <v>1.29</v>
+        <v>2.31</v>
       </c>
       <c r="G12">
-        <v>2.4</v>
+        <v>7.6</v>
       </c>
       <c r="H12">
-        <v>4.26</v>
+        <v>12.6</v>
       </c>
       <c r="I12">
-        <v>6.98</v>
+        <v>7.109999999999999</v>
       </c>
       <c r="J12">
-        <v>11.77</v>
+        <v>7.489999999999999</v>
       </c>
       <c r="K12">
-        <v>17.04</v>
+        <v>16.6</v>
       </c>
       <c r="L12">
-        <v>23.41</v>
+        <v>16.54</v>
       </c>
       <c r="M12">
-        <v>31.85</v>
+        <v>18.72</v>
       </c>
       <c r="N12">
-        <v>15.93</v>
+        <v>40.65</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2125,43 +2125,43 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>0.01</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C13">
-        <v>0.06999999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="D13">
-        <v>0.14</v>
+        <v>2.62</v>
       </c>
       <c r="E13">
-        <v>0.33</v>
+        <v>2.45</v>
       </c>
       <c r="F13">
-        <v>0.45</v>
+        <v>2.46</v>
       </c>
       <c r="G13">
-        <v>1.11</v>
+        <v>7.46</v>
       </c>
       <c r="H13">
-        <v>2.42</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="I13">
-        <v>4.93</v>
+        <v>6.279999999999999</v>
       </c>
       <c r="J13">
-        <v>9.41</v>
+        <v>12.16</v>
       </c>
       <c r="K13">
-        <v>16.53</v>
+        <v>17.96</v>
       </c>
       <c r="L13">
-        <v>27.43</v>
+        <v>18.27</v>
       </c>
       <c r="M13">
-        <v>37.16999999999999</v>
+        <v>18.65</v>
       </c>
       <c r="N13">
-        <v>9.460000000000001</v>
+        <v>32.96</v>
       </c>
     </row>
   </sheetData>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="83">
   <si>
     <t>CHUBBER</t>
   </si>
@@ -58,28 +58,31 @@
     <t>DadBods 69ers</t>
   </si>
   <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>8-2-0</t>
+  </si>
+  <si>
+    <t>1-9-0</t>
+  </si>
+  <si>
+    <t>9-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -154,13 +157,19 @@
     <t>lawrence wallach</t>
   </si>
   <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
+    <t>Gabe Musty</t>
+  </si>
+  <si>
     <t>Kari Dickert</t>
   </si>
   <si>
-    <t>Gabe Musty</t>
-  </si>
-  <si>
-    <t>Jackson Jansorn</t>
+    <t>Zach Wallach</t>
+  </si>
+  <si>
+    <t>Matt Wallach</t>
   </si>
   <si>
     <t>Michael Dickert</t>
@@ -169,54 +178,48 @@
     <t>Louis Rodriguez</t>
   </si>
   <si>
-    <t>Matt Wallach</t>
-  </si>
-  <si>
-    <t>Zach Wallach</t>
+    <t>Jordan Wallach</t>
   </si>
   <si>
     <t>Ted Wallach</t>
   </si>
   <si>
-    <t>Jordan Wallach</t>
-  </si>
-  <si>
     <t>Noah Wallach</t>
   </si>
   <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↓11</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -242,6 +245,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -672,7 +678,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -693,16 +699,16 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -713,7 +719,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -734,16 +740,16 @@
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -754,37 +760,37 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
         <v>15</v>
-      </c>
-      <c r="M4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -795,37 +801,37 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -836,37 +842,37 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
       <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
       <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>14</v>
       </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -877,37 +883,37 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
       </c>
       <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" t="s">
         <v>14</v>
       </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
-      </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -918,7 +924,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -939,16 +945,16 @@
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -959,13 +965,13 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -980,16 +986,16 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1027,10 +1033,10 @@
         <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1038,40 +1044,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" t="s">
         <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1150,10 +1156,10 @@
         <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1171,13 +1177,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1185,13 +1191,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>3.916666666666667</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1199,13 +1205,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3.916666666666667</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1213,10 +1219,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>4.083333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -1227,10 +1233,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>4.166666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1241,13 +1247,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>4.25</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1255,13 +1261,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>4.333333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1269,13 +1275,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>4.5</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1283,13 +1289,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>4.5</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1297,13 +1303,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1311,13 +1317,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>4.916666666666667</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1325,13 +1331,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1342,10 +1348,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>5.666666666666667</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1363,16 +1369,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1380,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="D2">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1400,10 +1406,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5.666666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D3">
-        <v>0.666666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1414,13 +1420,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>5.583333333333333</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>-0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1431,16 +1437,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>5.583333333333333</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D5">
-        <v>1.583333333333333</v>
+        <v>-2.083333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1448,16 +1454,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>5.166666666666667</v>
+        <v>5.75</v>
       </c>
       <c r="D6">
-        <v>0.166666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1468,10 +1474,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5.083333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D7">
-        <v>0.08333333333333304</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -1482,13 +1488,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>4.166666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D8">
-        <v>-0.833333333333333</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -1502,13 +1508,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3.916666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="D9">
-        <v>-0.08333333333333348</v>
+        <v>-0.75</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1516,16 +1522,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>3.833333333333333</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D10">
-        <v>-0.1666666666666665</v>
+        <v>-0.833333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1536,13 +1542,13 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>3.416666666666667</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D11">
-        <v>0.4166666666666665</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1553,10 +1559,10 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1570,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.833333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D13">
-        <v>-0.1666666666666665</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1594,46 +1600,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1641,395 +1647,395 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>14.08</v>
+        <v>13.27</v>
       </c>
       <c r="C2">
-        <v>14.06</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="D2">
-        <v>8.210000000000001</v>
+        <v>15.84</v>
       </c>
       <c r="E2">
-        <v>9.15</v>
+        <v>12.64</v>
       </c>
       <c r="F2">
-        <v>14.59</v>
+        <v>3.14</v>
       </c>
       <c r="G2">
-        <v>9.43</v>
+        <v>4.29</v>
       </c>
       <c r="H2">
-        <v>2.67</v>
+        <v>12.99</v>
       </c>
       <c r="I2">
-        <v>5.970000000000001</v>
+        <v>11.16</v>
       </c>
       <c r="J2">
-        <v>9.049999999999999</v>
+        <v>3.62</v>
       </c>
       <c r="K2">
-        <v>5.45</v>
+        <v>3.92</v>
       </c>
       <c r="L2">
-        <v>3.68</v>
+        <v>5.41</v>
       </c>
       <c r="M2">
-        <v>3.66</v>
+        <v>3.75</v>
       </c>
       <c r="N2">
-        <v>78.16</v>
+        <v>83.30000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>13.19</v>
+        <v>11.49</v>
       </c>
       <c r="C3">
-        <v>13.6</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="D3">
-        <v>12.13</v>
+        <v>13.76</v>
       </c>
       <c r="E3">
-        <v>6.41</v>
+        <v>15.5</v>
       </c>
       <c r="F3">
-        <v>11.19</v>
+        <v>6.18</v>
       </c>
       <c r="G3">
-        <v>14.23</v>
+        <v>2.77</v>
       </c>
       <c r="H3">
-        <v>6.48</v>
+        <v>9.68</v>
       </c>
       <c r="I3">
-        <v>3.89</v>
+        <v>13.48</v>
       </c>
       <c r="J3">
-        <v>6.99</v>
+        <v>5.53</v>
       </c>
       <c r="K3">
-        <v>5.86</v>
+        <v>3.15</v>
       </c>
       <c r="L3">
-        <v>3.24</v>
+        <v>5.510000000000001</v>
       </c>
       <c r="M3">
-        <v>2.79</v>
+        <v>3.66</v>
       </c>
       <c r="N3">
-        <v>81.12</v>
+        <v>82.15000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>13.1</v>
+        <v>11.11</v>
       </c>
       <c r="C4">
-        <v>12.94</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D4">
-        <v>15.63</v>
+        <v>10.78</v>
       </c>
       <c r="E4">
-        <v>11.64</v>
+        <v>17.29</v>
       </c>
       <c r="F4">
-        <v>6.75</v>
+        <v>10.72</v>
       </c>
       <c r="G4">
-        <v>12.01</v>
+        <v>3.05</v>
       </c>
       <c r="H4">
-        <v>10.44</v>
+        <v>7.16</v>
       </c>
       <c r="I4">
-        <v>4.04</v>
+        <v>12.3</v>
       </c>
       <c r="J4">
-        <v>4.49</v>
+        <v>7.08</v>
       </c>
       <c r="K4">
-        <v>5.09</v>
+        <v>3.09</v>
       </c>
       <c r="L4">
-        <v>2.34</v>
+        <v>4.35</v>
       </c>
       <c r="M4">
-        <v>1.53</v>
+        <v>3.18</v>
       </c>
       <c r="N4">
-        <v>86.55</v>
+        <v>82.30000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>11.57</v>
+        <v>10.94</v>
       </c>
       <c r="C5">
-        <v>10.47</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D5">
-        <v>6.64</v>
+        <v>13.8</v>
       </c>
       <c r="E5">
-        <v>11.24</v>
+        <v>7.69</v>
       </c>
       <c r="F5">
-        <v>13.87</v>
+        <v>2.14</v>
       </c>
       <c r="G5">
-        <v>5.87</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="H5">
-        <v>3.6</v>
+        <v>15.96</v>
       </c>
       <c r="I5">
-        <v>9.130000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="J5">
-        <v>11.25</v>
+        <v>2.8</v>
       </c>
       <c r="K5">
-        <v>5.18</v>
+        <v>5.65</v>
       </c>
       <c r="L5">
-        <v>5.11</v>
+        <v>7.539999999999999</v>
       </c>
       <c r="M5">
-        <v>6.069999999999999</v>
+        <v>5.92</v>
       </c>
       <c r="N5">
-        <v>72.39</v>
+        <v>78.09</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>10.82</v>
+        <v>9.51</v>
       </c>
       <c r="C6">
-        <v>8.35</v>
+        <v>11.1</v>
       </c>
       <c r="D6">
+        <v>7.56</v>
+      </c>
+      <c r="E6">
+        <v>2.9</v>
+      </c>
+      <c r="F6">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G6">
+        <v>17.28</v>
+      </c>
+      <c r="H6">
+        <v>7.870000000000001</v>
+      </c>
+      <c r="I6">
+        <v>2.08</v>
+      </c>
+      <c r="J6">
+        <v>5.77</v>
+      </c>
+      <c r="K6">
+        <v>11.14</v>
+      </c>
+      <c r="L6">
+        <v>8.450000000000001</v>
+      </c>
+      <c r="M6">
         <v>6.54</v>
       </c>
-      <c r="E6">
-        <v>12.92</v>
-      </c>
-      <c r="F6">
-        <v>11.19</v>
-      </c>
-      <c r="G6">
-        <v>3.83</v>
-      </c>
-      <c r="H6">
-        <v>5.24</v>
-      </c>
-      <c r="I6">
-        <v>12.37</v>
-      </c>
-      <c r="J6">
-        <v>10.35</v>
-      </c>
-      <c r="K6">
-        <v>4.72</v>
-      </c>
-      <c r="L6">
-        <v>6.76</v>
-      </c>
-      <c r="M6">
-        <v>6.909999999999999</v>
-      </c>
       <c r="N6">
-        <v>71.25999999999999</v>
+        <v>68.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>10.24</v>
+        <v>8.93</v>
       </c>
       <c r="C7">
-        <v>11.99</v>
+        <v>10.74</v>
       </c>
       <c r="D7">
-        <v>8.790000000000001</v>
+        <v>7.670000000000001</v>
       </c>
       <c r="E7">
-        <v>6.52</v>
+        <v>16.08</v>
       </c>
       <c r="F7">
-        <v>13.9</v>
+        <v>15.18</v>
       </c>
       <c r="G7">
-        <v>12.33</v>
+        <v>4.91</v>
       </c>
       <c r="H7">
-        <v>4.55</v>
+        <v>4.81</v>
       </c>
       <c r="I7">
-        <v>6.069999999999999</v>
+        <v>11.59</v>
       </c>
       <c r="J7">
-        <v>10.06</v>
+        <v>8.91</v>
       </c>
       <c r="K7">
-        <v>6.890000000000001</v>
+        <v>3.73</v>
       </c>
       <c r="L7">
-        <v>4.5</v>
+        <v>4.21</v>
       </c>
       <c r="M7">
-        <v>4.16</v>
+        <v>3.24</v>
       </c>
       <c r="N7">
-        <v>74.39</v>
+        <v>79.91</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>9.48</v>
+        <v>8.709999999999999</v>
       </c>
       <c r="C8">
-        <v>11.57</v>
+        <v>10.93</v>
       </c>
       <c r="D8">
-        <v>13.91</v>
+        <v>11.32</v>
       </c>
       <c r="E8">
-        <v>7.52</v>
+        <v>4.29</v>
       </c>
       <c r="F8">
-        <v>7.95</v>
+        <v>3.51</v>
       </c>
       <c r="G8">
-        <v>14.5</v>
+        <v>12.55</v>
       </c>
       <c r="H8">
-        <v>9.44</v>
+        <v>15.88</v>
       </c>
       <c r="I8">
-        <v>4.49</v>
+        <v>5.680000000000001</v>
       </c>
       <c r="J8">
-        <v>7.6</v>
+        <v>2.88</v>
       </c>
       <c r="K8">
-        <v>6.63</v>
+        <v>8.07</v>
       </c>
       <c r="L8">
-        <v>3.76</v>
+        <v>8.559999999999999</v>
       </c>
       <c r="M8">
-        <v>3.15</v>
+        <v>7.62</v>
       </c>
       <c r="N8">
-        <v>78.86</v>
+        <v>72.87</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>6.909999999999999</v>
+        <v>8.23</v>
       </c>
       <c r="C9">
-        <v>5.38</v>
+        <v>10.07</v>
       </c>
       <c r="D9">
-        <v>6.859999999999999</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="E9">
-        <v>11.32</v>
+        <v>2.96</v>
       </c>
       <c r="F9">
-        <v>7.41</v>
+        <v>5.76</v>
       </c>
       <c r="G9">
-        <v>2.75</v>
+        <v>16.89</v>
       </c>
       <c r="H9">
-        <v>8.720000000000001</v>
+        <v>12.64</v>
       </c>
       <c r="I9">
-        <v>15.65</v>
+        <v>2.81</v>
       </c>
       <c r="J9">
-        <v>8.309999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="K9">
-        <v>6.239999999999999</v>
+        <v>10.34</v>
       </c>
       <c r="L9">
-        <v>10.3</v>
+        <v>9.58</v>
       </c>
       <c r="M9">
-        <v>10.15</v>
+        <v>8.15</v>
       </c>
       <c r="N9">
-        <v>65</v>
+        <v>67.73</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>4.91</v>
+        <v>8.09</v>
       </c>
       <c r="C10">
-        <v>4.21</v>
+        <v>8.309999999999999</v>
       </c>
       <c r="D10">
-        <v>7.430000000000001</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="E10">
-        <v>9.74</v>
+        <v>3.91</v>
       </c>
       <c r="F10">
-        <v>4.6</v>
+        <v>13.99</v>
       </c>
       <c r="G10">
-        <v>3.69</v>
+        <v>13.31</v>
       </c>
       <c r="H10">
-        <v>11.84</v>
+        <v>4.35</v>
       </c>
       <c r="I10">
-        <v>13.83</v>
+        <v>2.59</v>
       </c>
       <c r="J10">
-        <v>6.59</v>
+        <v>9.84</v>
       </c>
       <c r="K10">
-        <v>8.279999999999999</v>
+        <v>13.48</v>
       </c>
       <c r="L10">
-        <v>12.39</v>
+        <v>7.630000000000001</v>
       </c>
       <c r="M10">
-        <v>12.49</v>
+        <v>10.1</v>
       </c>
       <c r="N10">
-        <v>60.25</v>
+        <v>58.94999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2037,43 +2043,43 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>3.85</v>
+        <v>6.32</v>
       </c>
       <c r="C11">
-        <v>4.12</v>
+        <v>6.48</v>
       </c>
       <c r="D11">
-        <v>7.180000000000001</v>
+        <v>3.38</v>
       </c>
       <c r="E11">
-        <v>7.290000000000001</v>
+        <v>6.18</v>
       </c>
       <c r="F11">
-        <v>3.78</v>
+        <v>13.6</v>
       </c>
       <c r="G11">
-        <v>6.3</v>
+        <v>9.69</v>
       </c>
       <c r="H11">
-        <v>14.72</v>
+        <v>2.25</v>
       </c>
       <c r="I11">
-        <v>11.17</v>
+        <v>5.04</v>
       </c>
       <c r="J11">
-        <v>5.66</v>
+        <v>14.07</v>
       </c>
       <c r="K11">
-        <v>11.1</v>
+        <v>13.97</v>
       </c>
       <c r="L11">
-        <v>13.11</v>
+        <v>7.26</v>
       </c>
       <c r="M11">
-        <v>11.72</v>
+        <v>11.76</v>
       </c>
       <c r="N11">
-        <v>58.41</v>
+        <v>52.94</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2081,43 +2087,43 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>1.15</v>
+        <v>2.17</v>
       </c>
       <c r="C12">
+        <v>2.19</v>
+      </c>
+      <c r="D12">
+        <v>1.74</v>
+      </c>
+      <c r="E12">
+        <v>5.48</v>
+      </c>
+      <c r="F12">
+        <v>9.030000000000001</v>
+      </c>
+      <c r="G12">
+        <v>4.21</v>
+      </c>
+      <c r="H12">
         <v>2.02</v>
       </c>
-      <c r="D12">
-        <v>4.06</v>
-      </c>
-      <c r="E12">
-        <v>3.8</v>
-      </c>
-      <c r="F12">
-        <v>2.31</v>
-      </c>
-      <c r="G12">
-        <v>7.6</v>
-      </c>
-      <c r="H12">
-        <v>12.6</v>
-      </c>
       <c r="I12">
-        <v>7.109999999999999</v>
+        <v>10.28</v>
       </c>
       <c r="J12">
-        <v>7.489999999999999</v>
+        <v>17.82</v>
       </c>
       <c r="K12">
-        <v>16.6</v>
+        <v>12.34</v>
       </c>
       <c r="L12">
-        <v>16.54</v>
+        <v>12.81</v>
       </c>
       <c r="M12">
-        <v>18.72</v>
+        <v>19.91</v>
       </c>
       <c r="N12">
-        <v>40.65</v>
+        <v>37.12</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2125,43 +2131,43 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>0.7000000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="C13">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="D13">
-        <v>2.62</v>
+        <v>1.38</v>
       </c>
       <c r="E13">
-        <v>2.45</v>
+        <v>5.08</v>
       </c>
       <c r="F13">
-        <v>2.46</v>
+        <v>6.950000000000001</v>
       </c>
       <c r="G13">
-        <v>7.46</v>
+        <v>2.85</v>
       </c>
       <c r="H13">
-        <v>9.700000000000001</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="I13">
-        <v>6.279999999999999</v>
+        <v>13.16</v>
       </c>
       <c r="J13">
-        <v>12.16</v>
+        <v>17.48</v>
       </c>
       <c r="K13">
-        <v>17.96</v>
+        <v>11.12</v>
       </c>
       <c r="L13">
-        <v>18.27</v>
+        <v>18.69</v>
       </c>
       <c r="M13">
-        <v>18.65</v>
+        <v>16.17</v>
       </c>
       <c r="N13">
-        <v>32.96</v>
+        <v>36.54</v>
       </c>
     </row>
   </sheetData>
@@ -2179,19 +2185,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2202,16 +2208,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2222,16 +2228,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2239,19 +2245,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2262,7 +2268,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -2271,7 +2277,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2279,19 +2285,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2299,19 +2305,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2319,19 +2325,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2339,19 +2345,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2359,19 +2365,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2379,19 +2385,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2399,19 +2405,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2422,16 +2428,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13">
-        <v>-23</v>
+        <v>-20</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2441,45 +2447,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>75</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2510,11 +2519,14 @@
       <c r="J2">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2545,46 +2557,52 @@
       <c r="J3">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-15</v>
+        <v>-4</v>
       </c>
       <c r="E4">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I4">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2615,256 +2633,280 @@
       <c r="J5">
         <v>12</v>
       </c>
-      <c r="K5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="D6">
-        <v>-4</v>
+        <v>-15</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J6">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>-7</v>
+      </c>
+      <c r="G7">
+        <v>-8</v>
+      </c>
+      <c r="H7">
+        <v>-3</v>
+      </c>
+      <c r="I7">
+        <v>-10</v>
+      </c>
+      <c r="J7">
+        <v>-6</v>
+      </c>
+      <c r="K7">
+        <v>-1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="B8">
+        <v>-3</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>-3</v>
+      </c>
+      <c r="H8">
+        <v>-5</v>
+      </c>
+      <c r="I8">
+        <v>-4</v>
+      </c>
+      <c r="J8">
+        <v>-6</v>
+      </c>
+      <c r="K8">
+        <v>-4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="H7">
+      <c r="H9">
         <v>2</v>
-      </c>
-      <c r="I7">
-        <v>-4</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8">
-        <v>-9</v>
-      </c>
-      <c r="D8">
-        <v>-8</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>-3</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>-3</v>
-      </c>
-      <c r="H9">
-        <v>-5</v>
       </c>
       <c r="I9">
         <v>-4</v>
       </c>
       <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>-8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-9</v>
+      </c>
+      <c r="D10">
+        <v>-8</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>-11</v>
+      </c>
+      <c r="L10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>-3</v>
+      </c>
+      <c r="F11">
         <v>-6</v>
       </c>
-      <c r="K9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
+      <c r="G11">
+        <v>-8</v>
+      </c>
+      <c r="H11">
+        <v>-13</v>
+      </c>
+      <c r="I11">
+        <v>-15</v>
+      </c>
+      <c r="J11">
+        <v>-18</v>
+      </c>
+      <c r="K11">
+        <v>-14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>-5</v>
-      </c>
-      <c r="C10">
-        <v>-2</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>-7</v>
-      </c>
-      <c r="G10">
-        <v>-8</v>
-      </c>
-      <c r="H10">
-        <v>-3</v>
-      </c>
-      <c r="I10">
-        <v>-10</v>
-      </c>
-      <c r="J10">
-        <v>-6</v>
-      </c>
-      <c r="K10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="F12">
         <v>-9</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>-13</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>-19</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>-14</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>-12</v>
       </c>
-      <c r="K11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>-1</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>-3</v>
-      </c>
-      <c r="F12">
-        <v>-6</v>
-      </c>
-      <c r="G12">
-        <v>-8</v>
-      </c>
-      <c r="H12">
-        <v>-13</v>
-      </c>
-      <c r="I12">
-        <v>-15</v>
-      </c>
-      <c r="J12">
-        <v>-18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12">
+        <v>-17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2895,8 +2937,11 @@
       <c r="J13">
         <v>-23</v>
       </c>
-      <c r="K13" t="s">
-        <v>64</v>
+      <c r="K13">
+        <v>-20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2951,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2914,25 +2959,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2966,25 +3011,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>-17</v>
+      </c>
+      <c r="G3">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
         <v>1</v>
-      </c>
-      <c r="F3">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2992,25 +3037,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3018,25 +3063,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
         <v>-4</v>
       </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
       <c r="G5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3044,25 +3089,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="F6">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3070,25 +3115,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3096,25 +3141,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
         <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3122,25 +3167,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>-12</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3151,48 +3196,22 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
         <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>-5</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="86">
   <si>
     <t>CHUBBER</t>
   </si>
@@ -58,31 +58,34 @@
     <t>DadBods 69ers</t>
   </si>
   <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
-  </si>
-  <si>
-    <t>1-9-0</t>
-  </si>
-  <si>
-    <t>9-1-0</t>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>1-10-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>10-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -151,75 +154,78 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>lawrence wallach</t>
+  </si>
+  <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
     <t>Diana Wallach</t>
   </si>
   <si>
-    <t>lawrence wallach</t>
-  </si>
-  <si>
-    <t>Jackson Jansorn</t>
+    <t>Kari Dickert</t>
   </si>
   <si>
     <t>Gabe Musty</t>
   </si>
   <si>
-    <t>Kari Dickert</t>
-  </si>
-  <si>
     <t>Zach Wallach</t>
   </si>
   <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>Michael Dickert</t>
+  </si>
+  <si>
+    <t>Ted Wallach</t>
+  </si>
+  <si>
     <t>Matt Wallach</t>
   </si>
   <si>
-    <t>Michael Dickert</t>
-  </si>
-  <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
     <t>Jordan Wallach</t>
   </si>
   <si>
-    <t>Ted Wallach</t>
-  </si>
-  <si>
     <t>Noah Wallach</t>
   </si>
   <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
     <t>↑5</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑2</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓11</t>
+  </si>
+  <si>
+    <t>↓4</t>
   </si>
   <si>
     <t>↓9</t>
   </si>
   <si>
-    <t>↓11</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -248,6 +254,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -678,37 +687,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -719,7 +728,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -728,7 +737,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -746,7 +755,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
         <v>14</v>
@@ -760,7 +769,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -769,10 +778,10 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -787,10 +796,10 @@
         <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -798,40 +807,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -857,7 +866,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
@@ -883,7 +892,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -913,7 +922,7 @@
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -924,37 +933,37 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" t="s">
+      <c r="K8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
         <v>14</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -965,7 +974,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -974,10 +983,10 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -986,16 +995,16 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1006,7 +1015,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1015,7 +1024,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
@@ -1033,7 +1042,7 @@
         <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
         <v>15</v>
@@ -1047,37 +1056,37 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
         <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" t="s">
         <v>16</v>
-      </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1088,7 +1097,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1097,10 +1106,10 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -1115,10 +1124,10 @@
         <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1129,7 +1138,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1138,10 +1147,10 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
         <v>16</v>
@@ -1150,16 +1159,16 @@
         <v>14</v>
       </c>
       <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
         <v>15</v>
-      </c>
-      <c r="K13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1177,13 +1186,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1194,7 +1203,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.166666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1205,13 +1214,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>4.416666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1219,13 +1228,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1233,13 +1242,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1247,10 +1256,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>4.666666666666667</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1261,10 +1270,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>4.833333333333333</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1278,10 +1287,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>4.916666666666667</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1289,13 +1298,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>5.083333333333333</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1303,13 +1312,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1317,13 +1326,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>5.416666666666667</v>
+        <v>5.75</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1331,13 +1340,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>5.666666666666667</v>
+        <v>5.75</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1348,10 +1357,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>6.583333333333333</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1369,16 +1378,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1389,7 +1398,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="D2">
         <v>-0.5</v>
@@ -1403,16 +1412,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>6.333333333333333</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D3">
-        <v>1.333333333333333</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1420,16 +1429,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1437,16 +1446,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>5.916666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="D5">
-        <v>-2.083333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1454,16 +1463,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>5.75</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D6">
-        <v>1.75</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1474,13 +1483,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5.5</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1491,13 +1500,13 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>4.833333333333333</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D8">
-        <v>-0.166666666666667</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1508,13 +1517,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1525,13 +1534,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>4.166666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="D10">
-        <v>-0.833333333333333</v>
+        <v>-0.25</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1548,7 +1557,7 @@
         <v>0.08333333333333304</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1559,10 +1568,10 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>3.5</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>-0.08333333333333348</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1576,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.166666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D13">
-        <v>0.1666666666666665</v>
+        <v>-0.6666666666666665</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1600,442 +1609,442 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>13.27</v>
+        <v>15.5</v>
       </c>
       <c r="C2">
-        <v>9.969999999999999</v>
+        <v>10.99</v>
       </c>
       <c r="D2">
-        <v>15.84</v>
+        <v>2.96</v>
       </c>
       <c r="E2">
-        <v>12.64</v>
+        <v>11.06</v>
       </c>
       <c r="F2">
-        <v>3.14</v>
+        <v>20.84</v>
       </c>
       <c r="G2">
-        <v>4.29</v>
+        <v>9.629999999999999</v>
       </c>
       <c r="H2">
-        <v>12.99</v>
+        <v>1.14</v>
       </c>
       <c r="I2">
-        <v>11.16</v>
+        <v>1.56</v>
       </c>
       <c r="J2">
-        <v>3.62</v>
+        <v>6.94</v>
       </c>
       <c r="K2">
-        <v>3.92</v>
+        <v>10.36</v>
       </c>
       <c r="L2">
-        <v>5.41</v>
+        <v>4.52</v>
       </c>
       <c r="M2">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N2">
-        <v>83.30000000000001</v>
+        <v>73.68000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>11.49</v>
+        <v>12.47</v>
       </c>
       <c r="C3">
-        <v>9.289999999999999</v>
+        <v>15.48</v>
       </c>
       <c r="D3">
-        <v>13.76</v>
+        <v>5.11</v>
       </c>
       <c r="E3">
-        <v>15.5</v>
+        <v>5.66</v>
       </c>
       <c r="F3">
-        <v>6.18</v>
+        <v>19.04</v>
       </c>
       <c r="G3">
-        <v>2.77</v>
+        <v>17</v>
       </c>
       <c r="H3">
-        <v>9.68</v>
+        <v>3.53</v>
       </c>
       <c r="I3">
-        <v>13.48</v>
+        <v>0.76</v>
       </c>
       <c r="J3">
-        <v>5.53</v>
+        <v>4.84</v>
       </c>
       <c r="K3">
-        <v>3.15</v>
+        <v>8.34</v>
       </c>
       <c r="L3">
-        <v>5.510000000000001</v>
+        <v>4.53</v>
       </c>
       <c r="M3">
-        <v>3.66</v>
+        <v>3.24</v>
       </c>
       <c r="N3">
-        <v>82.15000000000001</v>
+        <v>79.05000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>11.11</v>
+        <v>12.09</v>
       </c>
       <c r="C4">
-        <v>9.890000000000001</v>
+        <v>4.46</v>
       </c>
       <c r="D4">
-        <v>10.78</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="E4">
-        <v>17.29</v>
+        <v>17.77</v>
       </c>
       <c r="F4">
-        <v>10.72</v>
+        <v>11.36</v>
       </c>
       <c r="G4">
-        <v>3.05</v>
+        <v>1.99</v>
       </c>
       <c r="H4">
-        <v>7.16</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="I4">
-        <v>12.3</v>
+        <v>6.2</v>
       </c>
       <c r="J4">
-        <v>7.08</v>
+        <v>14.39</v>
       </c>
       <c r="K4">
-        <v>3.09</v>
+        <v>10.02</v>
       </c>
       <c r="L4">
-        <v>4.35</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>3.18</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="N4">
-        <v>82.30000000000001</v>
+        <v>63.33</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>10.94</v>
+        <v>10.25</v>
       </c>
       <c r="C5">
-        <v>9.529999999999999</v>
+        <v>7.470000000000001</v>
       </c>
       <c r="D5">
-        <v>13.8</v>
+        <v>13.91</v>
       </c>
       <c r="E5">
-        <v>7.69</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="F5">
-        <v>2.14</v>
+        <v>1.58</v>
       </c>
       <c r="G5">
-        <v>8.200000000000001</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="H5">
-        <v>15.96</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="I5">
-        <v>9.83</v>
+        <v>19.64</v>
       </c>
       <c r="J5">
-        <v>2.8</v>
+        <v>9.9</v>
       </c>
       <c r="K5">
-        <v>5.65</v>
+        <v>2.09</v>
       </c>
       <c r="L5">
-        <v>7.539999999999999</v>
+        <v>5.98</v>
       </c>
       <c r="M5">
-        <v>5.92</v>
+        <v>10.06</v>
       </c>
       <c r="N5">
-        <v>78.09</v>
+        <v>71.97</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>9.51</v>
+        <v>10.22</v>
       </c>
       <c r="C6">
-        <v>11.1</v>
+        <v>5.27</v>
       </c>
       <c r="D6">
-        <v>7.56</v>
+        <v>4.859999999999999</v>
       </c>
       <c r="E6">
-        <v>2.9</v>
+        <v>15.82</v>
       </c>
       <c r="F6">
-        <v>9.800000000000001</v>
+        <v>15.47</v>
       </c>
       <c r="G6">
-        <v>17.28</v>
+        <v>4.7</v>
       </c>
       <c r="H6">
-        <v>7.870000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="I6">
-        <v>2.08</v>
+        <v>3.78</v>
       </c>
       <c r="J6">
-        <v>5.77</v>
+        <v>12.74</v>
       </c>
       <c r="K6">
-        <v>11.14</v>
+        <v>12.94</v>
       </c>
       <c r="L6">
-        <v>8.450000000000001</v>
+        <v>4.44</v>
       </c>
       <c r="M6">
-        <v>6.54</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="N6">
-        <v>68.09999999999999</v>
+        <v>60.58000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>8.93</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="C7">
-        <v>10.74</v>
+        <v>5.17</v>
       </c>
       <c r="D7">
-        <v>7.670000000000001</v>
+        <v>13.84</v>
       </c>
       <c r="E7">
-        <v>16.08</v>
+        <v>12.13</v>
       </c>
       <c r="F7">
-        <v>15.18</v>
+        <v>3.28</v>
       </c>
       <c r="G7">
-        <v>4.91</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="H7">
-        <v>4.81</v>
+        <v>4.94</v>
       </c>
       <c r="I7">
-        <v>11.59</v>
+        <v>15.73</v>
       </c>
       <c r="J7">
-        <v>8.91</v>
+        <v>14.86</v>
       </c>
       <c r="K7">
-        <v>3.73</v>
+        <v>4.25</v>
       </c>
       <c r="L7">
-        <v>4.21</v>
+        <v>4.82</v>
       </c>
       <c r="M7">
-        <v>3.24</v>
+        <v>10.6</v>
       </c>
       <c r="N7">
-        <v>79.91</v>
+        <v>65.47</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>8.709999999999999</v>
+        <v>9.139999999999999</v>
       </c>
       <c r="C8">
-        <v>10.93</v>
+        <v>4.18</v>
       </c>
       <c r="D8">
-        <v>11.32</v>
+        <v>10.91</v>
       </c>
       <c r="E8">
-        <v>4.29</v>
+        <v>14.87</v>
       </c>
       <c r="F8">
-        <v>3.51</v>
+        <v>5.99</v>
       </c>
       <c r="G8">
-        <v>12.55</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="H8">
-        <v>15.88</v>
+        <v>2.12</v>
       </c>
       <c r="I8">
-        <v>5.680000000000001</v>
+        <v>11.79</v>
       </c>
       <c r="J8">
-        <v>2.88</v>
+        <v>17.62</v>
       </c>
       <c r="K8">
-        <v>8.07</v>
+        <v>7.79</v>
       </c>
       <c r="L8">
-        <v>8.559999999999999</v>
+        <v>3.65</v>
       </c>
       <c r="M8">
-        <v>7.62</v>
+        <v>11.16</v>
       </c>
       <c r="N8">
-        <v>72.87</v>
+        <v>59.78</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>8.23</v>
+        <v>8.66</v>
       </c>
       <c r="C9">
-        <v>10.07</v>
+        <v>19.21</v>
       </c>
       <c r="D9">
-        <v>8.369999999999999</v>
+        <v>9.790000000000001</v>
       </c>
       <c r="E9">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="F9">
-        <v>5.76</v>
+        <v>12.49</v>
       </c>
       <c r="G9">
-        <v>16.89</v>
+        <v>20.75</v>
       </c>
       <c r="H9">
-        <v>12.64</v>
+        <v>8.42</v>
       </c>
       <c r="I9">
+        <v>1.01</v>
+      </c>
+      <c r="J9">
+        <v>3.05</v>
+      </c>
+      <c r="K9">
+        <v>6.47</v>
+      </c>
+      <c r="L9">
+        <v>4.09</v>
+      </c>
+      <c r="M9">
         <v>2.81</v>
       </c>
-      <c r="J9">
-        <v>4.2</v>
-      </c>
-      <c r="K9">
-        <v>10.34</v>
-      </c>
-      <c r="L9">
-        <v>9.58</v>
-      </c>
-      <c r="M9">
-        <v>8.15</v>
-      </c>
       <c r="N9">
-        <v>67.73</v>
+        <v>83.58000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>8.09</v>
+        <v>4.3</v>
       </c>
       <c r="C10">
-        <v>8.309999999999999</v>
+        <v>13.94</v>
       </c>
       <c r="D10">
-        <v>4.399999999999999</v>
+        <v>11.83</v>
       </c>
       <c r="E10">
-        <v>3.91</v>
+        <v>3.38</v>
       </c>
       <c r="F10">
-        <v>13.99</v>
+        <v>6.48</v>
       </c>
       <c r="G10">
-        <v>13.31</v>
+        <v>19.76</v>
       </c>
       <c r="H10">
-        <v>4.35</v>
+        <v>15.48</v>
       </c>
       <c r="I10">
-        <v>2.59</v>
+        <v>2.94</v>
       </c>
       <c r="J10">
-        <v>9.84</v>
+        <v>3.37</v>
       </c>
       <c r="K10">
-        <v>13.48</v>
+        <v>7.670000000000001</v>
       </c>
       <c r="L10">
-        <v>7.630000000000001</v>
+        <v>7.07</v>
       </c>
       <c r="M10">
-        <v>10.1</v>
+        <v>3.78</v>
       </c>
       <c r="N10">
-        <v>58.94999999999999</v>
+        <v>78.11</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2043,43 +2052,43 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>6.32</v>
+        <v>3.78</v>
       </c>
       <c r="C11">
-        <v>6.48</v>
+        <v>5.69</v>
       </c>
       <c r="D11">
-        <v>3.38</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="E11">
-        <v>6.18</v>
+        <v>3.92</v>
       </c>
       <c r="F11">
-        <v>13.6</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="G11">
-        <v>9.69</v>
+        <v>3.6</v>
       </c>
       <c r="H11">
-        <v>2.25</v>
+        <v>16.18</v>
       </c>
       <c r="I11">
-        <v>5.04</v>
+        <v>18.31</v>
       </c>
       <c r="J11">
-        <v>14.07</v>
+        <v>5.38</v>
       </c>
       <c r="K11">
-        <v>13.97</v>
+        <v>3.42</v>
       </c>
       <c r="L11">
-        <v>7.26</v>
+        <v>14.73</v>
       </c>
       <c r="M11">
-        <v>11.76</v>
+        <v>16.31</v>
       </c>
       <c r="N11">
-        <v>52.94</v>
+        <v>60.16</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2087,43 +2096,43 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>2.17</v>
+        <v>2.51</v>
       </c>
       <c r="C12">
-        <v>2.19</v>
+        <v>4.95</v>
       </c>
       <c r="D12">
-        <v>1.74</v>
+        <v>5.949999999999999</v>
       </c>
       <c r="E12">
-        <v>5.48</v>
+        <v>2.15</v>
       </c>
       <c r="F12">
-        <v>9.030000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="G12">
-        <v>4.21</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="H12">
-        <v>2.02</v>
+        <v>20.18</v>
       </c>
       <c r="I12">
-        <v>10.28</v>
+        <v>11.95</v>
       </c>
       <c r="J12">
-        <v>17.82</v>
+        <v>2.66</v>
       </c>
       <c r="K12">
-        <v>12.34</v>
+        <v>8.08</v>
       </c>
       <c r="L12">
-        <v>12.81</v>
+        <v>20.84</v>
       </c>
       <c r="M12">
-        <v>19.91</v>
+        <v>11.84</v>
       </c>
       <c r="N12">
-        <v>37.12</v>
+        <v>56.58</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2131,43 +2140,43 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="C13">
-        <v>1.5</v>
+        <v>3.19</v>
       </c>
       <c r="D13">
-        <v>1.38</v>
+        <v>4.08</v>
       </c>
       <c r="E13">
-        <v>5.08</v>
+        <v>1.27</v>
       </c>
       <c r="F13">
-        <v>6.950000000000001</v>
+        <v>2.06</v>
       </c>
       <c r="G13">
-        <v>2.85</v>
+        <v>12.13</v>
       </c>
       <c r="H13">
-        <v>4.390000000000001</v>
+        <v>17.27</v>
       </c>
       <c r="I13">
-        <v>13.16</v>
+        <v>6.329999999999999</v>
       </c>
       <c r="J13">
-        <v>17.48</v>
+        <v>4.25</v>
       </c>
       <c r="K13">
-        <v>11.12</v>
+        <v>18.57</v>
       </c>
       <c r="L13">
-        <v>18.69</v>
+        <v>21.93</v>
       </c>
       <c r="M13">
-        <v>16.17</v>
+        <v>7.539999999999999</v>
       </c>
       <c r="N13">
-        <v>36.54</v>
+        <v>47.71</v>
       </c>
     </row>
   </sheetData>
@@ -2185,19 +2194,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2205,19 +2214,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2225,19 +2234,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2245,19 +2254,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2265,19 +2274,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2285,10 +2294,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -2297,7 +2306,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2308,16 +2317,16 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2325,19 +2334,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2348,16 +2357,16 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2365,19 +2374,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2385,19 +2394,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2405,19 +2414,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2428,16 +2437,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13">
-        <v>-20</v>
+        <v>-29</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2447,238 +2456,256 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>78</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>-5</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-4</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>13</v>
+      </c>
+      <c r="L3">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>22</v>
+      </c>
+      <c r="L4">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-11</v>
+      </c>
+      <c r="D5">
+        <v>-15</v>
+      </c>
+      <c r="E5">
+        <v>-5</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>-3</v>
-      </c>
-      <c r="E3">
-        <v>-4</v>
-      </c>
-      <c r="F3">
-        <v>-5</v>
-      </c>
-      <c r="G3">
+      <c r="I6">
         <v>6</v>
       </c>
-      <c r="H3">
-        <v>12</v>
-      </c>
-      <c r="I3">
-        <v>19</v>
-      </c>
-      <c r="J3">
-        <v>15</v>
-      </c>
-      <c r="K3">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>-4</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
-      <c r="I4">
-        <v>7</v>
-      </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
-      <c r="K4">
-        <v>13</v>
-      </c>
-      <c r="L4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>12</v>
+      </c>
+      <c r="L6">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <v>12</v>
-      </c>
-      <c r="L5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>-11</v>
-      </c>
-      <c r="D6">
-        <v>-15</v>
-      </c>
-      <c r="E6">
-        <v>-5</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>15</v>
-      </c>
-      <c r="I6">
-        <v>18</v>
-      </c>
-      <c r="J6">
-        <v>13</v>
-      </c>
-      <c r="K6">
-        <v>6</v>
-      </c>
-      <c r="L6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2712,49 +2739,55 @@
       <c r="K7">
         <v>-1</v>
       </c>
-      <c r="L7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7">
+        <v>-4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C8">
+        <v>-9</v>
+      </c>
+      <c r="D8">
+        <v>-8</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>-3</v>
-      </c>
       <c r="H8">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>-11</v>
+      </c>
+      <c r="L8">
         <v>-6</v>
       </c>
-      <c r="K8">
-        <v>-4</v>
-      </c>
-      <c r="L8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2788,125 +2821,137 @@
       <c r="K9">
         <v>-8</v>
       </c>
-      <c r="L9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9">
+        <v>-7</v>
+      </c>
+      <c r="M9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>-9</v>
+      </c>
+      <c r="G10">
+        <v>-13</v>
+      </c>
+      <c r="H10">
+        <v>-19</v>
+      </c>
+      <c r="I10">
+        <v>-14</v>
+      </c>
+      <c r="J10">
+        <v>-12</v>
+      </c>
+      <c r="K10">
+        <v>-17</v>
+      </c>
+      <c r="L10">
+        <v>-9</v>
+      </c>
+      <c r="M10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>-3</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>-3</v>
+      </c>
+      <c r="H11">
+        <v>-5</v>
+      </c>
+      <c r="I11">
+        <v>-4</v>
+      </c>
+      <c r="J11">
+        <v>-6</v>
+      </c>
+      <c r="K11">
+        <v>-4</v>
+      </c>
+      <c r="L11">
+        <v>-15</v>
+      </c>
+      <c r="M11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>-1</v>
       </c>
-      <c r="C10">
-        <v>-9</v>
-      </c>
-      <c r="D10">
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>-3</v>
+      </c>
+      <c r="F12">
+        <v>-6</v>
+      </c>
+      <c r="G12">
         <v>-8</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>-11</v>
-      </c>
-      <c r="L10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>-1</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>-3</v>
-      </c>
-      <c r="F11">
-        <v>-6</v>
-      </c>
-      <c r="G11">
-        <v>-8</v>
-      </c>
-      <c r="H11">
+      <c r="H12">
         <v>-13</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>-15</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>-18</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>-14</v>
       </c>
-      <c r="L11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>-9</v>
-      </c>
-      <c r="G12">
-        <v>-13</v>
-      </c>
-      <c r="H12">
-        <v>-19</v>
-      </c>
-      <c r="I12">
-        <v>-14</v>
-      </c>
-      <c r="J12">
-        <v>-12</v>
-      </c>
-      <c r="K12">
-        <v>-17</v>
-      </c>
-      <c r="L12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12">
+        <v>-18</v>
+      </c>
+      <c r="M12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2940,8 +2985,11 @@
       <c r="K13">
         <v>-20</v>
       </c>
-      <c r="L13" t="s">
-        <v>65</v>
+      <c r="L13">
+        <v>-29</v>
+      </c>
+      <c r="M13" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2959,25 +3007,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3011,25 +3059,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E3">
+        <v>-18</v>
+      </c>
+      <c r="F3">
         <v>6</v>
       </c>
-      <c r="F3">
-        <v>-17</v>
-      </c>
       <c r="G3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3037,25 +3085,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>-17</v>
+      </c>
+      <c r="G4">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
         <v>1</v>
-      </c>
-      <c r="F4">
-        <v>17</v>
-      </c>
-      <c r="G4">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3063,25 +3111,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>-4</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3089,25 +3137,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>-5</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3115,25 +3163,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-4</v>
+        <v>-15</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>-29</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3141,25 +3189,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="F8">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3167,25 +3215,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3193,25 +3241,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
         <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="85">
   <si>
     <t>CHUBBER</t>
   </si>
@@ -58,34 +58,34 @@
     <t>DadBods 69ers</t>
   </si>
   <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>1-10-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>10-1-0</t>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>1-11-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
+  </si>
+  <si>
+    <t>11-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -190,40 +190,34 @@
     <t>Noah Wallach</t>
   </si>
   <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
     <t>↑7</t>
   </si>
   <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓11</t>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↓9</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -257,6 +251,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -687,37 +684,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -734,7 +731,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -749,16 +746,16 @@
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -784,22 +781,22 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -810,37 +807,37 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
         <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -872,10 +869,10 @@
         <v>15</v>
       </c>
       <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
         <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -916,7 +913,7 @@
         <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
         <v>14</v>
@@ -930,40 +927,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -971,13 +968,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -986,22 +983,22 @@
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
@@ -1012,40 +1009,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
         <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1065,13 +1062,13 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
         <v>16</v>
@@ -1080,13 +1077,13 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1097,19 +1094,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -1135,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -1144,31 +1141,31 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
       </c>
       <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" t="s">
         <v>14</v>
-      </c>
-      <c r="K13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1200,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -1214,13 +1211,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>5.166666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1228,10 +1225,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>5.166666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1242,13 +1239,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>5.25</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1259,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>5.333333333333333</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1270,13 +1267,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>5.416666666666667</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1284,13 +1281,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>5.416666666666667</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1301,7 +1298,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>5.583333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1315,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.75</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1326,13 +1323,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>5.75</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1340,10 +1337,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>5.75</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1357,10 +1354,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>6.916666666666667</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1398,10 +1395,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>7.5</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>-0.6666666666666661</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1415,10 +1412,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>6.916666666666667</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D3">
-        <v>-0.08333333333333304</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1432,10 +1429,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6.916666666666667</v>
+        <v>7.5</v>
       </c>
       <c r="D4">
-        <v>0.916666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -1446,16 +1443,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>6.5</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D5">
-        <v>1.5</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1463,16 +1460,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>6.333333333333333</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D6">
-        <v>-1.666666666666667</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1483,13 +1480,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5.666666666666667</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D7">
-        <v>0.666666666666667</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1497,13 +1494,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>5.083333333333333</v>
+        <v>5.75</v>
       </c>
       <c r="D8">
-        <v>0.08333333333333304</v>
+        <v>-0.25</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1514,16 +1511,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1531,13 +1528,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>4.75</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D10">
-        <v>-0.25</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1548,16 +1545,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>4.083333333333333</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D11">
-        <v>0.08333333333333304</v>
+        <v>-0.583333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1565,13 +1562,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>3.916666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="D12">
-        <v>-0.08333333333333348</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1653,354 +1650,354 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>15.5</v>
+        <v>18.65</v>
       </c>
       <c r="C2">
-        <v>10.99</v>
+        <v>2.17</v>
       </c>
       <c r="D2">
-        <v>2.96</v>
+        <v>0.31</v>
       </c>
       <c r="E2">
-        <v>11.06</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F2">
-        <v>20.84</v>
+        <v>24.26</v>
       </c>
       <c r="G2">
-        <v>9.629999999999999</v>
+        <v>13.47</v>
       </c>
       <c r="H2">
-        <v>1.14</v>
+        <v>1.64</v>
       </c>
       <c r="I2">
-        <v>1.56</v>
+        <v>0.02</v>
       </c>
       <c r="J2">
-        <v>6.94</v>
+        <v>0.77</v>
       </c>
       <c r="K2">
-        <v>10.36</v>
+        <v>7.59</v>
       </c>
       <c r="L2">
-        <v>4.52</v>
+        <v>15.35</v>
       </c>
       <c r="M2">
-        <v>4.5</v>
+        <v>6.819999999999999</v>
       </c>
       <c r="N2">
-        <v>73.68000000000001</v>
+        <v>69.47</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>12.47</v>
+        <v>15.34</v>
       </c>
       <c r="C3">
-        <v>15.48</v>
+        <v>5.050000000000001</v>
       </c>
       <c r="D3">
-        <v>5.11</v>
+        <v>0.27</v>
       </c>
       <c r="E3">
-        <v>5.66</v>
+        <v>2.23</v>
       </c>
       <c r="F3">
-        <v>19.04</v>
+        <v>18.91</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>23.34</v>
       </c>
       <c r="H3">
-        <v>3.53</v>
+        <v>5.86</v>
       </c>
       <c r="I3">
-        <v>0.76</v>
+        <v>0.25</v>
       </c>
       <c r="J3">
-        <v>4.84</v>
+        <v>0.23</v>
       </c>
       <c r="K3">
-        <v>8.34</v>
+        <v>4.23</v>
       </c>
       <c r="L3">
-        <v>4.53</v>
+        <v>14.1</v>
       </c>
       <c r="M3">
-        <v>3.24</v>
+        <v>10.19</v>
       </c>
       <c r="N3">
-        <v>79.05000000000001</v>
+        <v>71.25</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>12.09</v>
+        <v>14.16</v>
       </c>
       <c r="C4">
-        <v>4.46</v>
+        <v>7.920000000000001</v>
       </c>
       <c r="D4">
-        <v>8.640000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="E4">
-        <v>17.77</v>
+        <v>0.19</v>
       </c>
       <c r="F4">
-        <v>11.36</v>
+        <v>7.5</v>
       </c>
       <c r="G4">
-        <v>1.99</v>
+        <v>26.14</v>
       </c>
       <c r="H4">
-        <v>0.8200000000000001</v>
+        <v>14.58</v>
       </c>
       <c r="I4">
-        <v>6.2</v>
+        <v>1.61</v>
       </c>
       <c r="J4">
-        <v>14.39</v>
+        <v>0.08</v>
       </c>
       <c r="K4">
-        <v>10.02</v>
+        <v>1.88</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>11.19</v>
       </c>
       <c r="M4">
-        <v>8.859999999999999</v>
+        <v>13.67</v>
       </c>
       <c r="N4">
-        <v>63.33</v>
+        <v>73.18000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>10.25</v>
+        <v>12.65</v>
       </c>
       <c r="C5">
-        <v>7.470000000000001</v>
+        <v>20.91</v>
       </c>
       <c r="D5">
-        <v>13.91</v>
+        <v>7.249999999999999</v>
       </c>
       <c r="E5">
-        <v>8.720000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="F5">
-        <v>1.58</v>
+        <v>0.42</v>
       </c>
       <c r="G5">
-        <v>0.9400000000000001</v>
+        <v>7.04</v>
       </c>
       <c r="H5">
-        <v>9.460000000000001</v>
+        <v>22.24</v>
       </c>
       <c r="I5">
-        <v>19.64</v>
+        <v>14.92</v>
       </c>
       <c r="J5">
-        <v>9.9</v>
+        <v>1.3</v>
       </c>
       <c r="K5">
-        <v>2.09</v>
+        <v>0.09</v>
       </c>
       <c r="L5">
-        <v>5.98</v>
+        <v>2.85</v>
       </c>
       <c r="M5">
-        <v>10.06</v>
+        <v>9.66</v>
       </c>
       <c r="N5">
-        <v>71.97</v>
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>10.22</v>
+        <v>12.02</v>
       </c>
       <c r="C6">
-        <v>5.27</v>
+        <v>11.75</v>
       </c>
       <c r="D6">
-        <v>4.859999999999999</v>
+        <v>2.23</v>
       </c>
       <c r="E6">
-        <v>15.82</v>
+        <v>0.08</v>
       </c>
       <c r="F6">
-        <v>15.47</v>
+        <v>2.06</v>
       </c>
       <c r="G6">
-        <v>4.7</v>
+        <v>17.15</v>
       </c>
       <c r="H6">
-        <v>0.46</v>
+        <v>24.99</v>
       </c>
       <c r="I6">
-        <v>3.78</v>
+        <v>5.69</v>
       </c>
       <c r="J6">
-        <v>12.74</v>
+        <v>0.17</v>
       </c>
       <c r="K6">
-        <v>12.94</v>
+        <v>0.58</v>
       </c>
       <c r="L6">
-        <v>4.44</v>
+        <v>7.82</v>
       </c>
       <c r="M6">
-        <v>9.300000000000001</v>
+        <v>15.46</v>
       </c>
       <c r="N6">
-        <v>60.58000000000001</v>
+        <v>75.97</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>9.700000000000001</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="C7">
-        <v>5.17</v>
+        <v>0.45</v>
       </c>
       <c r="D7">
-        <v>13.84</v>
+        <v>2.49</v>
       </c>
       <c r="E7">
-        <v>12.13</v>
+        <v>14.4</v>
       </c>
       <c r="F7">
-        <v>3.28</v>
+        <v>17.34</v>
       </c>
       <c r="G7">
-        <v>0.6799999999999999</v>
+        <v>5.71</v>
       </c>
       <c r="H7">
-        <v>4.94</v>
+        <v>0.27</v>
       </c>
       <c r="I7">
-        <v>15.73</v>
+        <v>0.23</v>
       </c>
       <c r="J7">
-        <v>14.86</v>
+        <v>4.29</v>
       </c>
       <c r="K7">
-        <v>4.25</v>
+        <v>19.16</v>
       </c>
       <c r="L7">
-        <v>4.82</v>
+        <v>22.35</v>
       </c>
       <c r="M7">
-        <v>10.6</v>
+        <v>6.11</v>
       </c>
       <c r="N7">
-        <v>65.47</v>
+        <v>48.09</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>9.139999999999999</v>
+        <v>6.56</v>
       </c>
       <c r="C8">
-        <v>4.18</v>
+        <v>0.47</v>
       </c>
       <c r="D8">
-        <v>10.91</v>
+        <v>5.58</v>
       </c>
       <c r="E8">
-        <v>14.87</v>
+        <v>16.23</v>
       </c>
       <c r="F8">
-        <v>5.99</v>
+        <v>13.03</v>
       </c>
       <c r="G8">
-        <v>0.7799999999999999</v>
+        <v>2.52</v>
       </c>
       <c r="H8">
-        <v>2.12</v>
+        <v>0.08</v>
       </c>
       <c r="I8">
-        <v>11.79</v>
+        <v>1.15</v>
       </c>
       <c r="J8">
-        <v>17.62</v>
+        <v>12.07</v>
       </c>
       <c r="K8">
-        <v>7.79</v>
+        <v>25.38</v>
       </c>
       <c r="L8">
-        <v>3.65</v>
+        <v>15.01</v>
       </c>
       <c r="M8">
-        <v>11.16</v>
+        <v>1.92</v>
       </c>
       <c r="N8">
-        <v>59.78</v>
+        <v>45.62</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>8.66</v>
+        <v>6.4</v>
       </c>
       <c r="C9">
-        <v>19.21</v>
+        <v>17.82</v>
       </c>
       <c r="D9">
-        <v>9.790000000000001</v>
+        <v>12.32</v>
       </c>
       <c r="E9">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="F9">
-        <v>12.49</v>
+        <v>0.13</v>
       </c>
       <c r="G9">
-        <v>20.75</v>
+        <v>2.63</v>
       </c>
       <c r="H9">
-        <v>8.42</v>
+        <v>16.08</v>
       </c>
       <c r="I9">
-        <v>1.01</v>
+        <v>21.71</v>
       </c>
       <c r="J9">
-        <v>3.05</v>
+        <v>6.03</v>
       </c>
       <c r="K9">
-        <v>6.47</v>
+        <v>0.17</v>
       </c>
       <c r="L9">
-        <v>4.09</v>
+        <v>2.16</v>
       </c>
       <c r="M9">
-        <v>2.81</v>
+        <v>12.15</v>
       </c>
       <c r="N9">
-        <v>83.58000000000001</v>
+        <v>79.48999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2008,175 +2005,175 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.3</v>
+        <v>3.28</v>
       </c>
       <c r="C10">
-        <v>13.94</v>
+        <v>16.52</v>
       </c>
       <c r="D10">
-        <v>11.83</v>
+        <v>19.04</v>
       </c>
       <c r="E10">
-        <v>3.38</v>
+        <v>6.239999999999999</v>
       </c>
       <c r="F10">
-        <v>6.48</v>
+        <v>0.44</v>
       </c>
       <c r="G10">
-        <v>19.76</v>
+        <v>0.76</v>
       </c>
       <c r="H10">
-        <v>15.48</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="I10">
-        <v>2.94</v>
+        <v>20.16</v>
       </c>
       <c r="J10">
-        <v>3.37</v>
+        <v>12.95</v>
       </c>
       <c r="K10">
-        <v>7.670000000000001</v>
+        <v>1.51</v>
       </c>
       <c r="L10">
-        <v>7.07</v>
+        <v>0.76</v>
       </c>
       <c r="M10">
-        <v>3.78</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="N10">
-        <v>78.11</v>
+        <v>75.08000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>3.78</v>
+        <v>2.44</v>
       </c>
       <c r="C11">
-        <v>5.69</v>
+        <v>0.49</v>
       </c>
       <c r="D11">
-        <v>8.119999999999999</v>
+        <v>5.53</v>
       </c>
       <c r="E11">
-        <v>3.92</v>
+        <v>11.57</v>
       </c>
       <c r="F11">
-        <v>0.5599999999999999</v>
+        <v>6.81</v>
       </c>
       <c r="G11">
-        <v>3.6</v>
+        <v>0.77</v>
       </c>
       <c r="H11">
-        <v>16.18</v>
+        <v>0.34</v>
       </c>
       <c r="I11">
-        <v>18.31</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="J11">
-        <v>5.38</v>
+        <v>28.98</v>
       </c>
       <c r="K11">
-        <v>3.42</v>
+        <v>27.19</v>
       </c>
       <c r="L11">
-        <v>14.73</v>
+        <v>7.26</v>
       </c>
       <c r="M11">
-        <v>16.31</v>
+        <v>0.41</v>
       </c>
       <c r="N11">
-        <v>60.16</v>
+        <v>36.16</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>2.51</v>
+        <v>1.09</v>
       </c>
       <c r="C12">
-        <v>4.95</v>
+        <v>11.71</v>
       </c>
       <c r="D12">
-        <v>5.949999999999999</v>
+        <v>24.48</v>
       </c>
       <c r="E12">
-        <v>2.15</v>
+        <v>14.63</v>
       </c>
       <c r="F12">
-        <v>0.8500000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="G12">
-        <v>8.039999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="H12">
-        <v>20.18</v>
+        <v>4.01</v>
       </c>
       <c r="I12">
-        <v>11.95</v>
+        <v>14.88</v>
       </c>
       <c r="J12">
-        <v>2.66</v>
+        <v>15.08</v>
       </c>
       <c r="K12">
-        <v>8.08</v>
+        <v>4.32</v>
       </c>
       <c r="L12">
-        <v>20.84</v>
+        <v>0.47</v>
       </c>
       <c r="M12">
-        <v>11.84</v>
+        <v>6.94</v>
       </c>
       <c r="N12">
-        <v>56.58</v>
+        <v>73.19</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>1.38</v>
+        <v>0.21</v>
       </c>
       <c r="C13">
-        <v>3.19</v>
+        <v>4.74</v>
       </c>
       <c r="D13">
-        <v>4.08</v>
+        <v>19.42</v>
       </c>
       <c r="E13">
+        <v>22.41</v>
+      </c>
+      <c r="F13">
+        <v>6.850000000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.33</v>
+      </c>
+      <c r="H13">
         <v>1.27</v>
       </c>
-      <c r="F13">
-        <v>2.06</v>
-      </c>
-      <c r="G13">
-        <v>12.13</v>
-      </c>
-      <c r="H13">
-        <v>17.27</v>
-      </c>
       <c r="I13">
-        <v>6.329999999999999</v>
+        <v>11.17</v>
       </c>
       <c r="J13">
-        <v>4.25</v>
+        <v>18.05</v>
       </c>
       <c r="K13">
-        <v>18.57</v>
+        <v>7.9</v>
       </c>
       <c r="L13">
-        <v>21.93</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="M13">
-        <v>7.539999999999999</v>
+        <v>6.97</v>
       </c>
       <c r="N13">
-        <v>47.71</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2220,7 +2217,7 @@
         <v>44</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -2240,7 +2237,7 @@
         <v>45</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -2260,7 +2257,7 @@
         <v>46</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -2280,10 +2277,10 @@
         <v>47</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -2300,13 +2297,13 @@
         <v>48</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2320,13 +2317,13 @@
         <v>49</v>
       </c>
       <c r="D7">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2340,13 +2337,13 @@
         <v>50</v>
       </c>
       <c r="D8">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2360,13 +2357,13 @@
         <v>51</v>
       </c>
       <c r="D9">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2386,7 +2383,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2400,13 +2397,13 @@
         <v>53</v>
       </c>
       <c r="D11">
-        <v>-15</v>
+        <v>-19</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2420,13 +2417,13 @@
         <v>54</v>
       </c>
       <c r="D12">
-        <v>-18</v>
+        <v>-23</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2440,13 +2437,13 @@
         <v>55</v>
       </c>
       <c r="D13">
-        <v>-29</v>
+        <v>-36</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2456,51 +2453,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2537,11 +2537,14 @@
       <c r="L2">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2578,11 +2581,14 @@
       <c r="L3">
         <v>23</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2619,11 +2625,14 @@
       <c r="L4">
         <v>21</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2660,11 +2669,14 @@
       <c r="L5">
         <v>9</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2701,11 +2713,14 @@
       <c r="L6">
         <v>6</v>
       </c>
-      <c r="M6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2742,11 +2757,14 @@
       <c r="L7">
         <v>-4</v>
       </c>
-      <c r="M7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2783,11 +2801,14 @@
       <c r="L8">
         <v>-6</v>
       </c>
-      <c r="M8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2824,11 +2845,14 @@
       <c r="L9">
         <v>-7</v>
       </c>
-      <c r="M9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9">
+        <v>-6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -2865,11 +2889,14 @@
       <c r="L10">
         <v>-9</v>
       </c>
-      <c r="M10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10">
+        <v>-9</v>
+      </c>
+      <c r="N10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2906,11 +2933,14 @@
       <c r="L11">
         <v>-15</v>
       </c>
-      <c r="M11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="M11">
+        <v>-19</v>
+      </c>
+      <c r="N11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2947,11 +2977,14 @@
       <c r="L12">
         <v>-18</v>
       </c>
-      <c r="M12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="M12">
+        <v>-23</v>
+      </c>
+      <c r="N12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2988,8 +3021,11 @@
       <c r="L13">
         <v>-29</v>
       </c>
-      <c r="M13" t="s">
-        <v>67</v>
+      <c r="M13">
+        <v>-36</v>
+      </c>
+      <c r="N13" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +3035,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3007,25 +3043,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3182,84 +3218,6 @@
       </c>
       <c r="H7" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>-5</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>-4</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>-8</v>
-      </c>
-      <c r="G10">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="88">
   <si>
     <t>CHUBBER</t>
   </si>
@@ -58,34 +58,37 @@
     <t>DadBods 69ers</t>
   </si>
   <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>1-11-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>11-1-0</t>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>1-12-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
+  </si>
+  <si>
+    <t>12-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -166,21 +169,21 @@
     <t>Kari Dickert</t>
   </si>
   <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>Zach Wallach</t>
+  </si>
+  <si>
     <t>Gabe Musty</t>
   </si>
   <si>
-    <t>Zach Wallach</t>
-  </si>
-  <si>
-    <t>Louis Rodriguez</t>
+    <t>Ted Wallach</t>
   </si>
   <si>
     <t>Michael Dickert</t>
   </si>
   <si>
-    <t>Ted Wallach</t>
-  </si>
-  <si>
     <t>Matt Wallach</t>
   </si>
   <si>
@@ -190,36 +193,39 @@
     <t>Noah Wallach</t>
   </si>
   <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↑4</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -254,6 +260,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -687,34 +696,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -731,31 +740,31 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -766,29 +775,29 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
       <c r="K4" t="s">
         <v>14</v>
       </c>
@@ -796,7 +805,7 @@
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -807,10 +816,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -819,16 +828,16 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
@@ -837,7 +846,7 @@
         <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -848,10 +857,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -863,22 +872,22 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -889,37 +898,37 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
         <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -927,10 +936,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -942,7 +951,7 @@
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
@@ -951,16 +960,16 @@
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -971,7 +980,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -980,28 +989,28 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1009,40 +1018,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
       <c r="K10" t="s">
         <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1050,16 +1059,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
         <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -1071,7 +1080,7 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -1091,22 +1100,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -1115,7 +1124,7 @@
         <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
         <v>13</v>
@@ -1132,19 +1141,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -1156,16 +1165,16 @@
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1183,13 +1192,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1200,10 +1209,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>5.333333333333333</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1214,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -1228,7 +1237,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>5.5</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1239,13 +1248,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>5.583333333333333</v>
-      </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1253,13 +1262,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5.833333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1267,13 +1276,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>5.916666666666667</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1281,13 +1290,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>5.916666666666667</v>
+        <v>6.5</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1295,13 +1304,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>6.166666666666667</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1309,13 +1318,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>6.333333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1326,7 +1335,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>6.333333333333333</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -1340,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>6.416666666666667</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -1354,10 +1363,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>7.166666666666667</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1375,16 +1384,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1395,10 +1404,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>8.333333333333334</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="D2">
-        <v>-0.6666666666666661</v>
+        <v>-0.08333333333333393</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1412,13 +1421,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>7.833333333333333</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="D3">
-        <v>-0.166666666666667</v>
+        <v>-0.4166666666666661</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1429,13 +1438,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1443,16 +1452,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>6.666666666666667</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D5">
-        <v>-1.333333333333333</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1460,16 +1469,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>6.583333333333333</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D6">
-        <v>1.583333333333333</v>
+        <v>-1.916666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1477,16 +1486,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>5.916666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D7">
-        <v>0.916666666666667</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1497,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>5.75</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D8">
-        <v>-0.25</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1511,13 +1520,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -1528,16 +1537,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="C10">
-        <v>5.666666666666667</v>
-      </c>
-      <c r="D10">
-        <v>-0.333333333333333</v>
-      </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1545,16 +1554,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>4.416666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="D11">
-        <v>-0.583333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1562,16 +1571,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>4.25</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D12">
-        <v>0.25</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1606,530 +1615,530 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>18.65</v>
+        <v>24.16</v>
       </c>
       <c r="C2">
-        <v>2.17</v>
+        <v>17.52</v>
       </c>
       <c r="D2">
-        <v>0.31</v>
+        <v>1.64</v>
       </c>
       <c r="E2">
-        <v>8.949999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="F2">
-        <v>24.26</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>13.47</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.64</v>
+        <v>0.09</v>
       </c>
       <c r="I2">
-        <v>0.02</v>
+        <v>5.73</v>
       </c>
       <c r="J2">
-        <v>0.77</v>
+        <v>29.13</v>
       </c>
       <c r="K2">
-        <v>7.59</v>
+        <v>21.7</v>
       </c>
       <c r="L2">
-        <v>15.35</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>6.819999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>69.47</v>
+        <v>49.17</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>15.34</v>
+        <v>21.25</v>
       </c>
       <c r="C3">
-        <v>5.050000000000001</v>
+        <v>5.99</v>
       </c>
       <c r="D3">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="E3">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>18.91</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>23.34</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.86</v>
+        <v>1.38</v>
       </c>
       <c r="I3">
-        <v>0.25</v>
+        <v>25.4</v>
       </c>
       <c r="J3">
-        <v>0.23</v>
+        <v>45.86</v>
       </c>
       <c r="K3">
-        <v>4.23</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>10.19</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>71.25</v>
+        <v>54.14</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>14.16</v>
+        <v>21.14</v>
       </c>
       <c r="C4">
-        <v>7.920000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="D4">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>26.14</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>14.58</v>
+        <v>10.25</v>
       </c>
       <c r="I4">
-        <v>1.61</v>
+        <v>67.11</v>
       </c>
       <c r="J4">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>13.67</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>73.18000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>12.65</v>
+        <v>13.23</v>
       </c>
       <c r="C5">
-        <v>20.91</v>
+        <v>24.23</v>
       </c>
       <c r="D5">
-        <v>7.249999999999999</v>
+        <v>6.98</v>
       </c>
       <c r="E5">
-        <v>0.67</v>
+        <v>0.35</v>
       </c>
       <c r="F5">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>7.04</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>22.24</v>
+        <v>0.03</v>
       </c>
       <c r="I5">
-        <v>14.92</v>
+        <v>1.38</v>
       </c>
       <c r="J5">
-        <v>1.3</v>
+        <v>16.27</v>
       </c>
       <c r="K5">
-        <v>0.09</v>
+        <v>29.06</v>
       </c>
       <c r="L5">
-        <v>2.85</v>
+        <v>8.469999999999999</v>
       </c>
       <c r="M5">
-        <v>9.66</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>86.09999999999999</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>12.02</v>
+        <v>11.75</v>
       </c>
       <c r="C6">
-        <v>11.75</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>17.15</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>24.99</v>
+        <v>88.25</v>
       </c>
       <c r="I6">
-        <v>5.69</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>7.82</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>15.46</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>75.97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>7.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="C7">
-        <v>0.45</v>
+        <v>22.67</v>
       </c>
       <c r="D7">
-        <v>2.49</v>
+        <v>14.22</v>
       </c>
       <c r="E7">
-        <v>14.4</v>
+        <v>1.64</v>
       </c>
       <c r="F7">
-        <v>17.34</v>
+        <v>0.06</v>
       </c>
       <c r="G7">
-        <v>5.71</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
       <c r="J7">
-        <v>4.29</v>
+        <v>6.72</v>
       </c>
       <c r="K7">
-        <v>19.16</v>
+        <v>26.28</v>
       </c>
       <c r="L7">
-        <v>22.35</v>
+        <v>19.62</v>
       </c>
       <c r="M7">
-        <v>6.11</v>
+        <v>1.77</v>
       </c>
       <c r="N7">
-        <v>48.09</v>
+        <v>45.61000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>6.56</v>
+        <v>1.77</v>
       </c>
       <c r="C8">
-        <v>0.47</v>
+        <v>19.72</v>
       </c>
       <c r="D8">
-        <v>5.58</v>
+        <v>25.9</v>
       </c>
       <c r="E8">
-        <v>16.23</v>
+        <v>7.19</v>
       </c>
       <c r="F8">
-        <v>13.03</v>
+        <v>0.45</v>
       </c>
       <c r="G8">
-        <v>2.52</v>
+        <v>0.01</v>
       </c>
       <c r="H8">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.15</v>
+        <v>0.05</v>
       </c>
       <c r="J8">
-        <v>12.07</v>
+        <v>1.51</v>
       </c>
       <c r="K8">
-        <v>25.38</v>
+        <v>13.75</v>
       </c>
       <c r="L8">
-        <v>15.01</v>
+        <v>23.05</v>
       </c>
       <c r="M8">
-        <v>1.92</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="N8">
-        <v>45.62</v>
+        <v>55.09</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>17.82</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="D9">
-        <v>12.32</v>
+        <v>30.83</v>
       </c>
       <c r="E9">
-        <v>2.4</v>
+        <v>19.49</v>
       </c>
       <c r="F9">
-        <v>0.13</v>
+        <v>2.37</v>
       </c>
       <c r="G9">
-        <v>2.63</v>
+        <v>0.06</v>
       </c>
       <c r="H9">
-        <v>16.08</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>21.71</v>
+        <v>0.01</v>
       </c>
       <c r="J9">
-        <v>6.03</v>
+        <v>0.44</v>
       </c>
       <c r="K9">
-        <v>0.17</v>
+        <v>6.329999999999999</v>
       </c>
       <c r="L9">
-        <v>2.16</v>
+        <v>20.16</v>
       </c>
       <c r="M9">
-        <v>12.15</v>
+        <v>11.94</v>
       </c>
       <c r="N9">
-        <v>79.48999999999998</v>
+        <v>61.13</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>16.52</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>19.04</v>
+        <v>20.31</v>
       </c>
       <c r="E10">
-        <v>6.239999999999999</v>
+        <v>39.51</v>
       </c>
       <c r="F10">
-        <v>0.44</v>
+        <v>13.82</v>
       </c>
       <c r="G10">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="H10">
-        <v>8.640000000000001</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>20.16</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>12.95</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="K10">
-        <v>1.51</v>
+        <v>2.01</v>
       </c>
       <c r="L10">
-        <v>0.76</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>9.700000000000001</v>
+        <v>11.48</v>
       </c>
       <c r="N10">
-        <v>75.08000000000001</v>
+        <v>74.44</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>5.53</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>11.57</v>
+        <v>31.79</v>
       </c>
       <c r="F11">
-        <v>6.81</v>
+        <v>32.38</v>
       </c>
       <c r="G11">
-        <v>0.77</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="H11">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>8.210000000000001</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>28.98</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>27.19</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="L11">
-        <v>7.26</v>
+        <v>11.44</v>
       </c>
       <c r="M11">
-        <v>0.41</v>
+        <v>19.13</v>
       </c>
       <c r="N11">
-        <v>36.16</v>
+        <v>68.56</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>11.71</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>24.48</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>14.63</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>2.25</v>
+        <v>50.92</v>
       </c>
       <c r="G12">
-        <v>0.14</v>
+        <v>18.83</v>
       </c>
       <c r="H12">
-        <v>4.01</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>14.88</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>15.08</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>4.32</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.47</v>
+        <v>5.26</v>
       </c>
       <c r="M12">
-        <v>6.94</v>
+        <v>24.99</v>
       </c>
       <c r="N12">
-        <v>73.19</v>
+        <v>69.75</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2137,43 +2146,43 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>4.74</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>19.42</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>22.41</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>6.850000000000001</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.33</v>
+        <v>75.91</v>
       </c>
       <c r="H13">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>11.17</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>18.05</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6799999999999999</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>6.97</v>
+        <v>24.09</v>
       </c>
       <c r="N13">
-        <v>66.40000000000001</v>
+        <v>75.91</v>
       </c>
     </row>
   </sheetData>
@@ -2191,19 +2200,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2214,16 +2223,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2234,16 +2243,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2254,16 +2263,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2274,16 +2283,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2291,19 +2300,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2314,7 +2323,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -2323,7 +2332,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2331,19 +2340,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2351,19 +2360,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2371,19 +2380,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2394,16 +2403,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>-19</v>
+        <v>-15</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2414,16 +2423,16 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12">
-        <v>-23</v>
+        <v>-28</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2434,16 +2443,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13">
-        <v>-36</v>
+        <v>-37</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2453,54 +2462,57 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>80</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2540,11 +2552,14 @@
       <c r="M2">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2584,11 +2599,14 @@
       <c r="M3">
         <v>26</v>
       </c>
-      <c r="N3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2628,11 +2646,14 @@
       <c r="M4">
         <v>19</v>
       </c>
-      <c r="N4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="N4">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2672,55 +2693,61 @@
       <c r="M5">
         <v>8</v>
       </c>
-      <c r="N5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>-9</v>
       </c>
       <c r="D6">
+        <v>-8</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>-11</v>
+      </c>
+      <c r="L6">
+        <v>-6</v>
+      </c>
+      <c r="M6">
         <v>3</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>6</v>
-      </c>
-      <c r="J6">
-        <v>12</v>
-      </c>
-      <c r="K6">
-        <v>12</v>
-      </c>
-      <c r="L6">
-        <v>6</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="N6">
+        <v>9</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2760,143 +2787,155 @@
       <c r="M7">
         <v>3</v>
       </c>
-      <c r="N7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>-3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>-9</v>
       </c>
-      <c r="D8">
+      <c r="G9">
+        <v>-13</v>
+      </c>
+      <c r="H9">
+        <v>-19</v>
+      </c>
+      <c r="I9">
+        <v>-14</v>
+      </c>
+      <c r="J9">
+        <v>-12</v>
+      </c>
+      <c r="K9">
+        <v>-17</v>
+      </c>
+      <c r="L9">
+        <v>-9</v>
+      </c>
+      <c r="M9">
+        <v>-9</v>
+      </c>
+      <c r="N9">
         <v>-8</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="O9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>-4</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>-8</v>
+      </c>
+      <c r="L10">
+        <v>-7</v>
+      </c>
+      <c r="M10">
+        <v>-6</v>
+      </c>
+      <c r="N10">
         <v>-11</v>
       </c>
-      <c r="L8">
-        <v>-6</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>-4</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>-8</v>
-      </c>
-      <c r="L9">
-        <v>-7</v>
-      </c>
-      <c r="M9">
-        <v>-6</v>
-      </c>
-      <c r="N9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>-9</v>
-      </c>
-      <c r="G10">
-        <v>-13</v>
-      </c>
-      <c r="H10">
-        <v>-19</v>
-      </c>
-      <c r="I10">
-        <v>-14</v>
-      </c>
-      <c r="J10">
-        <v>-12</v>
-      </c>
-      <c r="K10">
-        <v>-17</v>
-      </c>
-      <c r="L10">
-        <v>-9</v>
-      </c>
-      <c r="M10">
-        <v>-9</v>
-      </c>
-      <c r="N10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2936,11 +2975,14 @@
       <c r="M11">
         <v>-19</v>
       </c>
-      <c r="N11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="N11">
+        <v>-15</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2980,11 +3022,14 @@
       <c r="M12">
         <v>-23</v>
       </c>
-      <c r="N12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="N12">
+        <v>-28</v>
+      </c>
+      <c r="O12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -3024,8 +3069,11 @@
       <c r="M13">
         <v>-36</v>
       </c>
-      <c r="N13" t="s">
-        <v>65</v>
+      <c r="N13">
+        <v>-37</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3043,25 +3091,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="91">
   <si>
     <t>CHUBBER</t>
   </si>
@@ -58,37 +58,43 @@
     <t>DadBods 69ers</t>
   </si>
   <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>1-12-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
-  </si>
-  <si>
-    <t>12-1-0</t>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>1-13-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>13-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -166,21 +172,21 @@
     <t>Diana Wallach</t>
   </si>
   <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
     <t>Kari Dickert</t>
   </si>
   <si>
-    <t>Louis Rodriguez</t>
-  </si>
-  <si>
     <t>Zach Wallach</t>
   </si>
   <si>
+    <t>Ted Wallach</t>
+  </si>
+  <si>
     <t>Gabe Musty</t>
   </si>
   <si>
-    <t>Ted Wallach</t>
-  </si>
-  <si>
     <t>Michael Dickert</t>
   </si>
   <si>
@@ -193,37 +199,37 @@
     <t>Noah Wallach</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
     <t>↓3</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑6</t>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>↑11</t>
   </si>
   <si>
     <t>↓5</t>
   </si>
   <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓1</t>
+    <t>↓6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -263,6 +269,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -693,34 +702,34 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
@@ -775,10 +784,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -793,7 +802,7 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -816,37 +825,37 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -857,10 +866,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -872,10 +881,10 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
@@ -887,7 +896,7 @@
         <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -898,16 +907,16 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -916,19 +925,19 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -939,37 +948,37 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
-      </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -980,10 +989,10 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1004,7 +1013,7 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
         <v>19</v>
@@ -1021,10 +1030,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1045,10 +1054,10 @@
         <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10" t="s">
         <v>15</v>
@@ -1062,37 +1071,37 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1103,14 +1112,14 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
@@ -1121,16 +1130,16 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
         <v>13</v>
@@ -1141,40 +1150,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
         <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1192,13 +1201,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1206,13 +1215,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>5.666666666666667</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1220,13 +1229,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1234,13 +1243,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>5.916666666666667</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1248,13 +1257,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1262,13 +1271,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1276,10 +1285,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>6.416666666666667</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1293,7 +1302,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>6.5</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1304,13 +1313,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>6.583333333333333</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1318,13 +1327,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>6.666666666666667</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1332,13 +1341,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>6.916666666666667</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1346,13 +1355,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>7.333333333333333</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1363,10 +1372,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1384,16 +1393,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1404,10 +1413,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>8.916666666666666</v>
+        <v>9.75</v>
       </c>
       <c r="D2">
-        <v>-0.08333333333333393</v>
+        <v>-0.25</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1421,10 +1430,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>8.583333333333334</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="D3">
-        <v>-0.4166666666666661</v>
+        <v>-0.9166666666666661</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -1438,13 +1447,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.8333333333333339</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1455,10 +1464,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>7.416666666666667</v>
+        <v>8.083333333333334</v>
       </c>
       <c r="D5">
-        <v>1.416666666666667</v>
+        <v>1.083333333333334</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -1469,16 +1478,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>7.083333333333333</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D6">
-        <v>-1.916666666666667</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1486,16 +1495,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>6.666666666666667</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D7">
-        <v>-0.333333333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1503,16 +1512,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>6.666666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D8">
-        <v>-0.333333333333333</v>
+        <v>-1.916666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1520,16 +1529,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1537,16 +1546,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1554,16 +1563,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>4.75</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D11">
-        <v>0.75</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1571,16 +1580,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>4.583333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D12">
-        <v>-0.416666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1591,10 +1600,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.333333333333333</v>
+        <v>3.75</v>
       </c>
       <c r="D13">
-        <v>-0.6666666666666665</v>
+        <v>-1.25</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1615,63 +1624,63 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>24.16</v>
+        <v>23.2</v>
       </c>
       <c r="C2">
-        <v>17.52</v>
+        <v>1.23</v>
       </c>
       <c r="D2">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1680,16 +1689,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.09</v>
+        <v>9.19</v>
       </c>
       <c r="I2">
-        <v>5.73</v>
+        <v>66.38</v>
       </c>
       <c r="J2">
-        <v>29.13</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>21.7</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1698,21 +1707,21 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>49.17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>21.25</v>
+        <v>22.58</v>
       </c>
       <c r="C3">
-        <v>5.99</v>
+        <v>15.66</v>
       </c>
       <c r="D3">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1724,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.38</v>
+        <v>0.06</v>
       </c>
       <c r="I3">
-        <v>25.4</v>
+        <v>5.58</v>
       </c>
       <c r="J3">
-        <v>45.86</v>
+        <v>31.11</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>23.78</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1742,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>54.14</v>
+        <v>45.10999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1750,13 +1759,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>21.14</v>
+        <v>20.02</v>
       </c>
       <c r="C4">
-        <v>1.5</v>
+        <v>5.64</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1768,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10.25</v>
+        <v>1.17</v>
       </c>
       <c r="I4">
-        <v>67.11</v>
+        <v>26.75</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>46.36</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1786,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>100</v>
+        <v>53.64</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1794,16 +1803,16 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>13.23</v>
+        <v>14.22</v>
       </c>
       <c r="C5">
-        <v>24.23</v>
+        <v>21.6</v>
       </c>
       <c r="D5">
-        <v>6.98</v>
+        <v>5.36</v>
       </c>
       <c r="E5">
-        <v>0.35</v>
+        <v>0.13</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1812,25 +1821,25 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="J5">
-        <v>16.27</v>
+        <v>15.88</v>
       </c>
       <c r="K5">
-        <v>29.06</v>
+        <v>32.09</v>
       </c>
       <c r="L5">
-        <v>8.469999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>46.2</v>
+        <v>42.47</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1838,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>11.75</v>
+        <v>10.42</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1856,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>88.25</v>
+        <v>89.58</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1882,19 +1891,19 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.7</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="C7">
-        <v>22.67</v>
+        <v>22.69</v>
       </c>
       <c r="D7">
-        <v>14.22</v>
+        <v>11.79</v>
       </c>
       <c r="E7">
-        <v>1.64</v>
+        <v>1.08</v>
       </c>
       <c r="F7">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1903,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.32</v>
+        <v>0.13</v>
       </c>
       <c r="J7">
-        <v>6.72</v>
+        <v>5.44</v>
       </c>
       <c r="K7">
-        <v>26.28</v>
+        <v>25.69</v>
       </c>
       <c r="L7">
-        <v>19.62</v>
+        <v>23.62</v>
       </c>
       <c r="M7">
-        <v>1.77</v>
+        <v>2.71</v>
       </c>
       <c r="N7">
-        <v>45.61000000000001</v>
+        <v>42.54</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1926,43 +1935,43 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>1.77</v>
+        <v>2.71</v>
       </c>
       <c r="C8">
-        <v>19.72</v>
+        <v>24.41</v>
       </c>
       <c r="D8">
-        <v>25.9</v>
+        <v>27.02</v>
       </c>
       <c r="E8">
-        <v>7.19</v>
+        <v>6.460000000000001</v>
       </c>
       <c r="F8">
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
       <c r="G8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1.51</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="K8">
-        <v>13.75</v>
+        <v>10.77</v>
       </c>
       <c r="L8">
-        <v>23.05</v>
+        <v>21.36</v>
       </c>
       <c r="M8">
-        <v>6.600000000000001</v>
+        <v>6.06</v>
       </c>
       <c r="N8">
-        <v>55.09</v>
+        <v>60.91000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1973,45 +1982,45 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.369999999999999</v>
+        <v>8.77</v>
       </c>
       <c r="D9">
-        <v>30.83</v>
+        <v>34.42</v>
       </c>
       <c r="E9">
-        <v>19.49</v>
+        <v>19.18</v>
       </c>
       <c r="F9">
-        <v>2.37</v>
+        <v>2.64</v>
       </c>
       <c r="G9">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.44</v>
+        <v>0.3</v>
       </c>
       <c r="K9">
-        <v>6.329999999999999</v>
+        <v>4.72</v>
       </c>
       <c r="L9">
-        <v>20.16</v>
+        <v>18.61</v>
       </c>
       <c r="M9">
-        <v>11.94</v>
+        <v>11.35</v>
       </c>
       <c r="N9">
-        <v>61.13</v>
+        <v>65.02000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2020,16 +2029,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>20.31</v>
+        <v>20.12</v>
       </c>
       <c r="E10">
-        <v>39.51</v>
+        <v>37.5</v>
       </c>
       <c r="F10">
-        <v>13.82</v>
+        <v>10.31</v>
       </c>
       <c r="G10">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2038,24 +2047,24 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="K10">
-        <v>2.01</v>
+        <v>2.33</v>
       </c>
       <c r="L10">
-        <v>12</v>
+        <v>13.59</v>
       </c>
       <c r="M10">
-        <v>11.48</v>
+        <v>15.53</v>
       </c>
       <c r="N10">
-        <v>74.44</v>
+        <v>68.53999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2067,13 +2076,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>31.79</v>
+        <v>35.65</v>
       </c>
       <c r="F11">
-        <v>32.38</v>
+        <v>34.08</v>
       </c>
       <c r="G11">
-        <v>4.390000000000001</v>
+        <v>4.17</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2085,16 +2094,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8699999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="L11">
-        <v>11.44</v>
+        <v>8.469999999999999</v>
       </c>
       <c r="M11">
-        <v>19.13</v>
+        <v>17.01</v>
       </c>
       <c r="N11">
-        <v>68.56</v>
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2114,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.92</v>
+        <v>52.66</v>
       </c>
       <c r="G12">
-        <v>18.83</v>
+        <v>18.35</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2132,18 +2141,18 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.26</v>
+        <v>4.79</v>
       </c>
       <c r="M12">
-        <v>24.99</v>
+        <v>24.2</v>
       </c>
       <c r="N12">
-        <v>69.75</v>
+        <v>71.00999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2161,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>75.91</v>
+        <v>76.86</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2179,10 +2188,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.09</v>
+        <v>23.14</v>
       </c>
       <c r="N13">
-        <v>75.91</v>
+        <v>76.86</v>
       </c>
     </row>
   </sheetData>
@@ -2200,19 +2209,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2223,16 +2232,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2243,16 +2252,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2263,16 +2272,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2280,13 +2289,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -2300,19 +2309,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2323,16 +2332,16 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2340,19 +2349,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2360,19 +2369,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>-8</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2383,16 +2392,16 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>-11</v>
+        <v>-19</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2403,16 +2412,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D11">
-        <v>-15</v>
+        <v>-19</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2423,16 +2432,16 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12">
-        <v>-28</v>
+        <v>-24</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2443,16 +2452,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13">
-        <v>-37</v>
+        <v>-43</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2462,57 +2471,60 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>83</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2555,11 +2567,14 @@
       <c r="N2">
         <v>35</v>
       </c>
-      <c r="O2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2602,11 +2617,14 @@
       <c r="N3">
         <v>29</v>
       </c>
-      <c r="O3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2649,105 +2667,114 @@
       <c r="N4">
         <v>16</v>
       </c>
-      <c r="O4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>-1</v>
       </c>
       <c r="C5">
+        <v>-9</v>
+      </c>
+      <c r="D5">
+        <v>-8</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>-11</v>
       </c>
-      <c r="D5">
-        <v>-15</v>
-      </c>
-      <c r="E5">
-        <v>-5</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-      <c r="G5">
+      <c r="L5">
+        <v>-6</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>9</v>
+      </c>
+      <c r="O5">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="H5">
-        <v>15</v>
-      </c>
-      <c r="I5">
-        <v>18</v>
-      </c>
-      <c r="J5">
-        <v>13</v>
-      </c>
-      <c r="K5">
-        <v>6</v>
-      </c>
-      <c r="L5">
-        <v>9</v>
-      </c>
-      <c r="M5">
-        <v>8</v>
-      </c>
-      <c r="N5">
-        <v>10</v>
-      </c>
-      <c r="O5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B6">
         <v>-1</v>
       </c>
       <c r="C6">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="D6">
-        <v>-8</v>
+        <v>-15</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K6">
-        <v>-11</v>
+        <v>6</v>
       </c>
       <c r="L6">
-        <v>-6</v>
+        <v>9</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N6">
-        <v>9</v>
-      </c>
-      <c r="O6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2790,105 +2817,114 @@
       <c r="N7">
         <v>3</v>
       </c>
-      <c r="O7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>-9</v>
+      </c>
+      <c r="G8">
+        <v>-13</v>
+      </c>
+      <c r="H8">
+        <v>-19</v>
+      </c>
+      <c r="I8">
+        <v>-14</v>
+      </c>
+      <c r="J8">
+        <v>-12</v>
+      </c>
+      <c r="K8">
+        <v>-17</v>
+      </c>
+      <c r="L8">
+        <v>-9</v>
+      </c>
+      <c r="M8">
+        <v>-9</v>
+      </c>
+      <c r="N8">
+        <v>-8</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>6</v>
       </c>
-      <c r="J8">
-        <v>12</v>
-      </c>
-      <c r="K8">
-        <v>12</v>
-      </c>
-      <c r="L8">
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>12</v>
+      </c>
+      <c r="L9">
         <v>6</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>4</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>-3</v>
       </c>
-      <c r="O8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>-9</v>
-      </c>
-      <c r="G9">
-        <v>-13</v>
-      </c>
-      <c r="H9">
-        <v>-19</v>
-      </c>
-      <c r="I9">
-        <v>-14</v>
-      </c>
-      <c r="J9">
-        <v>-12</v>
-      </c>
-      <c r="K9">
-        <v>-17</v>
-      </c>
-      <c r="L9">
-        <v>-9</v>
-      </c>
-      <c r="M9">
-        <v>-9</v>
-      </c>
-      <c r="N9">
+      <c r="O9">
         <v>-8</v>
       </c>
-      <c r="O9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2931,11 +2967,14 @@
       <c r="N10">
         <v>-11</v>
       </c>
-      <c r="O10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>-19</v>
+      </c>
+      <c r="P10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2978,11 +3017,14 @@
       <c r="N11">
         <v>-15</v>
       </c>
-      <c r="O11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11">
+        <v>-19</v>
+      </c>
+      <c r="P11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -3025,11 +3067,14 @@
       <c r="N12">
         <v>-28</v>
       </c>
-      <c r="O12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12">
+        <v>-24</v>
+      </c>
+      <c r="P12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -3072,8 +3117,11 @@
       <c r="N13">
         <v>-37</v>
       </c>
-      <c r="O13" t="s">
-        <v>67</v>
+      <c r="O13">
+        <v>-43</v>
+      </c>
+      <c r="P13" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3091,25 +3139,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3117,22 +3165,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>-18</v>
+        <v>-24</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -3143,22 +3191,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>-18</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -3169,25 +3217,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E4">
+        <v>-18</v>
+      </c>
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="F4">
-        <v>-17</v>
-      </c>
       <c r="G4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3195,25 +3243,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>-19</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>-43</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3224,22 +3272,22 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
       <c r="F6">
-        <v>-4</v>
+        <v>-17</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3247,25 +3295,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>-15</v>
-      </c>
       <c r="F7">
-        <v>-29</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Family League 2023.xlsx
+++ b/Family League 2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
   <si>
     <t>CHUBBER</t>
   </si>
@@ -58,43 +58,43 @@
     <t>DadBods 69ers</t>
   </si>
   <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>1-13-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
-  </si>
-  <si>
-    <t>13-1-0</t>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>2-13-0</t>
+  </si>
+  <si>
+    <t>13-2-0</t>
+  </si>
+  <si>
+    <t>14-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -163,12 +163,12 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
     <t>lawrence wallach</t>
   </si>
   <si>
-    <t>Jackson Jansorn</t>
-  </si>
-  <si>
     <t>Diana Wallach</t>
   </si>
   <si>
@@ -178,60 +178,60 @@
     <t>Kari Dickert</t>
   </si>
   <si>
+    <t>Ted Wallach</t>
+  </si>
+  <si>
     <t>Zach Wallach</t>
   </si>
   <si>
-    <t>Ted Wallach</t>
-  </si>
-  <si>
     <t>Gabe Musty</t>
   </si>
   <si>
     <t>Michael Dickert</t>
   </si>
   <si>
+    <t>Jordan Wallach</t>
+  </si>
+  <si>
     <t>Matt Wallach</t>
   </si>
   <si>
-    <t>Jordan Wallach</t>
-  </si>
-  <si>
     <t>Noah Wallach</t>
   </si>
   <si>
-    <t>↓3</t>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑11</t>
+    <t>↑4</t>
   </si>
   <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -705,34 +708,34 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -743,13 +746,13 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -761,16 +764,16 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
         <v>14</v>
@@ -793,19 +796,19 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -822,37 +825,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
         <v>13</v>
@@ -863,10 +866,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -875,7 +878,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -884,7 +887,7 @@
         <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
@@ -896,7 +899,7 @@
         <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -907,34 +910,34 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7" t="s">
         <v>24</v>
@@ -945,31 +948,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
         <v>17</v>
@@ -978,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -986,37 +989,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
         <v>17</v>
@@ -1027,40 +1030,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
       </c>
       <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" t="s">
         <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1068,28 +1071,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -1101,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1115,31 +1118,31 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
         <v>13</v>
@@ -1150,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1162,25 +1165,25 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -1215,13 +1218,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1229,13 +1232,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1243,13 +1246,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>6.416666666666667</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1257,13 +1260,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>6.416666666666667</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1271,13 +1274,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>6.75</v>
+        <v>7.25</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1285,13 +1288,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>6.833333333333333</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1299,13 +1302,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>7.166666666666667</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1313,13 +1316,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7.333333333333333</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1327,13 +1330,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>7.333333333333333</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1341,13 +1344,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>7.416666666666667</v>
+        <v>7.75</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1355,13 +1358,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>8</v>
       </c>
-      <c r="C12">
-        <v>7.416666666666667</v>
-      </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1372,7 +1375,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>8.666666666666666</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1413,13 +1416,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="D2">
         <v>-0.25</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1427,16 +1430,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>9.083333333333334</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="D3">
-        <v>-0.9166666666666661</v>
+        <v>0.6666666666666661</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1444,16 +1447,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>8.833333333333334</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="D4">
-        <v>0.8333333333333339</v>
+        <v>-0.4166666666666661</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1461,16 +1464,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>8.083333333333334</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D5">
-        <v>1.083333333333334</v>
+        <v>0.3333333333333339</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1478,16 +1481,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>7.666666666666667</v>
+        <v>8.25</v>
       </c>
       <c r="D6">
-        <v>-0.333333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1495,16 +1498,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>7.166666666666667</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>0.166666666666667</v>
+        <v>-2</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1512,16 +1515,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>7.083333333333333</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D8">
-        <v>-1.916666666666667</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1529,16 +1532,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="D9">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1546,13 +1549,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>6.166666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="D10">
-        <v>1.166666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1566,13 +1569,13 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>5.333333333333333</v>
+        <v>5.75</v>
       </c>
       <c r="D11">
-        <v>-0.666666666666667</v>
+        <v>-0.25</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1583,13 +1586,13 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>4.833333333333333</v>
+        <v>5.25</v>
       </c>
       <c r="D12">
-        <v>0.833333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1600,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.75</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D13">
-        <v>-1.25</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1671,10 +1674,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>23.2</v>
+        <v>22.87</v>
       </c>
       <c r="C2">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1689,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.19</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="I2">
-        <v>66.38</v>
+        <v>66.13</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1707,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1715,16 +1718,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>22.58</v>
+        <v>22.08</v>
       </c>
       <c r="C3">
-        <v>15.66</v>
+        <v>15.01</v>
       </c>
       <c r="D3">
-        <v>1.23</v>
+        <v>1.55</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1733,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I3">
-        <v>5.58</v>
+        <v>5.83</v>
       </c>
       <c r="J3">
-        <v>31.11</v>
+        <v>30.94</v>
       </c>
       <c r="K3">
-        <v>23.78</v>
+        <v>24.47</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1751,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>45.10999999999999</v>
+        <v>44.59</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1759,13 +1762,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20.02</v>
+        <v>19.58</v>
       </c>
       <c r="C4">
-        <v>5.64</v>
+        <v>6.02</v>
       </c>
       <c r="D4">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1777,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="I4">
-        <v>26.75</v>
+        <v>26.37</v>
       </c>
       <c r="J4">
-        <v>46.36</v>
+        <v>46.55</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1795,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>53.64</v>
+        <v>53.45</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1803,16 +1806,16 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>14.22</v>
+        <v>14.54</v>
       </c>
       <c r="C5">
-        <v>21.6</v>
+        <v>21.95</v>
       </c>
       <c r="D5">
-        <v>5.36</v>
+        <v>4.859999999999999</v>
       </c>
       <c r="E5">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1821,25 +1824,25 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I5">
-        <v>1.16</v>
+        <v>1.42</v>
       </c>
       <c r="J5">
-        <v>15.88</v>
+        <v>15.98</v>
       </c>
       <c r="K5">
-        <v>32.09</v>
+        <v>31.07</v>
       </c>
       <c r="L5">
-        <v>9.56</v>
+        <v>9.93</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>42.47</v>
+        <v>43.02</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1847,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>10.42</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1865,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>89.58</v>
+        <v>89</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1891,19 +1894,19 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.850000000000001</v>
+        <v>7.359999999999999</v>
       </c>
       <c r="C7">
-        <v>22.69</v>
+        <v>23.39</v>
       </c>
       <c r="D7">
-        <v>11.79</v>
+        <v>12.13</v>
       </c>
       <c r="E7">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1912,22 +1915,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="J7">
-        <v>5.44</v>
+        <v>5.28</v>
       </c>
       <c r="K7">
-        <v>25.69</v>
+        <v>25.8</v>
       </c>
       <c r="L7">
-        <v>23.62</v>
+        <v>22.22</v>
       </c>
       <c r="M7">
-        <v>2.71</v>
+        <v>2.57</v>
       </c>
       <c r="N7">
-        <v>42.54</v>
+        <v>44.13</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1935,22 +1938,22 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2.71</v>
+        <v>2.57</v>
       </c>
       <c r="C8">
-        <v>24.41</v>
+        <v>23.14</v>
       </c>
       <c r="D8">
-        <v>27.02</v>
+        <v>28.37</v>
       </c>
       <c r="E8">
-        <v>6.460000000000001</v>
+        <v>6.859999999999999</v>
       </c>
       <c r="F8">
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1959,19 +1962,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.8999999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="K8">
-        <v>10.77</v>
+        <v>10.55</v>
       </c>
       <c r="L8">
-        <v>21.36</v>
+        <v>20.82</v>
       </c>
       <c r="M8">
-        <v>6.06</v>
+        <v>6.44</v>
       </c>
       <c r="N8">
-        <v>60.91000000000001</v>
+        <v>61.13</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1982,40 +1985,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.77</v>
+        <v>9.01</v>
       </c>
       <c r="D9">
-        <v>34.42</v>
+        <v>32.99</v>
       </c>
       <c r="E9">
-        <v>19.18</v>
+        <v>20.1</v>
       </c>
       <c r="F9">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="G9">
+        <v>0.04</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>0.01</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
       <c r="K9">
-        <v>4.72</v>
+        <v>5.29</v>
       </c>
       <c r="L9">
-        <v>18.61</v>
+        <v>18.82</v>
       </c>
       <c r="M9">
-        <v>11.35</v>
+        <v>10.97</v>
       </c>
       <c r="N9">
-        <v>65.02000000000001</v>
+        <v>64.78</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2029,16 +2032,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>20.12</v>
+        <v>19.98</v>
       </c>
       <c r="E10">
-        <v>37.5</v>
+        <v>35.97</v>
       </c>
       <c r="F10">
-        <v>10.31</v>
+        <v>10.93</v>
       </c>
       <c r="G10">
-        <v>0.61</v>
+        <v>0.53</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2047,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="K10">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="L10">
-        <v>13.59</v>
+        <v>14.46</v>
       </c>
       <c r="M10">
-        <v>15.53</v>
+        <v>15.84</v>
       </c>
       <c r="N10">
-        <v>68.53999999999999</v>
+        <v>67.41</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2076,13 +2079,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>35.65</v>
+        <v>35.82</v>
       </c>
       <c r="F11">
-        <v>34.08</v>
+        <v>33.34</v>
       </c>
       <c r="G11">
-        <v>4.17</v>
+        <v>4.31</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2094,16 +2097,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
       <c r="L11">
-        <v>8.469999999999999</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="M11">
-        <v>17.01</v>
+        <v>17.09</v>
       </c>
       <c r="N11">
-        <v>73.90000000000001</v>
+        <v>73.47</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2123,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>52.66</v>
+        <v>52.91</v>
       </c>
       <c r="G12">
-        <v>18.35</v>
+        <v>17.39</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2141,13 +2144,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.79</v>
+        <v>4.89</v>
       </c>
       <c r="M12">
-        <v>24.2</v>
+        <v>24.81</v>
       </c>
       <c r="N12">
-        <v>71.00999999999999</v>
+        <v>70.30000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2170,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>76.86</v>
+        <v>77.72</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2188,10 +2191,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.14</v>
+        <v>22.28</v>
       </c>
       <c r="N13">
-        <v>76.86</v>
+        <v>77.72</v>
       </c>
     </row>
   </sheetData>
@@ -2229,16 +2232,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>59</v>
@@ -2249,16 +2252,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -2275,7 +2278,7 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -2295,13 +2298,13 @@
         <v>50</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2318,10 +2321,10 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2329,19 +2332,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2349,19 +2352,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2375,13 +2378,13 @@
         <v>54</v>
       </c>
       <c r="D9">
-        <v>-8</v>
+        <v>-15</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2395,13 +2398,13 @@
         <v>55</v>
       </c>
       <c r="D10">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2409,19 +2412,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>
       </c>
       <c r="D11">
-        <v>-19</v>
+        <v>-20</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2429,7 +2432,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
@@ -2438,10 +2441,10 @@
         <v>-24</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2455,13 +2458,13 @@
         <v>58</v>
       </c>
       <c r="D13">
-        <v>-43</v>
+        <v>-50</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2471,13 +2474,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
@@ -2521,110 +2524,119 @@
         <v>83</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>-4</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>-3</v>
-      </c>
-      <c r="E2">
-        <v>-4</v>
-      </c>
       <c r="F2">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>12</v>
       </c>
       <c r="I2">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L2">
+        <v>23</v>
+      </c>
+      <c r="M2">
+        <v>26</v>
+      </c>
+      <c r="N2">
         <v>29</v>
       </c>
-      <c r="M2">
-        <v>30</v>
-      </c>
-      <c r="N2">
-        <v>35</v>
-      </c>
       <c r="O2">
-        <v>32</v>
-      </c>
-      <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
+        <v>-3</v>
+      </c>
+      <c r="E3">
         <v>-4</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
       <c r="F3">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>12</v>
       </c>
       <c r="I3">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="L3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="O3">
-        <v>31</v>
-      </c>
-      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2670,11 +2682,14 @@
       <c r="O4">
         <v>25</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2720,11 +2735,14 @@
       <c r="O5">
         <v>11</v>
       </c>
-      <c r="P5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5">
+        <v>14</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2770,111 +2788,120 @@
       <c r="O6">
         <v>8</v>
       </c>
-      <c r="P6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6">
+        <v>8</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>-5</v>
-      </c>
-      <c r="C7">
-        <v>-2</v>
-      </c>
       <c r="D7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="G7">
+        <v>-13</v>
+      </c>
+      <c r="H7">
+        <v>-19</v>
+      </c>
+      <c r="I7">
+        <v>-14</v>
+      </c>
+      <c r="J7">
+        <v>-12</v>
+      </c>
+      <c r="K7">
+        <v>-17</v>
+      </c>
+      <c r="L7">
+        <v>-9</v>
+      </c>
+      <c r="M7">
+        <v>-9</v>
+      </c>
+      <c r="N7">
         <v>-8</v>
-      </c>
-      <c r="H7">
-        <v>-3</v>
-      </c>
-      <c r="I7">
-        <v>-10</v>
-      </c>
-      <c r="J7">
-        <v>-6</v>
-      </c>
-      <c r="K7">
-        <v>-1</v>
-      </c>
-      <c r="L7">
-        <v>-4</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
-      </c>
-      <c r="N7">
-        <v>3</v>
       </c>
       <c r="O7">
         <v>3</v>
       </c>
-      <c r="P7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7">
+        <v>8</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="G8">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="H8">
-        <v>-19</v>
+        <v>-3</v>
       </c>
       <c r="I8">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="J8">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="K8">
-        <v>-17</v>
+        <v>-1</v>
       </c>
       <c r="L8">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="M8">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="O8">
         <v>3</v>
       </c>
-      <c r="P8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8">
+        <v>-6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2920,11 +2947,14 @@
       <c r="O9">
         <v>-8</v>
       </c>
-      <c r="P9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9">
+        <v>-15</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2970,111 +3000,120 @@
       <c r="O10">
         <v>-19</v>
       </c>
-      <c r="P10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10">
+        <v>-17</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="B11">
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
         <v>-3</v>
       </c>
-      <c r="C11">
+      <c r="F11">
+        <v>-6</v>
+      </c>
+      <c r="G11">
+        <v>-8</v>
+      </c>
+      <c r="H11">
+        <v>-13</v>
+      </c>
+      <c r="I11">
+        <v>-15</v>
+      </c>
+      <c r="J11">
+        <v>-18</v>
+      </c>
+      <c r="K11">
+        <v>-14</v>
+      </c>
+      <c r="L11">
+        <v>-18</v>
+      </c>
+      <c r="M11">
+        <v>-23</v>
+      </c>
+      <c r="N11">
+        <v>-28</v>
+      </c>
+      <c r="O11">
+        <v>-24</v>
+      </c>
+      <c r="P11">
+        <v>-20</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>-3</v>
+      </c>
+      <c r="C12">
         <v>4</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>11</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>8</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>3</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>-3</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>-5</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>-4</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>-6</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>-4</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>-15</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>-19</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>-15</v>
       </c>
-      <c r="O11">
+      <c r="O12">
         <v>-19</v>
       </c>
-      <c r="P11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>-1</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>-3</v>
-      </c>
-      <c r="F12">
-        <v>-6</v>
-      </c>
-      <c r="G12">
-        <v>-8</v>
-      </c>
-      <c r="H12">
-        <v>-13</v>
-      </c>
-      <c r="I12">
-        <v>-15</v>
-      </c>
-      <c r="J12">
-        <v>-18</v>
-      </c>
-      <c r="K12">
-        <v>-14</v>
-      </c>
-      <c r="L12">
-        <v>-18</v>
-      </c>
-      <c r="M12">
-        <v>-23</v>
-      </c>
-      <c r="N12">
-        <v>-28</v>
-      </c>
-      <c r="O12">
+      <c r="P12">
         <v>-24</v>
       </c>
-      <c r="P12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -3120,8 +3159,11 @@
       <c r="O13">
         <v>-43</v>
       </c>
-      <c r="P13" t="s">
-        <v>69</v>
+      <c r="P13">
+        <v>-50</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3131,7 +3173,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3139,25 +3181,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3217,25 +3259,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3243,25 +3285,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="F5">
-        <v>-43</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3269,25 +3311,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>-19</v>
       </c>
       <c r="F6">
-        <v>-17</v>
+        <v>-43</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3295,24 +3337,50 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>-17</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>25</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>22</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>1</v>
       </c>
     </row>
